--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4962EC0D-BE05-43BD-B810-422A1F803E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5F11B-9CE7-4F55-A98E-F478420A37E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="1695" windowWidth="25170" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,32 @@
     <sheet name="관심아티스트" sheetId="4" r:id="rId4"/>
     <sheet name="장르" sheetId="5" r:id="rId5"/>
     <sheet name="아티스트" sheetId="8" r:id="rId6"/>
-    <sheet name="공연정보" sheetId="9" r:id="rId7"/>
-    <sheet name="이미지" sheetId="10" r:id="rId8"/>
-    <sheet name="게시판" sheetId="11" r:id="rId9"/>
-    <sheet name="댓글" sheetId="12" r:id="rId10"/>
+    <sheet name="아티스트-장르" sheetId="13" r:id="rId7"/>
+    <sheet name="공연정보" sheetId="9" r:id="rId8"/>
+    <sheet name="공연-아티스트" sheetId="15" r:id="rId9"/>
+    <sheet name="이미지" sheetId="10" r:id="rId10"/>
+    <sheet name="게시판" sheetId="11" r:id="rId11"/>
+    <sheet name="댓글" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="579">
   <si>
     <t xml:space="preserve"> 유저이름</t>
   </si>
@@ -108,15 +118,6 @@
     <t>주요장르</t>
   </si>
   <si>
-    <t>artist_name</t>
-  </si>
-  <si>
-    <t>artist_type</t>
-  </si>
-  <si>
-    <t>artist_img</t>
-  </si>
-  <si>
     <t>공연명</t>
   </si>
   <si>
@@ -135,9 +136,6 @@
     <t>공연장명</t>
   </si>
   <si>
-    <t>공연가격</t>
-  </si>
-  <si>
     <t>concert_name</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>concert_place</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>일련번호</t>
   </si>
   <si>
@@ -243,11 +238,1967 @@
     <t>r_remove_date</t>
   </si>
   <si>
-    <t>artist_debut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist_genre</t>
+    <t>해리 스타일스 내한공연</t>
+  </si>
+  <si>
+    <t>해리 스타일스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 체조경기장 (KSPO DOME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중 콘서트 - 일산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산 킨텍스(KINTEX) 제1전시장 1홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성시경 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성시경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실실내체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중 콘서트 - 대전</t>
+  </si>
+  <si>
+    <t>대전컨벤션센터 제2전시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동석 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데콘서트홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 THE CRY X-MAS - 수원</t>
+  </si>
+  <si>
+    <t>수원 컨벤션센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비투비 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비투비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 Theatre 이문세 - 고양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이문세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양아람누리 아람극장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르테 디 콰트로 콘서트 - 부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르테 디 콰트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡스코 오디토리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박효신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크러쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강형호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정택운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지오디 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스텔라 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤하 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임재범 콘서트 - 부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장민호 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10cm 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크러쉬 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민가수 6인의 산타 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허각, 2F 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이엑스 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>god</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	윤하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	임재범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장민호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이엑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑스코 서관 5층 컨벤션홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 올림픽홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 벡스코(BEXCO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBS부산홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 SK올림픽핸드볼경기장 (구 펜싱경기장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학로 굿씨어터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성신여대 운정그린캠퍼스 대강당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루스퀘어 마스터카드홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패티김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던말릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송가인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코요태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥주현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/07/0400040907_16003_02656.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCM
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+소울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝페라
+CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동원 콘서트 - 일산 (2nd JEONG DONG WON’S CHRISTMAS CONCERT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자우림 콘서트 (MERRY SPOOKY X-MAS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">송가인 콘서트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 국제페스티벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주신화월드 카운트다운 2023 제주 (JSW COUNTDOWN 2023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트 업 페스티벌 (2022 LIGHT UP FESTIVA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동하, 소향 콘서트 - 평택 (THE GREATEST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕펑스, 데이브레이크 콘서트 (Winter Wonderland)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 뮤직 페스티벌 (RIDE THE BEAT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무진 콘서트 - 대구 (별책부록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자우림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산 킨텍스 제 1전시장 1홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 SK올림픽핸드볼경기장 (구 펜싱경기장)</t>
+  </si>
+  <si>
+    <t>경희대학교 평화의전당</t>
+  </si>
+  <si>
+    <t>경남문화예술회관 대공연장</t>
+  </si>
+  <si>
+    <t>제주신화월드 야외주차장</t>
+  </si>
+  <si>
+    <t>KBS아레나 (구88체육관)</t>
+  </si>
+  <si>
+    <t>이충문화체육센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연세대학교 백양콘서트홀(구. 백주년기념관)</t>
+  </si>
+  <si>
+    <t>장충체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마아트센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG워너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인순이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조성모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동방신기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리쌍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+RnB
+컨트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트
+소울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스
+발라드
+RnB
+일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임강성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조영남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜은이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김장훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1541_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카더가든 콘서트 Home Sweet Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정은지 콘서트 Travelog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치드 콘서트 HIGHLIGHT 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박혜원 콘서트 First of all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페퍼톤스 콘서트 THOUSAND UMBRELLAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이클 볼튼 내한공연 Encore, 'Michael Bolton Live in Seoul'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넬 콘서트 Goodbye, Hello in NELL’S ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜로망스 콘서트 - 부산Festival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석훈 콘서트 휴(休)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+나이트위시 내한공연 Nightwish Live in Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카더가든	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	정은지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	페퍼톤스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	마이클 볼튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜로망스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이트위시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015085_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016130_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	https://ticketimage.interpark.com/Play/image/large/22/22016554_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015278_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015132_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016588_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014878_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015072_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016390_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2022.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2022.12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코엑스 신한카드 아티움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	예스24 라이브홀 (구 악스코리아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예스24 라이브홀 (구 악스코리아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고척스카이돔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 잠실 학생체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	KBS아레나 (구88체육관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022.12.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현
+손진욱
+조연호
+하동연
+김희석
+김영흠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤미래
+다이나믹 듀오
+타이거 JK
+홍록기
+바다
+비지
+노라조
+코요태
+이재훈
+반달락
+비비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나윤선
+최백호
+알리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허각
+2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이센스
+JUSTHIS
+애쉬 아일랜드
+더콰이엇
+팔로알토
+빅나티
+릴러말즈
+스키니 브라운
+래원
+재하
+99'네스티키즈
+태비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동하
+소향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕펑스
+데이브레이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지코
+JUSTHIS
+송민호
+식케이
+애쉬 아일랜드
+언에듀케이티드 키드
+PH-1
+다운
+릴러말즈
+호미들
+빅나티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지코
+사이먼 도미닉
+로꼬
+그레이
+우원재
+기리보이
+키드밀리
+한요한
+JUSTHIS
+루피
+쿠기
+다운
+박재범
+더콰이엇
+팔로알토
+염따
+ph-1
+릴보이
+비오
+애쉬 아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩
+힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+락
+발라드
+RnB
+트로트
+재즈
+랩
+뮤지컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스
+발라드
+RnB
+팝
+일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+락
+RnB
+재즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+메탈
+클래식
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디
+락
+메탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+팝
+RnB
+소울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+트로트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식
+팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크
+블루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+포크
+블루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015044_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014872_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014064_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014975_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016273_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22013785_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014054_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014892_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016563_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014517_p.gif</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/007/89/943/789943_20211019135451_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/017/01/869/1701869_20220427134633_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/01/714/1714_2_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/019/56/564/1956564_20210222095253_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/51/893/51893_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/02/146/2146_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016203_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015425_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014627_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016545_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016321_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016347_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015350_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22013875_p.gif</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22008291_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015878_p.gif</t>
+  </si>
+  <si>
+    <t>장윤정 콘서트 - 안동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장윤정</t>
+  </si>
+  <si>
+    <t>장윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동실내체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015770_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181851_01.427.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181838_01.723.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_182204_01.243.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180928_01.354.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181651_01.641.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181387_01.813.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180112_01.436.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180748_01.943.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181850_01.857.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180226_01.422.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/08/0400040908_16912_021.508.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1274_01.144.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1027_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1455_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/18/01/0400041801_42330_02.128.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/11/0400040911_18920_023.116.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_276_01.j736.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1042_012.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1301_012940.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/11/10/0400041110_27023_022.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/20/03/0400042003_46182_02715.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/13/02/0400041302_31203_02247.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/19/09/0400041909_45310_02717.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/14/03/0400041403_34313_02.925.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1035_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/19/06/0400041906_44853_02.416.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/11/03/0400041103_25102_02.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/03/0400040803_7194_02.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1023_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1181_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/02/0400040802_6752_02.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_4676_02.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/10/10/0400041010_23468_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_974_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/02/0400040802_6902_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1292_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/03/0400040803_7473_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1008_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_4731_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1029_012.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <t>A0004</t>
+  </si>
+  <si>
+    <t>A0005</t>
+  </si>
+  <si>
+    <t>A0006</t>
+  </si>
+  <si>
+    <t>A0007</t>
+  </si>
+  <si>
+    <t>A0008</t>
+  </si>
+  <si>
+    <t>A0009</t>
+  </si>
+  <si>
+    <t>A0010</t>
+  </si>
+  <si>
+    <t>A0011</t>
+  </si>
+  <si>
+    <t>A0012</t>
+  </si>
+  <si>
+    <t>A0013</t>
+  </si>
+  <si>
+    <t>A0014</t>
+  </si>
+  <si>
+    <t>A0015</t>
+  </si>
+  <si>
+    <t>A0016</t>
+  </si>
+  <si>
+    <t>A0017</t>
+  </si>
+  <si>
+    <t>A0018</t>
+  </si>
+  <si>
+    <t>A0019</t>
+  </si>
+  <si>
+    <t>A0020</t>
+  </si>
+  <si>
+    <t>A0021</t>
+  </si>
+  <si>
+    <t>A0022</t>
+  </si>
+  <si>
+    <t>A0023</t>
+  </si>
+  <si>
+    <t>A0024</t>
+  </si>
+  <si>
+    <t>A0026</t>
+  </si>
+  <si>
+    <t>A0027</t>
+  </si>
+  <si>
+    <t>A0028</t>
+  </si>
+  <si>
+    <t>A0029</t>
+  </si>
+  <si>
+    <t>A0030</t>
+  </si>
+  <si>
+    <t>A0031</t>
+  </si>
+  <si>
+    <t>A0032</t>
+  </si>
+  <si>
+    <t>A0033</t>
+  </si>
+  <si>
+    <t>A0034</t>
+  </si>
+  <si>
+    <t>A0035</t>
+  </si>
+  <si>
+    <t>A0036</t>
+  </si>
+  <si>
+    <t>A0037</t>
+  </si>
+  <si>
+    <t>A0038</t>
+  </si>
+  <si>
+    <t>A0039</t>
+  </si>
+  <si>
+    <t>RnB
+힙합
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝페라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0002</t>
+  </si>
+  <si>
+    <t>G0003</t>
+  </si>
+  <si>
+    <t>G0004</t>
+  </si>
+  <si>
+    <t>G0005</t>
+  </si>
+  <si>
+    <t>G0006</t>
+  </si>
+  <si>
+    <t>G0007</t>
+  </si>
+  <si>
+    <t>G0008</t>
+  </si>
+  <si>
+    <t>G0009</t>
+  </si>
+  <si>
+    <t>G0010</t>
+  </si>
+  <si>
+    <t>G0011</t>
+  </si>
+  <si>
+    <t>G0012</t>
+  </si>
+  <si>
+    <t>G0013</t>
+  </si>
+  <si>
+    <t>G0014</t>
+  </si>
+  <si>
+    <t>G0015</t>
+  </si>
+  <si>
+    <t>G0016</t>
+  </si>
+  <si>
+    <t>G0017</t>
+  </si>
+  <si>
+    <t>G0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스텔라</t>
+  </si>
+  <si>
+    <t>정동하</t>
+  </si>
+  <si>
+    <t>크러쉬</t>
+  </si>
+  <si>
+    <t>터치드</t>
+  </si>
+  <si>
+    <t>비비</t>
+  </si>
+  <si>
+    <t>코요태</t>
+  </si>
+  <si>
+    <t>A0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0002</t>
+  </si>
+  <si>
+    <t>C0003</t>
+  </si>
+  <si>
+    <t>C0004</t>
+  </si>
+  <si>
+    <t>C0005</t>
+  </si>
+  <si>
+    <t>C0006</t>
+  </si>
+  <si>
+    <t>C0007</t>
+  </si>
+  <si>
+    <t>C0008</t>
+  </si>
+  <si>
+    <t>C0009</t>
+  </si>
+  <si>
+    <t>C0010</t>
+  </si>
+  <si>
+    <t>C0011</t>
+  </si>
+  <si>
+    <t>C0012</t>
+  </si>
+  <si>
+    <t>C0013</t>
+  </si>
+  <si>
+    <t>C0014</t>
+  </si>
+  <si>
+    <t>C0015</t>
+  </si>
+  <si>
+    <t>C0016</t>
+  </si>
+  <si>
+    <t>C0017</t>
+  </si>
+  <si>
+    <t>C0018</t>
+  </si>
+  <si>
+    <t>C0019</t>
+  </si>
+  <si>
+    <t>C0020</t>
+  </si>
+  <si>
+    <t>C0021</t>
+  </si>
+  <si>
+    <t>C0022</t>
+  </si>
+  <si>
+    <t>C0023</t>
+  </si>
+  <si>
+    <t>C0024</t>
+  </si>
+  <si>
+    <t>C0025</t>
+  </si>
+  <si>
+    <t>C0026</t>
+  </si>
+  <si>
+    <t>C0027</t>
+  </si>
+  <si>
+    <t>C0028</t>
+  </si>
+  <si>
+    <t>C0029</t>
+  </si>
+  <si>
+    <t>C0030</t>
+  </si>
+  <si>
+    <t>C0031</t>
+  </si>
+  <si>
+    <t>C0032</t>
+  </si>
+  <si>
+    <t>C0033</t>
+  </si>
+  <si>
+    <t>C0034</t>
+  </si>
+  <si>
+    <t>C0035</t>
+  </si>
+  <si>
+    <t>C0036</t>
+  </si>
+  <si>
+    <t>C0037</t>
+  </si>
+  <si>
+    <t>C0038</t>
+  </si>
+  <si>
+    <t>C0039</t>
+  </si>
+  <si>
+    <t>C0040</t>
+  </si>
+  <si>
+    <t>흰</t>
+  </si>
+  <si>
+    <t>흰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤하</t>
+  </si>
+  <si>
+    <t>김호중</t>
+  </si>
+  <si>
+    <t>이문세</t>
+  </si>
+  <si>
+    <t>이무진</t>
+  </si>
+  <si>
+    <t>최백호</t>
+  </si>
+  <si>
+    <t>자우림</t>
+  </si>
+  <si>
+    <t>임재범</t>
+  </si>
+  <si>
+    <t>소향</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>김영흠</t>
+  </si>
+  <si>
+    <t>로꼬</t>
+  </si>
+  <si>
+    <t>그레이</t>
+  </si>
+  <si>
+    <t>우원재</t>
+  </si>
+  <si>
+    <t>기리보이</t>
+  </si>
+  <si>
+    <t>키드밀리</t>
+  </si>
+  <si>
+    <t>한요한</t>
+  </si>
+  <si>
+    <t>JUSTHIS</t>
+  </si>
+  <si>
+    <t>루피</t>
+  </si>
+  <si>
+    <t>쿠기</t>
+  </si>
+  <si>
+    <t>다운</t>
+  </si>
+  <si>
+    <t>박재범</t>
+  </si>
+  <si>
+    <t>더콰이엇</t>
+  </si>
+  <si>
+    <t>팔로알토</t>
+  </si>
+  <si>
+    <t>염따</t>
+  </si>
+  <si>
+    <t>ph-1</t>
+  </si>
+  <si>
+    <t>릴보이</t>
+  </si>
+  <si>
+    <t>비오</t>
+  </si>
+  <si>
+    <t>애쉬 아일랜드</t>
+  </si>
+  <si>
+    <t>포르테 디 콰트로</t>
+  </si>
+  <si>
+    <t>허각</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>정동원</t>
+  </si>
+  <si>
+    <t>전동석</t>
+  </si>
+  <si>
+    <t>비투비</t>
+  </si>
+  <si>
+    <t>씨아이엑스</t>
+  </si>
+  <si>
+    <t>윤미래</t>
+  </si>
+  <si>
+    <t>다이나믹 듀오</t>
+  </si>
+  <si>
+    <t>타이거 JK</t>
+  </si>
+  <si>
+    <t>홍록기</t>
+  </si>
+  <si>
+    <t>바다</t>
+  </si>
+  <si>
+    <t>비지</t>
+  </si>
+  <si>
+    <t>노라조</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>반달락</t>
+  </si>
+  <si>
+    <t>송민호</t>
+  </si>
+  <si>
+    <t>식케이</t>
+  </si>
+  <si>
+    <t>언에듀케이티드 키드</t>
+  </si>
+  <si>
+    <t>릴러말즈</t>
+  </si>
+  <si>
+    <t>호미들</t>
+  </si>
+  <si>
+    <t>빅나티</t>
+  </si>
+  <si>
+    <t>딕펑스</t>
+  </si>
+  <si>
+    <t>데이브레이크</t>
+  </si>
+  <si>
+    <t>이센스</t>
+  </si>
+  <si>
+    <t>스키니 브라운</t>
+  </si>
+  <si>
+    <t>래원</t>
+  </si>
+  <si>
+    <t>재하</t>
+  </si>
+  <si>
+    <t>99'네스티키즈</t>
+  </si>
+  <si>
+    <t>태비</t>
+  </si>
+  <si>
+    <t>해리 스타일스</t>
+  </si>
+  <si>
+    <t>페퍼톤스</t>
+  </si>
+  <si>
+    <t>나이트위시</t>
+  </si>
+  <si>
+    <t>카더가든</t>
+  </si>
+  <si>
+    <t>정은지</t>
+  </si>
+  <si>
+    <t>이석훈</t>
+  </si>
+  <si>
+    <t>멜로망스</t>
+  </si>
+  <si>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>넬</t>
+  </si>
+  <si>
+    <t>마이클 볼튼</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/05/0400040905_14412_02836.658.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1022_01.116.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/20/02/0400042002_46047_02711.305.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/21/05/0400042105_47573_02.355.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나윤선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1288_012041.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1518_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/10/05/0400041005_21607_02501.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_5062_022.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_4636_011218.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_5266_02.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/20/02/0400042002_46046_02845.222.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/10/04/0400041004_21390_02650.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/04/0400040804_7834_021.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/19/06/0400041906_44871_02559.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/70/210/2970210_20220520171829_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, 록/메탈, 국내드라마</t>
+  </si>
+  <si>
+    <t>재즈, 보컬재즈, CCM</t>
+  </si>
+  <si>
+    <t>성인가요/트로트, 포크/블루스, 발라드</t>
+  </si>
+  <si>
+    <t>발라드, R&amp;B/Soul, 국내드라마</t>
+  </si>
+  <si>
+    <t>발라드, 댄스, 랩/힙합</t>
+  </si>
+  <si>
+    <t>록/메탈, 발라드, 댄스</t>
+  </si>
+  <si>
+    <t>성인가요/트로트, 발라드, 국내드라마</t>
+  </si>
+  <si>
+    <t>발라드, 국내드라마, CCM</t>
+  </si>
+  <si>
+    <t>포크/블루스, 인디음악, 발라드</t>
+  </si>
+  <si>
+    <t>발라드, 국내드라마</t>
+  </si>
+  <si>
+    <t>손진욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/017/59/633/1759633_20220211180649_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조연호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/025/58/582/2558582_20220211180732_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, 댄스, 록/메탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하동연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/026/34/159/2634159_20211111180533_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, 국내드라마, 록/메탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, 댄스, R&amp;B/Soul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/70/207/2970207_20220615112415_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/027/55/008/2755008_20220211180838_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝, 포크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/006/02/056/602056_20220719141051_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩/힙합, 발라드, 국내드라마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이먼 도미닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/004/28/847/428847_20211124172652_500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트
+클래식
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+포크
+블루스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, 댄스, 록/메탈, R&amp;B/Soul, 트로트, 포크/블루스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +2206,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\.mm\.dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +2219,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF606060"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -288,14 +2265,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -627,6 +2619,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F264FC-E4FD-435F-9A18-14C91FDF1855}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A34A1-C3C9-4759-A9DA-8DE8B4263943}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00CE038-3E8E-4C7B-8836-17D0FEAA38C7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -646,42 +2756,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629F6DA-9E02-406A-B6E7-6A514633970A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,7 +2935,185 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B19">
+    <sortCondition ref="B3:B19"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,10 +3121,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,9 +3132,9 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -869,101 +3157,2529 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2">
+        <v>1958</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3">
+        <v>1970</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4">
+        <v>1973</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>1975</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6">
+        <v>1978</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7">
+        <v>1984</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8">
+        <v>1988</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9">
+        <v>1991</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10">
+        <v>1991</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11">
+        <v>1993</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12">
+        <v>1994</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13">
+        <v>1996</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14">
+        <v>1998</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15">
+        <v>1998</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16">
+        <v>1998</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17">
+        <v>1998</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18">
+        <v>1999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19">
+        <v>1999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20">
+        <v>2002</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21">
+        <v>2002</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22">
+        <v>2002</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23">
+        <v>2004</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24">
+        <v>2004</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25">
+        <v>2004</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26">
+        <v>2005</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27">
+        <v>2005</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28">
+        <v>2009</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29">
+        <v>2010</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30">
+        <v>2010</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31">
+        <v>2010</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32">
+        <v>2012</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33">
+        <v>2012</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34">
+        <v>2012</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35">
+        <v>2013</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36">
+        <v>2014</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37">
+        <v>2017</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38">
+        <v>2017</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39">
+        <v>2018</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40">
+        <v>2020</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>460</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E41">
+        <v>2004</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E42">
+        <v>2013</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E43">
+        <v>1978</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E44">
+        <v>2018</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E45">
+        <v>1994</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E46">
+        <v>1977</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>535</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E47">
+        <v>1984</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E48">
+        <v>1999</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>465</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E49">
+        <v>1997</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E50">
+        <v>1986</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E51">
+        <v>1997</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>411</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52">
+        <v>2005</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>467</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E53">
+        <v>1996</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>468</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E54">
+        <v>2010</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E55">
+        <v>2012</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E56">
+        <v>2012</v>
+      </c>
+      <c r="F56" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>544</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57">
+        <v>2019</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>556</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E58">
+        <v>2015</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>558</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E59">
+        <v>2020</v>
+      </c>
+      <c r="F59" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>561</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E60">
+        <v>2017</v>
+      </c>
+      <c r="F60" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>564</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E61">
+        <v>2014</v>
+      </c>
+      <c r="F61" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>469</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E62">
+        <v>2021</v>
+      </c>
+      <c r="F62" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>569</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E63">
+        <v>2014</v>
+      </c>
+      <c r="F63" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E64">
+        <v>2005</v>
+      </c>
+      <c r="F64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
+    <sortCondition ref="E1:E42"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D64" r:id="rId1" xr:uid="{9BB68DB9-0380-468A-ADFF-62D6C40FF15C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475450A4-A2B6-47BA-B746-B5C9BBF465F5}">
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:H4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>356</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>363</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>394</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>409</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>395</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>367</v>
+      </c>
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
+        <v>394</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>399</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>395</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>400</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>405</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" t="s">
+        <v>394</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>395</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>373</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>398</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>374</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>409</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>398</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" t="s">
+        <v>407</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>398</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>392</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>407</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="F79" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -972,115 +5688,1028 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F264FC-E4FD-435F-9A18-14C91FDF1855}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44897</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44899</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44898</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44899</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44898</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44905</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44898</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44899</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44903</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44904</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44904</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44906</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44904</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44906</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44905</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44905</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44905</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44905</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44911</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44913</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44912</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44913</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44918</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44918</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="330" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44919</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44919</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44919</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44919</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44919</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44919</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44924</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44925</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44925</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44927</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44925</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>440</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44925</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>441</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44925</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44926</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44975</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44975</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45005</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45005</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>454</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44920</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>456</v>
+      </c>
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G42">
+    <sortCondition ref="E1:E42"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A34A1-C3C9-4759-A9DA-8DE8B4263943}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CBE4C-D084-42AF-B500-542D89D3A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C34B6-E5F6-411D-9ACD-D3198CC5E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1080" windowWidth="25380" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -2908,10 +2908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tasimeter@hanmail.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xerotic@daum.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3130,6 +3126,10 @@
   </si>
   <si>
     <t>군만두</t>
+  </si>
+  <si>
+    <t>tasimeter@daum.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3138,7 +3138,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
-    <numFmt numFmtId="182" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -3183,7 +3183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3191,23 +3191,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3490,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3499,467 +3495,467 @@
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>733</v>
       </c>
       <c r="C2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2" s="8">
+        <v>25626</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D3" s="8">
+        <v>26048</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D4" s="8">
+        <v>27176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" t="s">
+        <v>772</v>
+      </c>
+      <c r="D5" s="8">
+        <v>27537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" s="8">
+        <v>27570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D7" s="8">
+        <v>27944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D8" s="8">
+        <v>28512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D9" s="8">
+        <v>29651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" t="s">
+        <v>788</v>
+      </c>
+      <c r="D10" s="8">
+        <v>31333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C11" t="s">
+        <v>792</v>
+      </c>
+      <c r="D11" s="8">
+        <v>32047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C12" t="s">
+        <v>797</v>
+      </c>
+      <c r="D12" s="8">
+        <v>32191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C13" t="s">
+        <v>789</v>
+      </c>
+      <c r="D13" s="8">
+        <v>32573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C14" t="s">
+        <v>785</v>
+      </c>
+      <c r="D14" s="8">
+        <v>33008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D15" s="8">
+        <v>33212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>758</v>
+      </c>
+      <c r="C16" t="s">
+        <v>799</v>
+      </c>
+      <c r="D16" s="8">
+        <v>33396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>759</v>
+      </c>
+      <c r="C17" t="s">
         <v>794</v>
       </c>
-      <c r="D2" s="11">
-        <v>25626</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D3" s="11">
-        <v>26048</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C4" t="s">
-        <v>775</v>
-      </c>
-      <c r="D4" s="11">
-        <v>27176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="C5" t="s">
-        <v>773</v>
-      </c>
-      <c r="D5" s="11">
-        <v>27537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D17" s="8">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" t="s">
+        <v>802</v>
+      </c>
+      <c r="D18" s="8">
+        <v>34732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>736</v>
+      </c>
+      <c r="C19" t="s">
+        <v>801</v>
+      </c>
+      <c r="D19" s="8">
+        <v>34810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20" t="s">
+        <v>800</v>
+      </c>
+      <c r="D20" s="8">
+        <v>34950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>770</v>
+      </c>
+      <c r="C21" t="s">
+        <v>777</v>
+      </c>
+      <c r="D21" s="8">
+        <v>35369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C22" t="s">
+        <v>780</v>
+      </c>
+      <c r="D22" s="8">
+        <v>35684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>739</v>
+      </c>
+      <c r="C23" t="s">
+        <v>786</v>
+      </c>
+      <c r="D23" s="8">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>738</v>
+      </c>
+      <c r="C24" t="s">
         <v>791</v>
       </c>
-      <c r="D6" s="11">
-        <v>27570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C7" t="s">
-        <v>777</v>
-      </c>
-      <c r="D7" s="11">
-        <v>27944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="C8" t="s">
-        <v>785</v>
-      </c>
-      <c r="D8" s="11">
-        <v>28512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C9" t="s">
-        <v>788</v>
-      </c>
-      <c r="D9" s="11">
-        <v>29651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C10" t="s">
-        <v>789</v>
-      </c>
-      <c r="D10" s="11">
-        <v>31333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" t="s">
-        <v>793</v>
-      </c>
-      <c r="D11" s="11">
-        <v>32047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D24" s="8">
+        <v>36267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>737</v>
+      </c>
+      <c r="C25" t="s">
+        <v>795</v>
+      </c>
+      <c r="D25" s="8">
+        <v>37470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>768</v>
+      </c>
+      <c r="C26" t="s">
+        <v>778</v>
+      </c>
+      <c r="D26" s="8">
+        <v>37475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>748</v>
+      </c>
+      <c r="C27" t="s">
+        <v>803</v>
+      </c>
+      <c r="D27" s="8">
+        <v>37521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>767</v>
+      </c>
+      <c r="C28" t="s">
+        <v>782</v>
+      </c>
+      <c r="D28" s="8">
+        <v>37593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>766</v>
+      </c>
+      <c r="C29" t="s">
+        <v>796</v>
+      </c>
+      <c r="D29" s="8">
+        <v>38108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>804</v>
+      </c>
+      <c r="D30" s="8">
+        <v>39255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>749</v>
+      </c>
+      <c r="C31" t="s">
+        <v>805</v>
+      </c>
+      <c r="D31" s="8">
+        <v>39284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>764</v>
+      </c>
+      <c r="C32" t="s">
+        <v>779</v>
+      </c>
+      <c r="D32" s="8">
+        <v>39599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>763</v>
+      </c>
+      <c r="C33" t="s">
+        <v>808</v>
+      </c>
+      <c r="D33" s="8">
+        <v>39816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>740</v>
+      </c>
+      <c r="C34" t="s">
+        <v>807</v>
+      </c>
+      <c r="D34" s="8">
+        <v>40151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>762</v>
+      </c>
+      <c r="C35" t="s">
         <v>798</v>
       </c>
-      <c r="D12" s="11">
-        <v>32191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C13" t="s">
-        <v>790</v>
-      </c>
-      <c r="D13" s="11">
-        <v>32573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C14" t="s">
-        <v>786</v>
-      </c>
-      <c r="D14" s="11">
-        <v>33008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" t="s">
-        <v>776</v>
-      </c>
-      <c r="D15" s="11">
-        <v>33212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C16" t="s">
-        <v>800</v>
-      </c>
-      <c r="D16" s="11">
-        <v>33396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C17" t="s">
-        <v>795</v>
-      </c>
-      <c r="D17" s="11">
-        <v>34160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="D35" s="8">
+        <v>40209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>741</v>
+      </c>
+      <c r="C36" t="s">
+        <v>809</v>
+      </c>
+      <c r="D36" s="8">
+        <v>40433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>743</v>
+      </c>
+      <c r="C37" t="s">
+        <v>810</v>
+      </c>
+      <c r="D37" s="8">
+        <v>40684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>742</v>
+      </c>
+      <c r="C38" t="s">
+        <v>781</v>
+      </c>
+      <c r="D38" s="8">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>750</v>
+      </c>
+      <c r="C39" t="s">
+        <v>783</v>
+      </c>
+      <c r="D39" s="8">
+        <v>41324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>761</v>
       </c>
-      <c r="C18" t="s">
-        <v>803</v>
-      </c>
-      <c r="D18" s="11">
-        <v>34732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C19" t="s">
-        <v>802</v>
-      </c>
-      <c r="D19" s="11">
-        <v>34810</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C20" t="s">
-        <v>801</v>
-      </c>
-      <c r="D20" s="11">
-        <v>34950</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="C21" t="s">
-        <v>778</v>
-      </c>
-      <c r="D21" s="11">
-        <v>35369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C22" t="s">
-        <v>781</v>
-      </c>
-      <c r="D22" s="11">
-        <v>35684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="C23" t="s">
-        <v>787</v>
-      </c>
-      <c r="D23" s="11">
-        <v>35800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C24" t="s">
-        <v>792</v>
-      </c>
-      <c r="D24" s="11">
-        <v>36267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="C25" t="s">
-        <v>796</v>
-      </c>
-      <c r="D25" s="11">
-        <v>37470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C26" t="s">
-        <v>779</v>
-      </c>
-      <c r="D26" s="11">
-        <v>37475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C27" t="s">
-        <v>804</v>
-      </c>
-      <c r="D27" s="11">
-        <v>37521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C28" t="s">
-        <v>783</v>
-      </c>
-      <c r="D28" s="11">
-        <v>37593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="C29" t="s">
-        <v>797</v>
-      </c>
-      <c r="D29" s="11">
-        <v>38108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C30" t="s">
-        <v>805</v>
-      </c>
-      <c r="D30" s="11">
-        <v>39255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
+        <v>811</v>
+      </c>
+      <c r="D40" s="8">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>751</v>
+      </c>
+      <c r="C41" t="s">
         <v>806</v>
       </c>
-      <c r="D31" s="11">
-        <v>39284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C32" t="s">
-        <v>780</v>
-      </c>
-      <c r="D32" s="11">
-        <v>39599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C33" t="s">
-        <v>809</v>
-      </c>
-      <c r="D33" s="11">
-        <v>39816</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C34" t="s">
-        <v>808</v>
-      </c>
-      <c r="D34" s="11">
-        <v>40151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C35" t="s">
-        <v>799</v>
-      </c>
-      <c r="D35" s="11">
-        <v>40209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C36" t="s">
-        <v>810</v>
-      </c>
-      <c r="D36" s="11">
-        <v>40433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="C37" t="s">
-        <v>811</v>
-      </c>
-      <c r="D37" s="11">
-        <v>40684</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C38" t="s">
-        <v>782</v>
-      </c>
-      <c r="D38" s="11">
-        <v>41030</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C39" t="s">
-        <v>784</v>
-      </c>
-      <c r="D39" s="11">
-        <v>41324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C40" t="s">
-        <v>812</v>
-      </c>
-      <c r="D40" s="11">
-        <v>43202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C41" t="s">
-        <v>807</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>44146</v>
       </c>
     </row>
@@ -4275,10 +4271,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4436,7 +4432,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4452,27 +4448,27 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -4482,17 +4478,17 @@
       <c r="C2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>497</v>
       </c>
       <c r="E2">
         <v>1958</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -4502,17 +4498,17 @@
       <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>498</v>
       </c>
       <c r="E3">
         <v>1970</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -4522,17 +4518,17 @@
       <c r="C4" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>499</v>
       </c>
       <c r="E4">
         <v>1973</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>269</v>
       </c>
@@ -4542,17 +4538,17 @@
       <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>500</v>
       </c>
       <c r="E5">
         <v>1975</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -4562,17 +4558,17 @@
       <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>572</v>
       </c>
       <c r="E6">
         <v>1975</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -4582,17 +4578,17 @@
       <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>531</v>
       </c>
       <c r="E7">
         <v>1977</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -4602,18 +4598,17 @@
       <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>505</v>
       </c>
       <c r="E8">
         <v>1978</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="29.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4623,17 +4618,17 @@
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>528</v>
       </c>
       <c r="E9">
         <v>1978</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -4643,17 +4638,17 @@
       <c r="C10" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>501</v>
       </c>
       <c r="E10">
         <v>1984</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4663,17 +4658,17 @@
       <c r="C11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>532</v>
       </c>
       <c r="E11">
         <v>1984</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>276</v>
       </c>
@@ -4683,17 +4678,17 @@
       <c r="C12" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>535</v>
       </c>
       <c r="E12">
         <v>1986</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>277</v>
       </c>
@@ -4703,17 +4698,17 @@
       <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>251</v>
       </c>
       <c r="E13">
         <v>1988</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -4723,17 +4718,17 @@
       <c r="C14" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>506</v>
       </c>
       <c r="E14">
         <v>1991</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>279</v>
       </c>
@@ -4743,17 +4738,17 @@
       <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>502</v>
       </c>
       <c r="E15">
         <v>1991</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -4763,13 +4758,13 @@
       <c r="C16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>504</v>
       </c>
       <c r="E16">
         <v>1993</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4783,13 +4778,13 @@
       <c r="C17" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>573</v>
       </c>
       <c r="E17">
         <v>1993</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>596</v>
       </c>
     </row>
@@ -4803,13 +4798,13 @@
       <c r="C18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>507</v>
       </c>
       <c r="E18">
         <v>1994</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="1" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4823,13 +4818,13 @@
       <c r="C19" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>530</v>
       </c>
       <c r="E19">
         <v>1994</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4843,13 +4838,13 @@
       <c r="C20" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>482</v>
       </c>
       <c r="E20">
         <v>1995</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="1" t="s">
         <v>574</v>
       </c>
     </row>
@@ -4863,13 +4858,13 @@
       <c r="C21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>503</v>
       </c>
       <c r="E21">
         <v>1996</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4883,13 +4878,13 @@
       <c r="C22" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>537</v>
       </c>
       <c r="E22">
         <v>1996</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4903,13 +4898,13 @@
       <c r="C23" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>534</v>
       </c>
       <c r="E23">
         <v>1997</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4923,13 +4918,13 @@
       <c r="C24" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>536</v>
       </c>
       <c r="E24">
         <v>1997</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4943,13 +4938,13 @@
       <c r="C25" t="s">
         <v>467</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>564</v>
       </c>
       <c r="E25">
         <v>1997</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="1" t="s">
         <v>608</v>
       </c>
     </row>
@@ -4963,13 +4958,13 @@
       <c r="C26" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>508</v>
       </c>
       <c r="E26">
         <v>1998</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4983,13 +4978,13 @@
       <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>248</v>
       </c>
       <c r="E27">
         <v>1998</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5003,13 +4998,13 @@
       <c r="C28" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>509</v>
       </c>
       <c r="E28">
         <v>1998</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5023,13 +5018,13 @@
       <c r="C29" t="s">
         <v>467</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>546</v>
       </c>
       <c r="E29">
         <v>1998</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5043,13 +5038,13 @@
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>510</v>
       </c>
       <c r="E30">
         <v>1999</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5063,13 +5058,13 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>511</v>
       </c>
       <c r="E31">
         <v>1999</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5083,13 +5078,13 @@
       <c r="C32" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>533</v>
       </c>
       <c r="E32">
         <v>1999</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="5" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5103,13 +5098,13 @@
       <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>566</v>
       </c>
       <c r="E33">
         <v>1999</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="1" t="s">
         <v>610</v>
       </c>
     </row>
@@ -5123,13 +5118,13 @@
       <c r="C34" t="s">
         <v>715</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>713</v>
       </c>
       <c r="E34">
         <v>1999</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -5143,13 +5138,13 @@
       <c r="C35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>480</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="1" t="s">
         <v>598</v>
       </c>
     </row>
@@ -5163,13 +5158,13 @@
       <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>570</v>
       </c>
       <c r="E36">
         <v>2001</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5183,13 +5178,13 @@
       <c r="C37" t="s">
         <v>467</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>571</v>
       </c>
       <c r="E37">
         <v>2001</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="1" t="s">
         <v>609</v>
       </c>
     </row>
@@ -5203,13 +5198,13 @@
       <c r="C38" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>512</v>
       </c>
       <c r="E38">
         <v>2002</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5223,13 +5218,13 @@
       <c r="C39" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>513</v>
       </c>
       <c r="E39">
         <v>2002</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5243,13 +5238,13 @@
       <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>514</v>
       </c>
       <c r="E40">
         <v>2002</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5263,13 +5258,13 @@
       <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>458</v>
       </c>
       <c r="E41">
         <v>2003</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -5283,13 +5278,13 @@
       <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>484</v>
       </c>
       <c r="E42">
         <v>2003</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5303,13 +5298,13 @@
       <c r="C43" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>515</v>
       </c>
       <c r="E43">
         <v>2004</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="1" t="s">
         <v>582</v>
       </c>
     </row>
@@ -5323,13 +5318,13 @@
       <c r="C44" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>516</v>
       </c>
       <c r="E44">
         <v>2004</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="1" t="s">
         <v>720</v>
       </c>
     </row>
@@ -5343,13 +5338,13 @@
       <c r="C45" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>250</v>
       </c>
       <c r="E45">
         <v>2004</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5363,13 +5358,13 @@
       <c r="C46" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>526</v>
       </c>
       <c r="E46">
         <v>2004</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5383,13 +5378,13 @@
       <c r="C47" t="s">
         <v>473</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>543</v>
       </c>
       <c r="E47">
         <v>2004</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5403,13 +5398,13 @@
       <c r="C48" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>547</v>
       </c>
       <c r="E48">
         <v>2004</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5423,13 +5418,13 @@
       <c r="C49" t="s">
         <v>473</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>563</v>
       </c>
       <c r="E49">
         <v>2004</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>611</v>
       </c>
     </row>
@@ -5443,13 +5438,13 @@
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>517</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5463,13 +5458,13 @@
       <c r="C51" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>518</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5483,13 +5478,13 @@
       <c r="C52" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>432</v>
       </c>
       <c r="E52">
         <v>2005</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5503,13 +5498,13 @@
       <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>541</v>
       </c>
       <c r="E53">
         <v>2005</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="1" t="s">
         <v>592</v>
       </c>
     </row>
@@ -5523,13 +5518,13 @@
       <c r="C54" t="s">
         <v>467</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>545</v>
       </c>
       <c r="E54">
         <v>2005</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="1" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5543,13 +5538,13 @@
       <c r="C55" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>460</v>
       </c>
       <c r="E55">
         <v>2006</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -5563,13 +5558,13 @@
       <c r="C56" t="s">
         <v>467</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>553</v>
       </c>
       <c r="E56">
         <v>2006</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5583,13 +5578,13 @@
       <c r="C57" t="s">
         <v>467</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>554</v>
       </c>
       <c r="E57">
         <v>2007</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="1" t="s">
         <v>605</v>
       </c>
     </row>
@@ -5603,13 +5598,13 @@
       <c r="C58" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>456</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5623,13 +5618,13 @@
       <c r="C59" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>544</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="5" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5643,13 +5638,13 @@
       <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>519</v>
       </c>
       <c r="E60">
         <v>2009</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5663,13 +5658,13 @@
       <c r="C61" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" t="s">
         <v>474</v>
       </c>
       <c r="E61">
         <v>2009</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="4" t="s">
         <v>596</v>
       </c>
     </row>
@@ -5683,13 +5678,13 @@
       <c r="C62" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>520</v>
       </c>
       <c r="E62">
         <v>2010</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5703,13 +5698,13 @@
       <c r="C63" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>521</v>
       </c>
       <c r="E63">
         <v>2010</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -5723,13 +5718,13 @@
       <c r="C64" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>522</v>
       </c>
       <c r="E64">
         <v>2010</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5743,13 +5738,13 @@
       <c r="C65" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" t="s">
         <v>538</v>
       </c>
       <c r="E65">
         <v>2010</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="5" t="s">
         <v>590</v>
       </c>
     </row>
@@ -5763,13 +5758,13 @@
       <c r="C66" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>471</v>
       </c>
       <c r="E66">
         <v>2010</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5783,13 +5778,13 @@
       <c r="C67" t="s">
         <v>467</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" t="s">
         <v>476</v>
       </c>
       <c r="E67">
         <v>2010</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5803,13 +5798,13 @@
       <c r="C68" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" t="s">
         <v>561</v>
       </c>
       <c r="E68">
         <v>2010</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="4" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5823,13 +5818,13 @@
       <c r="C69" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" t="s">
         <v>568</v>
       </c>
       <c r="E69">
         <v>2010</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5843,13 +5838,13 @@
       <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" t="s">
         <v>450</v>
       </c>
       <c r="E70">
         <v>2011</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="1" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5863,13 +5858,13 @@
       <c r="C71" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" t="s">
         <v>463</v>
       </c>
       <c r="E71">
         <v>2011</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="4" t="s">
         <v>576</v>
       </c>
     </row>
@@ -5883,13 +5878,13 @@
       <c r="C72" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" t="s">
         <v>247</v>
       </c>
       <c r="E72">
         <v>2012</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5909,7 +5904,7 @@
       <c r="E73">
         <v>2012</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5923,13 +5918,13 @@
       <c r="C74" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" t="s">
         <v>523</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5943,13 +5938,13 @@
       <c r="C75" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" t="s">
         <v>447</v>
       </c>
       <c r="E75">
         <v>2012</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="1" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5963,13 +5958,13 @@
       <c r="C76" t="s">
         <v>121</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" t="s">
         <v>448</v>
       </c>
       <c r="E76">
         <v>2012</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="5" t="s">
         <v>579</v>
       </c>
     </row>
@@ -5983,13 +5978,13 @@
       <c r="C77" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" t="s">
         <v>567</v>
       </c>
       <c r="E77">
         <v>2012</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="4" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6003,13 +5998,13 @@
       <c r="C78" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" t="s">
         <v>524</v>
       </c>
       <c r="E78">
         <v>2013</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6023,13 +6018,13 @@
       <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" t="s">
         <v>527</v>
       </c>
       <c r="E79">
         <v>2013</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="5" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6043,13 +6038,13 @@
       <c r="C80" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" t="s">
         <v>565</v>
       </c>
       <c r="E80">
         <v>2013</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="5" t="s">
         <v>609</v>
       </c>
     </row>
@@ -6063,13 +6058,13 @@
       <c r="C81" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" t="s">
         <v>246</v>
       </c>
       <c r="E81">
         <v>2014</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6083,13 +6078,13 @@
       <c r="C82" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" t="s">
         <v>427</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6109,7 +6104,7 @@
       <c r="E83">
         <v>2014</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6123,13 +6118,13 @@
       <c r="C84" t="s">
         <v>121</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" t="s">
         <v>487</v>
       </c>
       <c r="E84">
         <v>2014</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="5" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6143,13 +6138,13 @@
       <c r="C85" t="s">
         <v>121</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" t="s">
         <v>555</v>
       </c>
       <c r="E85">
         <v>2014</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="5" t="s">
         <v>592</v>
       </c>
     </row>
@@ -6163,13 +6158,13 @@
       <c r="C86" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>421</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6183,13 +6178,13 @@
       <c r="C87" t="s">
         <v>121</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" t="s">
         <v>539</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="1" t="s">
         <v>577</v>
       </c>
     </row>
@@ -6203,13 +6198,13 @@
       <c r="C88" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>540</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="1" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6223,13 +6218,13 @@
       <c r="C89" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" t="s">
         <v>453</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="1" t="s">
         <v>591</v>
       </c>
     </row>
@@ -6243,13 +6238,13 @@
       <c r="C90" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" t="s">
         <v>549</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="1" t="s">
         <v>602</v>
       </c>
     </row>
@@ -6263,13 +6258,13 @@
       <c r="C91" t="s">
         <v>473</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" t="s">
         <v>569</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="5" t="s">
         <v>599</v>
       </c>
     </row>
@@ -6283,13 +6278,13 @@
       <c r="C92" t="s">
         <v>121</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" t="s">
         <v>451</v>
       </c>
       <c r="E92">
         <v>2016</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6303,13 +6298,13 @@
       <c r="C93" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" t="s">
         <v>462</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6323,13 +6318,13 @@
       <c r="C94" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" t="s">
         <v>548</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="5" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6343,13 +6338,13 @@
       <c r="C95" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" t="s">
         <v>249</v>
       </c>
       <c r="E95">
         <v>2017</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6363,13 +6358,13 @@
       <c r="C96" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" t="s">
         <v>425</v>
       </c>
       <c r="E96">
         <v>2017</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="1" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6383,13 +6378,13 @@
       <c r="C97" t="s">
         <v>121</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" t="s">
         <v>449</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6403,13 +6398,13 @@
       <c r="C98" t="s">
         <v>467</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" t="s">
         <v>468</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="1" t="s">
         <v>594</v>
       </c>
     </row>
@@ -6423,13 +6418,13 @@
       <c r="C99" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" t="s">
         <v>489</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="1" t="s">
         <v>603</v>
       </c>
     </row>
@@ -6443,13 +6438,13 @@
       <c r="C100" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" t="s">
         <v>525</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="1" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6463,13 +6458,13 @@
       <c r="C101" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" t="s">
         <v>529</v>
       </c>
       <c r="E101">
         <v>2018</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="5" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6483,13 +6478,13 @@
       <c r="C102" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" t="s">
         <v>452</v>
       </c>
       <c r="E102">
         <v>2018</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="1" t="s">
         <v>592</v>
       </c>
     </row>
@@ -6503,13 +6498,13 @@
       <c r="C103" t="s">
         <v>121</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" t="s">
         <v>455</v>
       </c>
       <c r="E103">
         <v>2018</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="1" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6523,13 +6518,13 @@
       <c r="C104" t="s">
         <v>121</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" t="s">
         <v>466</v>
       </c>
       <c r="E104">
         <v>2018</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="4" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6543,13 +6538,13 @@
       <c r="C105" t="s">
         <v>467</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" t="s">
         <v>470</v>
       </c>
       <c r="E105">
         <v>2018</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="5" t="s">
         <v>594</v>
       </c>
     </row>
@@ -6563,13 +6558,13 @@
       <c r="C106" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" t="s">
         <v>477</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6583,13 +6578,13 @@
       <c r="C107" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>550</v>
       </c>
       <c r="E107">
         <v>2018</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="4" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6603,13 +6598,13 @@
       <c r="C108" t="s">
         <v>121</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" t="s">
         <v>556</v>
       </c>
       <c r="E108">
         <v>2018</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6623,13 +6618,13 @@
       <c r="C109" t="s">
         <v>121</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" t="s">
         <v>558</v>
       </c>
       <c r="E109">
         <v>2018</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="1" t="s">
         <v>592</v>
       </c>
     </row>
@@ -6643,13 +6638,13 @@
       <c r="C110" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" t="s">
         <v>562</v>
       </c>
       <c r="E110">
         <v>2018</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="1" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6663,13 +6658,13 @@
       <c r="C111" t="s">
         <v>121</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" t="s">
         <v>419</v>
       </c>
       <c r="E111">
         <v>2019</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6683,13 +6678,13 @@
       <c r="C112" t="s">
         <v>467</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" t="s">
         <v>542</v>
       </c>
       <c r="E112">
         <v>2019</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="5" t="s">
         <v>597</v>
       </c>
     </row>
@@ -6703,13 +6698,13 @@
       <c r="C113" t="s">
         <v>467</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" t="s">
         <v>551</v>
       </c>
       <c r="E113">
         <v>2019</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="5" t="s">
         <v>592</v>
       </c>
     </row>
@@ -6723,13 +6718,13 @@
       <c r="C114" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" t="s">
         <v>557</v>
       </c>
       <c r="E114">
         <v>2019</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="5" t="s">
         <v>606</v>
       </c>
     </row>
@@ -6743,13 +6738,13 @@
       <c r="C115" t="s">
         <v>473</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" t="s">
         <v>559</v>
       </c>
       <c r="E115">
         <v>2019</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="5" t="s">
         <v>592</v>
       </c>
     </row>
@@ -6763,13 +6758,13 @@
       <c r="C116" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" t="s">
         <v>560</v>
       </c>
       <c r="E116">
         <v>2019</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="1" t="s">
         <v>607</v>
       </c>
     </row>
@@ -6783,13 +6778,13 @@
       <c r="C117" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" t="s">
         <v>552</v>
       </c>
       <c r="E117">
         <v>2019</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6803,13 +6798,13 @@
       <c r="C118" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" t="s">
         <v>245</v>
       </c>
       <c r="E118">
         <v>2020</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="1" t="s">
         <v>586</v>
       </c>
     </row>
@@ -6823,13 +6818,13 @@
       <c r="C119" t="s">
         <v>121</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" t="s">
         <v>423</v>
       </c>
       <c r="E119">
         <v>2020</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6843,13 +6838,13 @@
       <c r="C120" t="s">
         <v>121</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" t="s">
         <v>465</v>
       </c>
       <c r="E120">
         <v>2020</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6863,13 +6858,13 @@
       <c r="C121" t="s">
         <v>473</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" t="s">
         <v>478</v>
       </c>
       <c r="E121">
         <v>2020</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>595</v>
       </c>
     </row>
@@ -6883,19 +6878,18 @@
       <c r="C122" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" t="s">
         <v>428</v>
       </c>
       <c r="E122">
         <v>2021</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D123" s="3"/>
-      <c r="F123" s="8"/>
+      <c r="F123" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F124">
@@ -6924,10 +6918,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6946,7 +6940,7 @@
       <c r="B3" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6955,7 +6949,7 @@
       <c r="B4" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6964,7 +6958,7 @@
       <c r="B5" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6973,7 +6967,7 @@
       <c r="B6" t="s">
         <v>696</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6982,7 +6976,7 @@
       <c r="B7" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6991,7 +6985,7 @@
       <c r="B8" t="s">
         <v>696</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7000,7 +6994,7 @@
       <c r="B9" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7009,7 +7003,7 @@
       <c r="B10" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7018,7 +7012,7 @@
       <c r="B11" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7027,7 +7021,7 @@
       <c r="B12" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7036,7 +7030,7 @@
       <c r="B13" t="s">
         <v>696</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7045,7 +7039,7 @@
       <c r="B14" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7054,7 +7048,7 @@
       <c r="B15" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7063,7 +7057,7 @@
       <c r="B16" t="s">
         <v>696</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -7072,7 +7066,7 @@
       <c r="B17" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -7081,7 +7075,7 @@
       <c r="B18" t="s">
         <v>696</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -7090,7 +7084,7 @@
       <c r="B19" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7099,7 +7093,7 @@
       <c r="B20" t="s">
         <v>311</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -7108,7 +7102,7 @@
       <c r="B21" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -7117,7 +7111,7 @@
       <c r="B22" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -7126,7 +7120,7 @@
       <c r="B23" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -7135,7 +7129,7 @@
       <c r="B24" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -7144,7 +7138,7 @@
       <c r="B25" t="s">
         <v>313</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -7153,7 +7147,7 @@
       <c r="B26" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -7162,7 +7156,7 @@
       <c r="B27" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -7171,7 +7165,7 @@
       <c r="B28" t="s">
         <v>318</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -7180,7 +7174,7 @@
       <c r="B29" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -7189,7 +7183,7 @@
       <c r="B30" t="s">
         <v>696</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -7198,7 +7192,7 @@
       <c r="B31" t="s">
         <v>309</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -7207,7 +7201,7 @@
       <c r="B32" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -7216,7 +7210,7 @@
       <c r="B33" t="s">
         <v>311</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -7225,7 +7219,6 @@
       <c r="B34" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="5"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -7235,7 +7228,7 @@
       <c r="B35" t="s">
         <v>318</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="4"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -7245,7 +7238,7 @@
       <c r="B36" t="s">
         <v>696</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="4"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -7255,7 +7248,7 @@
       <c r="B37" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -7265,7 +7258,7 @@
       <c r="B38" t="s">
         <v>317</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -7275,7 +7268,7 @@
       <c r="B39" t="s">
         <v>319</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="5"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -7285,7 +7278,7 @@
       <c r="B40" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="5"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -7295,7 +7288,7 @@
       <c r="B41" t="s">
         <v>312</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -7305,7 +7298,6 @@
       <c r="B42" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="5"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -7315,7 +7307,6 @@
       <c r="B43" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="5"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -7325,7 +7316,7 @@
       <c r="B44" t="s">
         <v>319</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="5"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -7335,7 +7326,7 @@
       <c r="B45" t="s">
         <v>696</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="5"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -7345,7 +7336,7 @@
       <c r="B46" t="s">
         <v>309</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="5"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -7355,7 +7346,7 @@
       <c r="B47" t="s">
         <v>311</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="5"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -7365,7 +7356,7 @@
       <c r="B48" t="s">
         <v>310</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="5"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -7375,7 +7366,7 @@
       <c r="B49" t="s">
         <v>311</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="5"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -7385,7 +7376,7 @@
       <c r="B50" t="s">
         <v>696</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="5"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -7395,7 +7386,7 @@
       <c r="B51" t="s">
         <v>309</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -7404,7 +7395,7 @@
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="6"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -7413,7 +7404,7 @@
       <c r="B53" t="s">
         <v>311</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -7422,7 +7413,7 @@
       <c r="B54" t="s">
         <v>313</v>
       </c>
-      <c r="C54" s="6"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -7431,7 +7422,7 @@
       <c r="B55" t="s">
         <v>317</v>
       </c>
-      <c r="C55" s="6"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -7440,7 +7431,7 @@
       <c r="B56" t="s">
         <v>696</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -7449,7 +7440,7 @@
       <c r="B57" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -7459,7 +7450,6 @@
       <c r="B58" t="s">
         <v>311</v>
       </c>
-      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -7468,7 +7458,7 @@
       <c r="B59" t="s">
         <v>696</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -7477,7 +7467,7 @@
       <c r="B60" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="6"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -7486,7 +7476,7 @@
       <c r="B61" t="s">
         <v>311</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -7495,7 +7485,6 @@
       <c r="B62" t="s">
         <v>311</v>
       </c>
-      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -7504,7 +7493,6 @@
       <c r="B63" t="s">
         <v>696</v>
       </c>
-      <c r="C63" s="5"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7514,7 +7502,6 @@
       <c r="B64" t="s">
         <v>696</v>
       </c>
-      <c r="C64" s="5"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -7524,7 +7511,6 @@
       <c r="B65" t="s">
         <v>311</v>
       </c>
-      <c r="C65" s="5"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -7534,7 +7520,7 @@
       <c r="B66" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="8"/>
+      <c r="C66" s="5"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -7544,7 +7530,7 @@
       <c r="B67" t="s">
         <v>696</v>
       </c>
-      <c r="C67" s="8"/>
+      <c r="C67" s="5"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -7554,7 +7540,7 @@
       <c r="B68" t="s">
         <v>310</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -7564,7 +7550,7 @@
       <c r="B69" t="s">
         <v>309</v>
       </c>
-      <c r="C69" s="6"/>
+      <c r="C69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -7574,7 +7560,7 @@
       <c r="B70" t="s">
         <v>311</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -7584,7 +7570,7 @@
       <c r="B71" t="s">
         <v>314</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -7593,7 +7579,7 @@
       <c r="B72" t="s">
         <v>311</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -7602,7 +7588,7 @@
       <c r="B73" t="s">
         <v>312</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -7611,7 +7597,7 @@
       <c r="B74" t="s">
         <v>313</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -7620,7 +7606,7 @@
       <c r="B75" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -7630,7 +7616,7 @@
       <c r="B76" t="s">
         <v>309</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -7640,7 +7626,7 @@
       <c r="B77" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -7649,7 +7635,7 @@
       <c r="B78" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -7658,7 +7644,7 @@
       <c r="B79" t="s">
         <v>696</v>
       </c>
-      <c r="C79" s="6"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -7667,7 +7653,7 @@
       <c r="B80" t="s">
         <v>312</v>
       </c>
-      <c r="C80" s="6"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -7676,7 +7662,6 @@
       <c r="B81" t="s">
         <v>696</v>
       </c>
-      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -7685,7 +7670,6 @@
       <c r="B82" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -7694,7 +7678,6 @@
       <c r="B83" t="s">
         <v>313</v>
       </c>
-      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -7703,7 +7686,7 @@
       <c r="B84" t="s">
         <v>320</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -7712,7 +7695,7 @@
       <c r="B85" t="s">
         <v>311</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -7721,7 +7704,7 @@
       <c r="B86" t="s">
         <v>311</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -7730,7 +7713,7 @@
       <c r="B87" t="s">
         <v>313</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -7739,7 +7722,7 @@
       <c r="B88" t="s">
         <v>696</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -7748,7 +7731,7 @@
       <c r="B89" t="s">
         <v>311</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -7757,7 +7740,7 @@
       <c r="B90" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -7766,7 +7749,7 @@
       <c r="B91" t="s">
         <v>696</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -7775,7 +7758,7 @@
       <c r="B92" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -7784,7 +7767,7 @@
       <c r="B93" t="s">
         <v>313</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -7793,7 +7776,7 @@
       <c r="B94" t="s">
         <v>309</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -7802,7 +7785,7 @@
       <c r="B95" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="8"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -7811,7 +7794,7 @@
       <c r="B96" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -7820,7 +7803,7 @@
       <c r="B97" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="8"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -7829,7 +7812,7 @@
       <c r="B98" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -7838,7 +7821,7 @@
       <c r="B99" t="s">
         <v>319</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -7847,7 +7830,7 @@
       <c r="B100" t="s">
         <v>309</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -7880,7 +7863,6 @@
       <c r="B104" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -7889,7 +7871,7 @@
       <c r="B105" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="8"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -7898,7 +7880,6 @@
       <c r="B106" t="s">
         <v>312</v>
       </c>
-      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -7907,7 +7888,6 @@
       <c r="B107" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -7916,7 +7896,7 @@
       <c r="B108" t="s">
         <v>320</v>
       </c>
-      <c r="C108" s="6"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -7925,7 +7905,7 @@
       <c r="B109" t="s">
         <v>696</v>
       </c>
-      <c r="C109" s="6"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -8797,7 +8777,7 @@
       <c r="B217" t="s">
         <v>309</v>
       </c>
-      <c r="C217" s="6"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
@@ -8806,7 +8786,7 @@
       <c r="B218" t="s">
         <v>311</v>
       </c>
-      <c r="C218" s="6"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
@@ -8815,7 +8795,7 @@
       <c r="B219" t="s">
         <v>696</v>
       </c>
-      <c r="C219" s="7"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -8824,7 +8804,7 @@
       <c r="B220" t="s">
         <v>311</v>
       </c>
-      <c r="C220" s="7"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -8833,7 +8813,7 @@
       <c r="B221" t="s">
         <v>313</v>
       </c>
-      <c r="C221" s="8"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
@@ -8842,7 +8822,7 @@
       <c r="B222" t="s">
         <v>312</v>
       </c>
-      <c r="C222" s="8"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
@@ -8851,7 +8831,7 @@
       <c r="B223" t="s">
         <v>320</v>
       </c>
-      <c r="C223" s="8"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
@@ -8860,7 +8840,7 @@
       <c r="B224" t="s">
         <v>309</v>
       </c>
-      <c r="C224" s="8"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
@@ -8869,7 +8849,7 @@
       <c r="B225" t="s">
         <v>312</v>
       </c>
-      <c r="C225" s="8"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
@@ -8878,7 +8858,7 @@
       <c r="B226" t="s">
         <v>312</v>
       </c>
-      <c r="C226" s="8"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
@@ -8887,7 +8867,7 @@
       <c r="B227" t="s">
         <v>320</v>
       </c>
-      <c r="C227" s="8"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
@@ -8896,7 +8876,7 @@
       <c r="B228" t="s">
         <v>312</v>
       </c>
-      <c r="C228" s="8"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
@@ -8905,7 +8885,7 @@
       <c r="B229" t="s">
         <v>313</v>
       </c>
-      <c r="C229" s="8"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
@@ -8914,7 +8894,7 @@
       <c r="B230" t="s">
         <v>320</v>
       </c>
-      <c r="C230" s="6"/>
+      <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
@@ -8923,7 +8903,7 @@
       <c r="B231" t="s">
         <v>312</v>
       </c>
-      <c r="C231" s="6"/>
+      <c r="C231" s="1"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
@@ -8932,7 +8912,7 @@
       <c r="B232" t="s">
         <v>313</v>
       </c>
-      <c r="C232" s="6"/>
+      <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
@@ -8941,7 +8921,7 @@
       <c r="B233" t="s">
         <v>309</v>
       </c>
-      <c r="C233" s="6"/>
+      <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
@@ -8950,7 +8930,7 @@
       <c r="B234" t="s">
         <v>320</v>
       </c>
-      <c r="C234" s="6"/>
+      <c r="C234" s="1"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
@@ -8959,7 +8939,7 @@
       <c r="B235" t="s">
         <v>696</v>
       </c>
-      <c r="C235" s="6"/>
+      <c r="C235" s="1"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
@@ -8968,7 +8948,7 @@
       <c r="B236" t="s">
         <v>309</v>
       </c>
-      <c r="C236" s="6"/>
+      <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
@@ -8977,7 +8957,7 @@
       <c r="B237" t="s">
         <v>311</v>
       </c>
-      <c r="C237" s="6"/>
+      <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
@@ -8986,7 +8966,7 @@
       <c r="B238" t="s">
         <v>312</v>
       </c>
-      <c r="C238" s="6"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
@@ -8995,7 +8975,7 @@
       <c r="B239" t="s">
         <v>313</v>
       </c>
-      <c r="C239" s="6"/>
+      <c r="C239" s="1"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
@@ -9004,7 +8984,7 @@
       <c r="B240" t="s">
         <v>310</v>
       </c>
-      <c r="C240" s="6"/>
+      <c r="C240" s="1"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
@@ -9013,7 +8993,7 @@
       <c r="B241" t="s">
         <v>311</v>
       </c>
-      <c r="C241" s="8"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
@@ -9022,7 +9002,7 @@
       <c r="B242" t="s">
         <v>696</v>
       </c>
-      <c r="C242" s="8"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
@@ -9031,13 +9011,13 @@
       <c r="B243" t="s">
         <v>314</v>
       </c>
-      <c r="C243" s="8"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C244" s="8"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C245" s="6"/>
+      <c r="C245" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B245">
@@ -9068,25 +9048,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9539,7 +9519,7 @@
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>475</v>
       </c>
       <c r="E21" s="2">
@@ -9585,7 +9565,7 @@
       <c r="C23" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>702</v>
       </c>
       <c r="E23" s="2">
@@ -9976,7 +9956,7 @@
       <c r="C40" t="s">
         <v>699</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>701</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -10041,14 +10021,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C34B6-E5F6-411D-9ACD-D3198CC5E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AA988-827D-4392-B6AC-5F5F30B5D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2430" windowWidth="25380" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="735">
   <si>
     <t xml:space="preserve"> 유저이름</t>
   </si>
@@ -2828,307 +2828,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jussive@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nubilate@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dubitate@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>witeless@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saffron@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aliphatic@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gambrel@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hemiolic@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erewhile@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chyle@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>celesta@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pontlevis@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zonarious@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eupathy@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verglas@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>palanquin@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarrion@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specious@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>axolotl@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quatrayle@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xerotic@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>helve@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>almandine@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuirass@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prandial@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afferent@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opificer@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requital@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quilling@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vocoid@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodosity@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agistment@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carboy@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miliary@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noetics@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pulmonic@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fusee@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hegemony@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taenioid@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감기약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메추리알</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송편</t>
-  </si>
-  <si>
-    <t>호박전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기잼</t>
-  </si>
-  <si>
-    <t>청경채</t>
-  </si>
-  <si>
-    <t>너비아니</t>
-  </si>
-  <si>
-    <t>고추장</t>
-  </si>
-  <si>
-    <t>카푸치노</t>
-  </si>
-  <si>
-    <t>새우볶음밥</t>
-  </si>
-  <si>
-    <t>발사믹소스</t>
-  </si>
-  <si>
-    <t>계란빵</t>
-  </si>
-  <si>
-    <t>석류</t>
-  </si>
-  <si>
-    <t>버블티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마튀김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대국밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼계탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피믹스</t>
-  </si>
-  <si>
-    <t>통조림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛살</t>
-  </si>
-  <si>
-    <t>마파두부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피클</t>
-  </si>
-  <si>
-    <t>배추김치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>델리만쥬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히비스커스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야끼소바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈대떡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아에이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>까나리액젓</t>
-  </si>
-  <si>
-    <t>오징어채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케찹</t>
-  </si>
-  <si>
-    <t>보리차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이소박이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성돔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카모마일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어초밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옻닭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카푸치노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군만두</t>
-  </si>
-  <si>
-    <t>tasimeter@daum.net</t>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3183,7 +2887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3203,7 +2907,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3484,484 +3187,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D2" s="8">
-        <v>25626</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D3" s="8">
-        <v>26048</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C4" t="s">
-        <v>774</v>
-      </c>
-      <c r="D4" s="8">
-        <v>27176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>753</v>
-      </c>
-      <c r="C5" t="s">
-        <v>772</v>
-      </c>
-      <c r="D5" s="8">
-        <v>27537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G1" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C6" t="s">
-        <v>790</v>
-      </c>
-      <c r="D6" s="8">
-        <v>27570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C7" t="s">
-        <v>776</v>
-      </c>
-      <c r="D7" s="8">
-        <v>27944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="C8" t="s">
-        <v>784</v>
-      </c>
-      <c r="D8" s="8">
-        <v>28512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="C9" t="s">
-        <v>787</v>
-      </c>
-      <c r="D9" s="8">
-        <v>29651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>755</v>
-      </c>
-      <c r="C10" t="s">
-        <v>788</v>
-      </c>
-      <c r="D10" s="8">
-        <v>31333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" t="s">
-        <v>792</v>
-      </c>
-      <c r="D11" s="8">
-        <v>32047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>756</v>
-      </c>
-      <c r="C12" t="s">
-        <v>797</v>
-      </c>
-      <c r="D12" s="8">
-        <v>32191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>747</v>
-      </c>
-      <c r="C13" t="s">
-        <v>789</v>
-      </c>
-      <c r="D13" s="8">
-        <v>32573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>757</v>
-      </c>
-      <c r="C14" t="s">
-        <v>785</v>
-      </c>
-      <c r="D14" s="8">
-        <v>33008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" t="s">
-        <v>775</v>
-      </c>
-      <c r="D15" s="8">
-        <v>33212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>758</v>
-      </c>
-      <c r="C16" t="s">
-        <v>799</v>
-      </c>
-      <c r="D16" s="8">
-        <v>33396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>759</v>
-      </c>
-      <c r="C17" t="s">
-        <v>794</v>
-      </c>
-      <c r="D17" s="8">
-        <v>34160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>760</v>
-      </c>
-      <c r="C18" t="s">
-        <v>802</v>
-      </c>
-      <c r="D18" s="8">
-        <v>34732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>736</v>
-      </c>
-      <c r="C19" t="s">
-        <v>801</v>
-      </c>
-      <c r="D19" s="8">
-        <v>34810</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>771</v>
-      </c>
-      <c r="C20" t="s">
-        <v>800</v>
-      </c>
-      <c r="D20" s="8">
-        <v>34950</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>770</v>
-      </c>
-      <c r="C21" t="s">
-        <v>777</v>
-      </c>
-      <c r="D21" s="8">
-        <v>35369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>769</v>
-      </c>
-      <c r="C22" t="s">
-        <v>780</v>
-      </c>
-      <c r="D22" s="8">
-        <v>35684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>739</v>
-      </c>
-      <c r="C23" t="s">
-        <v>786</v>
-      </c>
-      <c r="D23" s="8">
-        <v>35800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>738</v>
-      </c>
-      <c r="C24" t="s">
-        <v>791</v>
-      </c>
-      <c r="D24" s="8">
-        <v>36267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>737</v>
-      </c>
-      <c r="C25" t="s">
-        <v>795</v>
-      </c>
-      <c r="D25" s="8">
-        <v>37470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>768</v>
-      </c>
-      <c r="C26" t="s">
-        <v>778</v>
-      </c>
-      <c r="D26" s="8">
-        <v>37475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>748</v>
-      </c>
-      <c r="C27" t="s">
-        <v>803</v>
-      </c>
-      <c r="D27" s="8">
-        <v>37521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>767</v>
-      </c>
-      <c r="C28" t="s">
-        <v>782</v>
-      </c>
-      <c r="D28" s="8">
-        <v>37593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>766</v>
-      </c>
-      <c r="C29" t="s">
-        <v>796</v>
-      </c>
-      <c r="D29" s="8">
-        <v>38108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>765</v>
-      </c>
-      <c r="C30" t="s">
-        <v>804</v>
-      </c>
-      <c r="D30" s="8">
-        <v>39255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>749</v>
-      </c>
-      <c r="C31" t="s">
-        <v>805</v>
-      </c>
-      <c r="D31" s="8">
-        <v>39284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>764</v>
-      </c>
-      <c r="C32" t="s">
-        <v>779</v>
-      </c>
-      <c r="D32" s="8">
-        <v>39599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>763</v>
-      </c>
-      <c r="C33" t="s">
-        <v>808</v>
-      </c>
-      <c r="D33" s="8">
-        <v>39816</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>740</v>
-      </c>
-      <c r="C34" t="s">
-        <v>807</v>
-      </c>
-      <c r="D34" s="8">
-        <v>40151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>762</v>
-      </c>
-      <c r="C35" t="s">
-        <v>798</v>
-      </c>
-      <c r="D35" s="8">
-        <v>40209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>741</v>
-      </c>
-      <c r="C36" t="s">
-        <v>809</v>
-      </c>
-      <c r="D36" s="8">
-        <v>40433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>743</v>
-      </c>
-      <c r="C37" t="s">
-        <v>810</v>
-      </c>
-      <c r="D37" s="8">
-        <v>40684</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>742</v>
-      </c>
-      <c r="C38" t="s">
-        <v>781</v>
-      </c>
-      <c r="D38" s="8">
-        <v>41030</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C39" t="s">
-        <v>783</v>
-      </c>
-      <c r="D39" s="8">
-        <v>41324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>761</v>
-      </c>
-      <c r="C40" t="s">
-        <v>811</v>
-      </c>
-      <c r="D40" s="8">
-        <v>43202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>751</v>
-      </c>
-      <c r="C41" t="s">
-        <v>806</v>
-      </c>
-      <c r="D41" s="8">
-        <v>44146</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D41">
-    <sortCondition ref="D1:D41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E41">
+    <sortCondition ref="E1:E41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4156,7 +3430,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668542F-3A41-4993-B513-853FC9DD6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A5A994-0D8E-46F9-8807-21D42D37451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2790" windowWidth="25380" windowHeight="13200" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="27870" windowHeight="13200" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="730">
   <si>
     <t xml:space="preserve"> 유저이름</t>
   </si>
@@ -453,14 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>솔로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>힙합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,10 +588,6 @@
   </si>
   <si>
     <t>리쌍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1631,10 +1619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/016/27/087/1627087_20220617122333_500.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1652,10 +1636,6 @@
   </si>
   <si>
     <t>2F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2394,10 +2374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>솔로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A0028</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2470,24 +2446,360 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>포스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연장명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>아티스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연장명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요장르</t>
+  </si>
+  <si>
+    <t>CCM
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+포크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트
+포크
+발라드
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트
+포크
+팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+락
+발라드
+RnB
+재즈
+뮤지컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬
+CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식
+팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재즈
+CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+락
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+락
+RnB
+재즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+발라드
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+팝
+힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+트로트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크
+발라드
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+힙합
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+인디
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝
+발라드
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+팝
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+인디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+팝
+포크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+RnB
+팝
+일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>락
+클래식
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크
+인디
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+인디
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnB
+힙합
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+RnB
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트
+클래식
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렉트로니카
+힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+발라드
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+인디
+일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+RnB
+일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+RnB
+클래식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+팝
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnB
+인디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnB
+발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디
+힙합
+RnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디
+락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드
+트로트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>duo</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>공연지역</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>경기</t>
+  </si>
+  <si>
+    <t>경북</t>
+  </si>
+  <si>
+    <t>경남</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>제주</t>
   </si>
 </sst>
 </file>
@@ -2497,7 +2809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2511,6 +2823,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2533,7 +2852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2548,6 +2867,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2848,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2863,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3508,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -3190,23 +3516,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -3214,55 +3540,55 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -3270,18 +3596,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3295,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3308,9 +3634,10 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="145.875" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3326,2063 +3653,2432 @@
       <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E2">
         <v>1958</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E3">
         <v>1970</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E4">
         <v>1973</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E5">
         <v>1975</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E6">
         <v>1975</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E7">
         <v>1977</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E8">
         <v>1978</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E9">
         <v>1978</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E10">
         <v>1984</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D11" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E11">
         <v>1984</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D12" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E12">
         <v>1986</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E13">
         <v>1988</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E14">
         <v>1991</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E15">
         <v>1991</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E16">
         <v>1993</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E17">
         <v>1993</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E18">
         <v>1994</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E19">
         <v>1994</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E20">
         <v>1995</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E21">
         <v>1996</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D22" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E22">
         <v>1996</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E23">
         <v>1997</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D24" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E24">
         <v>1997</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D25" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E25">
         <v>1997</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E26">
         <v>1998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E27">
         <v>1998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E28">
         <v>1998</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D29" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E29">
         <v>1998</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E30">
         <v>1999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E31">
         <v>1999</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s">
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D32" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E32">
         <v>1999</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E33">
         <v>1999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C34" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="D34" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E34">
         <v>1999</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D35" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D36" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E36">
         <v>2001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C37" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D37" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E37">
         <v>2001</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>720</v>
       </c>
       <c r="D38" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E38">
         <v>2002</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D39" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E39">
         <v>2002</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D40" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E40">
         <v>2002</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E41">
         <v>2003</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D42" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E42">
         <v>2003</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D43" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E43">
         <v>2004</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E44">
         <v>2004</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B45" t="s">
         <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E45">
         <v>2004</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D46" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E46">
         <v>2004</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C47" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
       <c r="D47" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E47">
         <v>2004</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E48">
         <v>2004</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C49" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
       <c r="D49" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E49">
         <v>2004</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D50" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D51" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D52" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E52">
         <v>2005</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B53" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D53" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E53">
         <v>2005</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B54" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C54" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D54" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E54">
         <v>2005</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B55" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E55">
         <v>2006</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D56" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E56">
         <v>2006</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D57" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E57">
         <v>2007</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D59" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D60" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E60">
         <v>2009</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D61" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E61">
         <v>2009</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D62" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E62">
         <v>2010</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B63" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D63" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E63">
         <v>2010</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D64" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E64">
         <v>2010</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B65" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D65" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E65">
         <v>2010</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D66" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E66">
         <v>2010</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D67" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E67">
         <v>2010</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B68" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D68" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E68">
         <v>2010</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D69" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E69">
         <v>2010</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B70" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D70" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E70">
         <v>2011</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B71" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E71">
         <v>2011</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E72">
         <v>2012</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E73">
         <v>2012</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D74" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D75" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E75">
         <v>2012</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D76" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E76">
         <v>2012</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D77" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E77">
         <v>2012</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E78">
         <v>2013</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D79" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E79">
         <v>2013</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D80" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E80">
         <v>2013</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E81">
         <v>2014</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D82" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B83" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D83" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E83">
         <v>2014</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B84" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D84" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E84">
         <v>2014</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B85" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D85" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E85">
         <v>2014</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B86" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D86" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B87" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D87" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B88" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D88" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B89" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D89" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B90" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D90" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
       <c r="D91" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D92" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E92">
         <v>2016</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D93" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B94" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D94" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B95" t="s">
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E95">
         <v>2017</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D96" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E96">
         <v>2017</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D97" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C98" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B99" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D99" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D100" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B101" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D101" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E101">
         <v>2018</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E102">
         <v>2018</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E103">
         <v>2018</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D104" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E104">
         <v>2018</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B105" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C105" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D105" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E105">
         <v>2018</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D106" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B107" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D107" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E107">
         <v>2018</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D108" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E108">
         <v>2018</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B109" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D109" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E109">
         <v>2018</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D110" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E110">
         <v>2018</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D111" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E111">
         <v>2019</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B112" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D112" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E112">
         <v>2019</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C113" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D113" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E113">
         <v>2019</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B114" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D114" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E114">
         <v>2019</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
       <c r="D115" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E115">
         <v>2019</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B116" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D116" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E116">
         <v>2019</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B117" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D117" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E117">
         <v>2019</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B118" t="s">
         <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>721</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E118">
         <v>2020</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E119">
         <v>2020</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C120" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D120" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E120">
         <v>2020</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C121" t="s">
+        <v>720</v>
+      </c>
+      <c r="D121" t="s">
         <v>444</v>
-      </c>
-      <c r="D121" t="s">
-        <v>449</v>
       </c>
       <c r="E121">
         <v>2020</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="D122" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E122">
         <v>2021</v>
       </c>
+      <c r="F122" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F123" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E122">
@@ -5413,1943 +6109,1943 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B59" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B67" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B88" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B102" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B104" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B106" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B109" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B110" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B111" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B112" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B114" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B122" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B123" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B127" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B129" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B130" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B133" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B136" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B140" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B141" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B145" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B153" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B160" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B162" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B164" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B165" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B169" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B172" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B174" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B175" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B177" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B178" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B179" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B181" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B185" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B187" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B188" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B189" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B190" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B191" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B192" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B194" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B195" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B198" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B200" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B203" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B204" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B206" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B210" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B214" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B215" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B217" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B219" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B221" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B222" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B224" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B225" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B227" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B228" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B229" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B231" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B232" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B233" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B234" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B235" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B236" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B237" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B238" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B239" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B241" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B242" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B243" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7364,968 +8060,1092 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44897</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44899</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
-        <v>642</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44897</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44899</v>
-      </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44899</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44898</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44899</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44905</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="2">
         <v>44898</v>
       </c>
-      <c r="F4" s="2">
-        <v>44905</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>231</v>
-      </c>
       <c r="E5" s="2">
-        <v>44898</v>
-      </c>
-      <c r="F5" s="2">
         <v>44899</v>
       </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" t="s">
-        <v>225</v>
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44903</v>
       </c>
       <c r="E6" s="2">
-        <v>44903</v>
-      </c>
-      <c r="F6" s="2">
         <v>44904</v>
       </c>
-      <c r="G6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
       </c>
       <c r="C7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44904</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44906</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
-        <v>641</v>
-      </c>
-      <c r="E7" s="2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="2">
         <v>44904</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E8" s="2">
         <v>44906</v>
       </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44904</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44906</v>
-      </c>
-      <c r="G8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44905</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
+        <v>634</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="D10" t="s">
-        <v>639</v>
-      </c>
-      <c r="E10" s="2">
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="2">
         <v>44905</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" t="s">
-        <v>228</v>
       </c>
       <c r="E11" s="2">
         <v>44905</v>
       </c>
-      <c r="F11" s="2">
-        <v>44905</v>
-      </c>
-      <c r="G11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
       </c>
       <c r="C12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44911</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44913</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44911</v>
-      </c>
-      <c r="F12" s="2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44912</v>
+      </c>
+      <c r="E13" s="2">
         <v>44913</v>
       </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H13" t="s">
         <v>109</v>
       </c>
-      <c r="D13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44912</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44913</v>
-      </c>
-      <c r="G13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44918</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
-        <v>637</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44918</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" t="s">
-        <v>636</v>
+      <c r="C15" t="s">
+        <v>631</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44918</v>
       </c>
       <c r="E15" s="2">
-        <v>44918</v>
-      </c>
-      <c r="F15" s="2">
         <v>44920</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="330" x14ac:dyDescent="0.3">
+      <c r="G15" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="330" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D16" t="s">
-        <v>242</v>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44919</v>
       </c>
       <c r="E16" s="2">
-        <v>44919</v>
-      </c>
-      <c r="F16" s="2">
         <v>44920</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44919</v>
       </c>
       <c r="E17" s="2">
         <v>44919</v>
       </c>
-      <c r="F17" s="2">
-        <v>44919</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
       </c>
       <c r="C18" t="s">
+        <v>630</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44919</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44920</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="H18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>635</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44919</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>634</v>
+      <c r="C19" t="s">
+        <v>629</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44919</v>
       </c>
       <c r="E19" s="2">
+        <v>44920</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="2">
         <v>44919</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E20" s="2">
         <v>44920</v>
       </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44919</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44924</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44925</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44924</v>
-      </c>
-      <c r="F21" s="2">
-        <v>44925</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44927</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H22" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44925</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44927</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H23" t="s">
         <v>95</v>
       </c>
-      <c r="D23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E23" s="2">
+    </row>
+    <row r="24" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="2">
         <v>44925</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E24" s="2">
         <v>44926</v>
       </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="2">
-        <v>44925</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="D26" s="2">
         <v>44926</v>
-      </c>
-      <c r="G24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44925</v>
-      </c>
-      <c r="F25" s="2">
-        <v>44926</v>
-      </c>
-      <c r="G25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" t="s">
-        <v>229</v>
       </c>
       <c r="E26" s="2">
         <v>44926</v>
       </c>
-      <c r="F26" s="2">
-        <v>44926</v>
-      </c>
-      <c r="G26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" t="s">
-        <v>227</v>
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44975</v>
       </c>
       <c r="E27" s="2">
         <v>44975</v>
       </c>
-      <c r="F27" s="2">
-        <v>44975</v>
-      </c>
-      <c r="G27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45005</v>
       </c>
       <c r="E28" s="2">
         <v>45005</v>
       </c>
-      <c r="F28" s="2">
-        <v>45005</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>335</v>
       </c>
-      <c r="B29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" t="s">
-        <v>349</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="H33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H36" t="s">
         <v>173</v>
       </c>
-      <c r="D30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>337</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>338</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>340</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>341</v>
-      </c>
-      <c r="B35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>342</v>
-      </c>
-      <c r="B36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>343</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44920</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H37" t="s">
         <v>53</v>
       </c>
-      <c r="D37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" t="s">
+        <v>626</v>
+      </c>
+      <c r="C40" t="s">
+        <v>627</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F40" t="s">
+        <v>624</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="H40" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>344</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" t="s">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C41" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>345</v>
-      </c>
-      <c r="B39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" t="s">
-        <v>252</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>346</v>
-      </c>
-      <c r="B40" t="s">
-        <v>631</v>
-      </c>
-      <c r="C40" t="s">
-        <v>630</v>
-      </c>
-      <c r="D40" t="s">
-        <v>632</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="G40" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>347</v>
-      </c>
-      <c r="B41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" t="s">
-        <v>184</v>
+      <c r="D41" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G41" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H41" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
-    <sortCondition ref="E1:E41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="D1:D41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8356,794 +9176,794 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B28" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B56" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B60" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B66" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B74" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B75" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B76" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B77" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B78" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B79" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B80" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B81" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B82" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B83" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B84" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B85" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B86" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B87" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B88" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B91" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B93" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B94" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B95" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B97" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB672960-B597-46F5-93BB-892DB4050B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D1D42F-FD6B-4D0B-892C-C53691DE909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="1800" windowWidth="40170" windowHeight="13800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36435" yWindow="1725" windowWidth="18750" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,15 @@
     <sheet name="아티스트" sheetId="8" r:id="rId6"/>
     <sheet name="아티스트-장르" sheetId="13" r:id="rId7"/>
     <sheet name="공연정보" sheetId="9" r:id="rId8"/>
-    <sheet name="공연-아티스트" sheetId="15" r:id="rId9"/>
-    <sheet name="이미지" sheetId="10" r:id="rId10"/>
-    <sheet name="게시판" sheetId="11" r:id="rId11"/>
-    <sheet name="댓글" sheetId="12" r:id="rId12"/>
+    <sheet name="공연-장르" sheetId="16" r:id="rId9"/>
+    <sheet name="공연-아티스트" sheetId="15" r:id="rId10"/>
+    <sheet name="이미지" sheetId="10" r:id="rId11"/>
+    <sheet name="게시판" sheetId="11" r:id="rId12"/>
+    <sheet name="댓글" sheetId="12" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'공연-장르'!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="607">
   <si>
     <t xml:space="preserve"> 유저이름</t>
   </si>
@@ -2280,140 +2284,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://tickets.interpark.com/goods/22014872</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22013971</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015710</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014054</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015956</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014064</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015069</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22008291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014892</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015878</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016316</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016282</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015044</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016321</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015350</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016274</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016563</t>
+  </si>
+  <si>
+    <t>라이트 업 페스티벌 (2023 LIGHT UP FESTIVAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016203</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015278</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015132</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015085</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22013875</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016130</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015072</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014878</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014627</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016554</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015770</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016768</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016588</t>
+  </si>
+  <si>
+    <t>공연형태</t>
+  </si>
+  <si>
+    <t>조회수</t>
+  </si>
+  <si>
+    <t>국내</t>
+  </si>
+  <si>
+    <t>페스티벌</t>
+  </si>
+  <si>
+    <t>내한</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22014975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://tickets.interpark.com/goods/22014517</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014975</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014872</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22013971</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015710</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014054</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015956</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014064</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015069</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016740</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016347</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22008291</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014892</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014710</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015878</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016316</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016282</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015044</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016321</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015350</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016274</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016273</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://tickets.interpark.com/goods/22013785</t>
-  </si>
-  <si>
-    <t>라이트 업 페스티벌 (2023 LIGHT UP FESTIVAL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016203</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015278</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015132</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015085</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22013875</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016130</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015072</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014878</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22014627</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016554</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22015770</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016768</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016588</t>
-  </si>
-  <si>
-    <t>공연형태</t>
-  </si>
-  <si>
-    <t>조회수</t>
-  </si>
-  <si>
-    <t>국내</t>
-  </si>
-  <si>
-    <t>페스티벌</t>
-  </si>
-  <si>
-    <t>내한</t>
-  </si>
-  <si>
-    <t>https://tickets.interpark.com/goods/22016390</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2424,7 +2438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2446,6 +2460,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2464,10 +2486,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2500,9 +2523,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2826,6 +2853,830 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>15</v>
+      </c>
+      <c r="B27" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>15</v>
+      </c>
+      <c r="B28" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>15</v>
+      </c>
+      <c r="B31" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>15</v>
+      </c>
+      <c r="B32" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>15</v>
+      </c>
+      <c r="B33" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>15</v>
+      </c>
+      <c r="B34" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>15</v>
+      </c>
+      <c r="B35" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>15</v>
+      </c>
+      <c r="B36" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>15</v>
+      </c>
+      <c r="B37" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>15</v>
+      </c>
+      <c r="B38" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>15</v>
+      </c>
+      <c r="B39" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>15</v>
+      </c>
+      <c r="B40" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>15</v>
+      </c>
+      <c r="B41" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>15</v>
+      </c>
+      <c r="B42" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>15</v>
+      </c>
+      <c r="B43" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>16</v>
+      </c>
+      <c r="B44" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>17</v>
+      </c>
+      <c r="B45" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>18</v>
+      </c>
+      <c r="B46" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>18</v>
+      </c>
+      <c r="B47" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>19</v>
+      </c>
+      <c r="B48" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>20</v>
+      </c>
+      <c r="B49" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>21</v>
+      </c>
+      <c r="B50" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>22</v>
+      </c>
+      <c r="B51" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>23</v>
+      </c>
+      <c r="B52" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>23</v>
+      </c>
+      <c r="B53" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>23</v>
+      </c>
+      <c r="B54" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>23</v>
+      </c>
+      <c r="B55" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>23</v>
+      </c>
+      <c r="B56" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>23</v>
+      </c>
+      <c r="B57" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>23</v>
+      </c>
+      <c r="B58" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>23</v>
+      </c>
+      <c r="B59" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>23</v>
+      </c>
+      <c r="B60" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>23</v>
+      </c>
+      <c r="B61" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>24</v>
+      </c>
+      <c r="B62" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>24</v>
+      </c>
+      <c r="B63" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>24</v>
+      </c>
+      <c r="B64" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>24</v>
+      </c>
+      <c r="B65" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>24</v>
+      </c>
+      <c r="B66" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>24</v>
+      </c>
+      <c r="B67" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>24</v>
+      </c>
+      <c r="B68" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>24</v>
+      </c>
+      <c r="B69" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>24</v>
+      </c>
+      <c r="B70" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>24</v>
+      </c>
+      <c r="B71" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>24</v>
+      </c>
+      <c r="B72" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>25</v>
+      </c>
+      <c r="B73" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>25</v>
+      </c>
+      <c r="B74" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>26</v>
+      </c>
+      <c r="B75" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>26</v>
+      </c>
+      <c r="B76" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>26</v>
+      </c>
+      <c r="B77" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>26</v>
+      </c>
+      <c r="B78" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>26</v>
+      </c>
+      <c r="B79" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>26</v>
+      </c>
+      <c r="B80" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>26</v>
+      </c>
+      <c r="B81" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>26</v>
+      </c>
+      <c r="B82" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>26</v>
+      </c>
+      <c r="B83" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>26</v>
+      </c>
+      <c r="B84" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>26</v>
+      </c>
+      <c r="B85" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>26</v>
+      </c>
+      <c r="B86" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>27</v>
+      </c>
+      <c r="B87" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>28</v>
+      </c>
+      <c r="B88" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>29</v>
+      </c>
+      <c r="B89" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>30</v>
+      </c>
+      <c r="B90" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>31</v>
+      </c>
+      <c r="B91" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>32</v>
+      </c>
+      <c r="B92" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>33</v>
+      </c>
+      <c r="B93" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>34</v>
+      </c>
+      <c r="B94" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>35</v>
+      </c>
+      <c r="B95" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>36</v>
+      </c>
+      <c r="B96" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>37</v>
+      </c>
+      <c r="B97" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>38</v>
+      </c>
+      <c r="B98" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>39</v>
+      </c>
+      <c r="B99" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>40</v>
+      </c>
+      <c r="B100" s="11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
+    <sortCondition ref="A2:A100"/>
+    <sortCondition ref="B2:B100"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F264FC-E4FD-435F-9A18-14C91FDF1855}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2860,7 +3711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A34A1-C3C9-4759-A9DA-8DE8B4263943}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2943,7 +3794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00CE038-3E8E-4C7B-8836-17D0FEAA38C7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3117,7 +3968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629F6DA-9E02-406A-B6E7-6A514633970A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3249,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5354,8 +6207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475450A4-A2B6-47BA-B746-B5C9BBF465F5}">
   <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7323,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7365,10 +8218,10 @@
         <v>559</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>486</v>
@@ -7397,7 +8250,7 @@
         <v>560</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8" t="s">
@@ -7427,7 +8280,7 @@
         <v>561</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8" t="s">
@@ -7454,10 +8307,10 @@
         <v>547</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
@@ -7484,10 +8337,10 @@
         <v>548</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
@@ -7513,11 +8366,11 @@
       <c r="G6" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>563</v>
+      <c r="H6" s="14" t="s">
+        <v>600</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="10" t="s">
@@ -7544,10 +8397,10 @@
         <v>546</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
@@ -7574,10 +8427,10 @@
         <v>546</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
@@ -7604,10 +8457,10 @@
         <v>550</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
@@ -7634,10 +8487,10 @@
         <v>550</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
@@ -7664,10 +8517,10 @@
         <v>547</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="10" t="s">
@@ -7694,10 +8547,10 @@
         <v>546</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
@@ -7724,10 +8577,10 @@
         <v>546</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8" t="s">
@@ -7754,10 +8607,10 @@
         <v>546</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
@@ -7783,11 +8636,11 @@
       <c r="G15" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>571</v>
+      <c r="H15" s="14" t="s">
+        <v>601</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="10" t="s">
@@ -7813,11 +8666,11 @@
       <c r="G16" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>572</v>
+      <c r="H16" s="14" t="s">
+        <v>602</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="10" t="s">
@@ -7844,10 +8697,10 @@
         <v>550</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8" t="s">
@@ -7874,10 +8727,10 @@
         <v>551</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="8" t="s">
@@ -7904,10 +8757,10 @@
         <v>546</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="10" t="s">
@@ -7934,10 +8787,10 @@
         <v>547</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="8" t="s">
@@ -7964,10 +8817,10 @@
         <v>546</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="8" t="s">
@@ -7994,10 +8847,10 @@
         <v>546</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="8" t="s">
@@ -8024,10 +8877,10 @@
         <v>546</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8" t="s">
@@ -8053,11 +8906,11 @@
       <c r="G24" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>583</v>
+      <c r="H24" s="14" t="s">
+        <v>604</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="10" t="s">
@@ -8083,11 +8936,11 @@
       <c r="G25" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>562</v>
+      <c r="H25" s="14" t="s">
+        <v>605</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="10" t="s">
@@ -8114,10 +8967,10 @@
         <v>546</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="10" t="s">
@@ -8126,7 +8979,7 @@
     </row>
     <row r="27" spans="2:11" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C27" t="s">
         <v>218</v>
@@ -8143,11 +8996,11 @@
       <c r="G27" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>585</v>
+      <c r="H27" s="14" t="s">
+        <v>606</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="10" t="s">
@@ -8174,10 +9027,10 @@
         <v>546</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="8" t="s">
@@ -8204,10 +9057,10 @@
         <v>546</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="8" t="s">
@@ -8234,10 +9087,10 @@
         <v>546</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="8" t="s">
@@ -8264,10 +9117,10 @@
         <v>546</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="8" t="s">
@@ -8294,10 +9147,10 @@
         <v>546</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="8" t="s">
@@ -8324,10 +9177,10 @@
         <v>548</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="8" t="s">
@@ -8354,10 +9207,10 @@
         <v>546</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="8" t="s">
@@ -8384,10 +9237,10 @@
         <v>546</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="8" t="s">
@@ -8414,10 +9267,10 @@
         <v>550</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="8" t="s">
@@ -8444,10 +9297,10 @@
         <v>546</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="8" t="s">
@@ -8474,10 +9327,10 @@
         <v>546</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="8" t="s">
@@ -8504,10 +9357,10 @@
         <v>546</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="8" t="s">
@@ -8534,10 +9387,10 @@
         <v>547</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="8" t="s">
@@ -8564,10 +9417,10 @@
         <v>546</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
@@ -8579,830 +9432,964 @@
     <sortCondition ref="D1:D41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{7257967F-4DAD-475B-8409-237EE0F9AF30}"/>
+    <hyperlink ref="H15" r:id="rId2" xr:uid="{06612EAF-AA08-4D8D-B79E-4419DEA88FDA}"/>
+    <hyperlink ref="H16" r:id="rId3" xr:uid="{4D05457D-7DCE-43E4-ACB2-439A651D9BA5}"/>
+    <hyperlink ref="H24" r:id="rId4" xr:uid="{97F23C80-EDA3-4096-A52C-5AC20AC6D3C7}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{8E78F880-24B6-4377-9BBC-6AE4E06847B0}"/>
+    <hyperlink ref="H27" r:id="rId6" xr:uid="{72BC4B00-35F9-44C3-A1B9-68F70A145D9D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835BF780-05AB-4239-9325-A76C0F05AA3E}">
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="B7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="B12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <v>13</v>
-      </c>
-      <c r="B17" s="11">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>14</v>
-      </c>
-      <c r="B18" s="11">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11">
-        <v>95</v>
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>14</v>
-      </c>
-      <c r="B21" s="11">
-        <v>110</v>
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <v>14</v>
-      </c>
-      <c r="B22" s="11">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11">
-        <v>121</v>
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <v>15</v>
-      </c>
-      <c r="B24" s="11">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <v>15</v>
-      </c>
-      <c r="B25" s="11">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>15</v>
-      </c>
-      <c r="B27" s="11">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>15</v>
-      </c>
-      <c r="B28" s="11">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>15</v>
-      </c>
-      <c r="B29" s="11">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>15</v>
-      </c>
-      <c r="B30" s="11">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>15</v>
       </c>
-      <c r="B31" s="11">
-        <v>74</v>
+      <c r="B31" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>15</v>
-      </c>
-      <c r="B32" s="11">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
-        <v>15</v>
-      </c>
-      <c r="B33" s="11">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>15</v>
-      </c>
-      <c r="B34" s="11">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
-        <v>15</v>
-      </c>
-      <c r="B35" s="11">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>15</v>
-      </c>
-      <c r="B36" s="11">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
-        <v>15</v>
-      </c>
-      <c r="B37" s="11">
-        <v>91</v>
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
-        <v>15</v>
-      </c>
-      <c r="B38" s="11">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
-        <v>15</v>
-      </c>
-      <c r="B39" s="11">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
-        <v>15</v>
-      </c>
-      <c r="B40" s="11">
-        <v>101</v>
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
-        <v>15</v>
-      </c>
-      <c r="B41" s="11">
-        <v>102</v>
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
-        <v>15</v>
-      </c>
-      <c r="B42" s="11">
-        <v>103</v>
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
-        <v>15</v>
-      </c>
-      <c r="B43" s="11">
-        <v>119</v>
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
-        <v>16</v>
-      </c>
-      <c r="B44" s="11">
-        <v>97</v>
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
-        <v>17</v>
-      </c>
-      <c r="B45" s="11">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
-        <v>18</v>
-      </c>
-      <c r="B46" s="11">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
-        <v>18</v>
-      </c>
-      <c r="B47" s="11">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
-        <v>19</v>
-      </c>
-      <c r="B48" s="11">
-        <v>105</v>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
-        <v>20</v>
-      </c>
-      <c r="B49" s="11">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
-        <v>21</v>
-      </c>
-      <c r="B50" s="11">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
-        <v>22</v>
-      </c>
-      <c r="B51" s="11">
-        <v>111</v>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
-        <v>23</v>
-      </c>
-      <c r="B52" s="11">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
-        <v>23</v>
-      </c>
-      <c r="B53" s="11">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
-        <v>23</v>
-      </c>
-      <c r="B54" s="11">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
-        <v>23</v>
-      </c>
-      <c r="B55" s="11">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
-        <v>23</v>
-      </c>
-      <c r="B56" s="11">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
-        <v>23</v>
-      </c>
-      <c r="B57" s="11">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
-        <v>23</v>
-      </c>
-      <c r="B58" s="11">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
-        <v>23</v>
-      </c>
-      <c r="B59" s="11">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
-        <v>23</v>
-      </c>
-      <c r="B60" s="11">
-        <v>83</v>
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
-        <v>23</v>
-      </c>
-      <c r="B61" s="11">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
-        <v>24</v>
-      </c>
-      <c r="B62" s="11">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
-        <v>24</v>
-      </c>
-      <c r="B63" s="11">
-        <v>87</v>
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
-        <v>24</v>
-      </c>
-      <c r="B64" s="11">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
-        <v>24</v>
-      </c>
-      <c r="B65" s="11">
-        <v>92</v>
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
-        <v>24</v>
-      </c>
-      <c r="B66" s="11">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
-        <v>24</v>
-      </c>
-      <c r="B67" s="11">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
-        <v>24</v>
-      </c>
-      <c r="B68" s="11">
-        <v>102</v>
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
-        <v>24</v>
-      </c>
-      <c r="B69" s="11">
-        <v>103</v>
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
-        <v>24</v>
-      </c>
-      <c r="B70" s="11">
-        <v>106</v>
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
-        <v>24</v>
-      </c>
-      <c r="B71" s="11">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
-        <v>24</v>
-      </c>
-      <c r="B72" s="11">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
-        <v>25</v>
-      </c>
-      <c r="B73" s="11">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
-        <v>25</v>
-      </c>
-      <c r="B74" s="11">
-        <v>56</v>
-      </c>
+      <c r="A74" s="11"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
-        <v>26</v>
-      </c>
-      <c r="B75" s="11">
-        <v>40</v>
-      </c>
+      <c r="A75" s="11"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
-        <v>26</v>
-      </c>
-      <c r="B76" s="11">
-        <v>52</v>
-      </c>
+      <c r="A76" s="11"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
-        <v>26</v>
-      </c>
-      <c r="B77" s="11">
-        <v>84</v>
-      </c>
+      <c r="A77" s="11"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
-        <v>26</v>
-      </c>
-      <c r="B78" s="11">
-        <v>87</v>
-      </c>
+      <c r="A78" s="11"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
-        <v>26</v>
-      </c>
-      <c r="B79" s="11">
-        <v>98</v>
-      </c>
+      <c r="A79" s="11"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
-        <v>26</v>
-      </c>
-      <c r="B80" s="11">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
-        <v>26</v>
-      </c>
-      <c r="B81" s="11">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
-        <v>26</v>
-      </c>
-      <c r="B82" s="11">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
-        <v>26</v>
-      </c>
-      <c r="B83" s="11">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
-        <v>26</v>
-      </c>
-      <c r="B84" s="11">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
-        <v>26</v>
-      </c>
-      <c r="B85" s="11">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
-        <v>26</v>
-      </c>
-      <c r="B86" s="11">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
-        <v>27</v>
-      </c>
-      <c r="B87" s="11">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
-        <v>28</v>
-      </c>
-      <c r="B88" s="11">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
-        <v>29</v>
-      </c>
-      <c r="B89" s="11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
-        <v>30</v>
-      </c>
-      <c r="B90" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
-        <v>31</v>
-      </c>
-      <c r="B91" s="11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
-        <v>32</v>
-      </c>
-      <c r="B92" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
-        <v>33</v>
-      </c>
-      <c r="B93" s="11">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
-        <v>34</v>
-      </c>
-      <c r="B94" s="11">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
-        <v>35</v>
-      </c>
-      <c r="B95" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
-        <v>36</v>
-      </c>
-      <c r="B96" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
-        <v>37</v>
-      </c>
-      <c r="B97" s="11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
-        <v>38</v>
-      </c>
-      <c r="B98" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
-        <v>39</v>
-      </c>
-      <c r="B99" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
-        <v>40</v>
-      </c>
-      <c r="B100" s="11">
-        <v>5</v>
-      </c>
+      <c r="A80" s="11"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="11"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="11"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="11"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="11"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="11"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="11"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="11"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="11"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="11"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="11"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="11"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="11"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="11"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="11"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="11"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="11"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="11"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="11"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="11"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
-    <sortCondition ref="A2:A100"/>
-    <sortCondition ref="B2:B100"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB672960-B597-46F5-93BB-892DB4050B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE75305-8461-47FD-987F-A904EB2D1A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="1800" windowWidth="40170" windowHeight="13800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="1920" windowWidth="40170" windowHeight="13800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -2489,9 +2489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2500,6 +2497,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5373,7 +5373,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -5381,7 +5381,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5397,7 +5397,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5405,7 +5405,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5413,7 +5413,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -5421,7 +5421,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -5437,7 +5437,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -5445,7 +5445,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -5453,7 +5453,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -5461,7 +5461,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -5469,7 +5469,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -5477,7 +5477,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -5485,7 +5485,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -5493,7 +5493,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -5501,7 +5501,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
       <c r="B18" t="s">
@@ -5509,7 +5509,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
       <c r="B19" t="s">
@@ -5517,7 +5517,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>9</v>
       </c>
       <c r="B20" t="s">
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>9</v>
       </c>
       <c r="B21" t="s">
@@ -5533,7 +5533,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>9</v>
       </c>
       <c r="B22" t="s">
@@ -5541,7 +5541,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>9</v>
       </c>
       <c r="B23" t="s">
@@ -5549,7 +5549,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>10</v>
       </c>
       <c r="B24" t="s">
@@ -5557,7 +5557,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>10</v>
       </c>
       <c r="B25" t="s">
@@ -5565,7 +5565,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>11</v>
       </c>
       <c r="B26" t="s">
@@ -5573,7 +5573,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>11</v>
       </c>
       <c r="B27" t="s">
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>12</v>
       </c>
       <c r="B28" t="s">
@@ -5589,7 +5589,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>12</v>
       </c>
       <c r="B29" t="s">
@@ -5597,7 +5597,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>13</v>
       </c>
       <c r="B30" t="s">
@@ -5605,7 +5605,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>13</v>
       </c>
       <c r="B31" t="s">
@@ -5613,7 +5613,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>14</v>
       </c>
       <c r="B32" t="s">
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>14</v>
       </c>
       <c r="B33" t="s">
@@ -5629,7 +5629,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>15</v>
       </c>
       <c r="B34" t="s">
@@ -5637,7 +5637,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>16</v>
       </c>
       <c r="B35" t="s">
@@ -5645,7 +5645,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>17</v>
       </c>
       <c r="B36" t="s">
@@ -5653,7 +5653,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>17</v>
       </c>
       <c r="B37" t="s">
@@ -5661,7 +5661,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>18</v>
       </c>
       <c r="B38" t="s">
@@ -5669,7 +5669,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>18</v>
       </c>
       <c r="B39" t="s">
@@ -5677,7 +5677,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>19</v>
       </c>
       <c r="B40" t="s">
@@ -5685,7 +5685,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>19</v>
       </c>
       <c r="B41" t="s">
@@ -5693,7 +5693,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>20</v>
       </c>
       <c r="B42" t="s">
@@ -5701,7 +5701,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>21</v>
       </c>
       <c r="B43" t="s">
@@ -5709,7 +5709,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -5717,7 +5717,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>22</v>
       </c>
       <c r="B45" t="s">
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>22</v>
       </c>
       <c r="B46" t="s">
@@ -5733,7 +5733,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>22</v>
       </c>
       <c r="B47" t="s">
@@ -5741,7 +5741,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>23</v>
       </c>
       <c r="B48" t="s">
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>23</v>
       </c>
       <c r="B49" t="s">
@@ -5757,7 +5757,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>24</v>
       </c>
       <c r="B50" t="s">
@@ -5765,7 +5765,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>24</v>
       </c>
       <c r="B51" t="s">
@@ -5773,7 +5773,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>25</v>
       </c>
       <c r="B52" t="s">
@@ -5781,7 +5781,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>25</v>
       </c>
       <c r="B53" t="s">
@@ -5789,7 +5789,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>25</v>
       </c>
       <c r="B54" t="s">
@@ -5797,7 +5797,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>25</v>
       </c>
       <c r="B55" t="s">
@@ -5805,7 +5805,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>26</v>
       </c>
       <c r="B56" t="s">
@@ -5813,7 +5813,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>26</v>
       </c>
       <c r="B57" t="s">
@@ -5821,7 +5821,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <v>27</v>
       </c>
       <c r="B58" t="s">
@@ -5829,7 +5829,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>28</v>
       </c>
       <c r="B59" t="s">
@@ -5837,7 +5837,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>28</v>
       </c>
       <c r="B60" t="s">
@@ -5845,7 +5845,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>28</v>
       </c>
       <c r="B61" t="s">
@@ -5853,7 +5853,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <v>29</v>
       </c>
       <c r="B62" t="s">
@@ -5861,7 +5861,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <v>30</v>
       </c>
       <c r="B63" t="s">
@@ -5869,7 +5869,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>31</v>
       </c>
       <c r="B64" t="s">
@@ -5877,7 +5877,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>31</v>
       </c>
       <c r="B65" t="s">
@@ -5885,7 +5885,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <v>31</v>
       </c>
       <c r="B66" t="s">
@@ -5893,7 +5893,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <v>32</v>
       </c>
       <c r="B67" t="s">
@@ -5901,7 +5901,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>32</v>
       </c>
       <c r="B68" t="s">
@@ -5909,7 +5909,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>33</v>
       </c>
       <c r="B69" t="s">
@@ -5917,7 +5917,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <v>33</v>
       </c>
       <c r="B70" t="s">
@@ -5925,7 +5925,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <v>33</v>
       </c>
       <c r="B71" t="s">
@@ -5933,7 +5933,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <v>34</v>
       </c>
       <c r="B72" t="s">
@@ -5941,7 +5941,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>34</v>
       </c>
       <c r="B73" t="s">
@@ -5949,7 +5949,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <v>34</v>
       </c>
       <c r="B74" t="s">
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <v>35</v>
       </c>
       <c r="B75" t="s">
@@ -5965,7 +5965,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <v>36</v>
       </c>
       <c r="B76" t="s">
@@ -5973,7 +5973,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>36</v>
       </c>
       <c r="B77" t="s">
@@ -5981,7 +5981,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <v>37</v>
       </c>
       <c r="B78" t="s">
@@ -5989,7 +5989,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <v>38</v>
       </c>
       <c r="B79" t="s">
@@ -5997,7 +5997,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <v>38</v>
       </c>
       <c r="B80" t="s">
@@ -6005,7 +6005,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <v>39</v>
       </c>
       <c r="B81" t="s">
@@ -6013,7 +6013,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <v>40</v>
       </c>
       <c r="B82" t="s">
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <v>40</v>
       </c>
       <c r="B83" t="s">
@@ -6029,7 +6029,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <v>40</v>
       </c>
       <c r="B84" t="s">
@@ -6037,7 +6037,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <v>41</v>
       </c>
       <c r="B85" t="s">
@@ -6045,7 +6045,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>42</v>
       </c>
       <c r="B86" t="s">
@@ -6053,7 +6053,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <v>42</v>
       </c>
       <c r="B87" t="s">
@@ -6061,7 +6061,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <v>43</v>
       </c>
       <c r="B88" t="s">
@@ -6069,7 +6069,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>43</v>
       </c>
       <c r="B89" t="s">
@@ -6077,7 +6077,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <v>43</v>
       </c>
       <c r="B90" t="s">
@@ -6085,7 +6085,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <v>44</v>
       </c>
       <c r="B91" t="s">
@@ -6093,7 +6093,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>44</v>
       </c>
       <c r="B92" t="s">
@@ -6101,7 +6101,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>44</v>
       </c>
       <c r="B93" t="s">
@@ -6109,7 +6109,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>45</v>
       </c>
       <c r="B94" t="s">
@@ -6117,7 +6117,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <v>45</v>
       </c>
       <c r="B95" t="s">
@@ -6125,7 +6125,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <v>46</v>
       </c>
       <c r="B96" t="s">
@@ -6133,7 +6133,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>46</v>
       </c>
       <c r="B97" t="s">
@@ -6141,7 +6141,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98" s="10">
         <v>47</v>
       </c>
       <c r="B98" t="s">
@@ -6149,7 +6149,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99" s="10">
         <v>47</v>
       </c>
       <c r="B99" t="s">
@@ -6157,7 +6157,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <v>48</v>
       </c>
       <c r="B100" t="s">
@@ -6165,7 +6165,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
+      <c r="A101" s="10">
         <v>48</v>
       </c>
       <c r="B101" t="s">
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
+      <c r="A102" s="10">
         <v>49</v>
       </c>
       <c r="B102" t="s">
@@ -6181,7 +6181,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
+      <c r="A103" s="10">
         <v>49</v>
       </c>
       <c r="B103" t="s">
@@ -6189,7 +6189,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="11">
+      <c r="A104" s="10">
         <v>50</v>
       </c>
       <c r="B104" t="s">
@@ -6197,7 +6197,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
+      <c r="A105" s="10">
         <v>50</v>
       </c>
       <c r="B105" t="s">
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="11">
+      <c r="A106" s="10">
         <v>51</v>
       </c>
       <c r="B106" t="s">
@@ -6213,7 +6213,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+      <c r="A107" s="10">
         <v>52</v>
       </c>
       <c r="B107" t="s">
@@ -6221,7 +6221,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="11">
+      <c r="A108" s="10">
         <v>52</v>
       </c>
       <c r="B108" t="s">
@@ -6229,7 +6229,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+      <c r="A109" s="10">
         <v>53</v>
       </c>
       <c r="B109" t="s">
@@ -6237,7 +6237,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="11">
+      <c r="A110" s="10">
         <v>53</v>
       </c>
       <c r="B110" t="s">
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
+      <c r="A111" s="10">
         <v>54</v>
       </c>
       <c r="B111" t="s">
@@ -6253,7 +6253,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
+      <c r="A112" s="10">
         <v>55</v>
       </c>
       <c r="B112" t="s">
@@ -6261,7 +6261,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+      <c r="A113" s="10">
         <v>55</v>
       </c>
       <c r="B113" t="s">
@@ -6269,7 +6269,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
+      <c r="A114" s="10">
         <v>56</v>
       </c>
       <c r="B114" t="s">
@@ -6277,7 +6277,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
+      <c r="A115" s="10">
         <v>56</v>
       </c>
       <c r="B115" t="s">
@@ -6285,7 +6285,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="11">
+      <c r="A116" s="10">
         <v>56</v>
       </c>
       <c r="B116" t="s">
@@ -6293,7 +6293,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="A117" s="10">
         <v>57</v>
       </c>
       <c r="B117" t="s">
@@ -6301,7 +6301,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+      <c r="A118" s="10">
         <v>57</v>
       </c>
       <c r="B118" t="s">
@@ -6309,7 +6309,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+      <c r="A119" s="10">
         <v>58</v>
       </c>
       <c r="B119" t="s">
@@ -6317,7 +6317,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="11">
+      <c r="A120" s="10">
         <v>58</v>
       </c>
       <c r="B120" t="s">
@@ -6325,7 +6325,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
+      <c r="A121" s="10">
         <v>59</v>
       </c>
       <c r="B121" t="s">
@@ -6333,7 +6333,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
+      <c r="A122" s="10">
         <v>60</v>
       </c>
       <c r="B122" t="s">
@@ -6341,7 +6341,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="A123" s="10">
         <v>61</v>
       </c>
       <c r="B123" t="s">
@@ -6349,7 +6349,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="11">
+      <c r="A124" s="10">
         <v>61</v>
       </c>
       <c r="B124" t="s">
@@ -6357,7 +6357,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="11">
+      <c r="A125" s="10">
         <v>61</v>
       </c>
       <c r="B125" t="s">
@@ -6365,7 +6365,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="11">
+      <c r="A126" s="10">
         <v>61</v>
       </c>
       <c r="B126" t="s">
@@ -6373,7 +6373,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="11">
+      <c r="A127" s="10">
         <v>62</v>
       </c>
       <c r="B127" t="s">
@@ -6381,7 +6381,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="11">
+      <c r="A128" s="10">
         <v>62</v>
       </c>
       <c r="B128" t="s">
@@ -6389,7 +6389,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="11">
+      <c r="A129" s="10">
         <v>62</v>
       </c>
       <c r="B129" t="s">
@@ -6397,7 +6397,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="11">
+      <c r="A130" s="10">
         <v>63</v>
       </c>
       <c r="B130" t="s">
@@ -6405,7 +6405,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="11">
+      <c r="A131" s="10">
         <v>64</v>
       </c>
       <c r="B131" t="s">
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="11">
+      <c r="A132" s="10">
         <v>64</v>
       </c>
       <c r="B132" t="s">
@@ -6421,7 +6421,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="11">
+      <c r="A133" s="10">
         <v>64</v>
       </c>
       <c r="B133" t="s">
@@ -6429,7 +6429,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="11">
+      <c r="A134" s="10">
         <v>65</v>
       </c>
       <c r="B134" t="s">
@@ -6437,7 +6437,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="11">
+      <c r="A135" s="10">
         <v>66</v>
       </c>
       <c r="B135" t="s">
@@ -6445,7 +6445,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="11">
+      <c r="A136" s="10">
         <v>67</v>
       </c>
       <c r="B136" t="s">
@@ -6453,7 +6453,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="11">
+      <c r="A137" s="10">
         <v>68</v>
       </c>
       <c r="B137" t="s">
@@ -6461,7 +6461,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="11">
+      <c r="A138" s="10">
         <v>69</v>
       </c>
       <c r="B138" t="s">
@@ -6469,7 +6469,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="11">
+      <c r="A139" s="10">
         <v>69</v>
       </c>
       <c r="B139" t="s">
@@ -6477,7 +6477,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="11">
+      <c r="A140" s="10">
         <v>69</v>
       </c>
       <c r="B140" t="s">
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="11">
+      <c r="A141" s="10">
         <v>70</v>
       </c>
       <c r="B141" t="s">
@@ -6493,7 +6493,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="11">
+      <c r="A142" s="10">
         <v>71</v>
       </c>
       <c r="B142" t="s">
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="11">
+      <c r="A143" s="10">
         <v>72</v>
       </c>
       <c r="B143" t="s">
@@ -6509,7 +6509,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="11">
+      <c r="A144" s="10">
         <v>73</v>
       </c>
       <c r="B144" t="s">
@@ -6517,7 +6517,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="11">
+      <c r="A145" s="10">
         <v>73</v>
       </c>
       <c r="B145" t="s">
@@ -6525,7 +6525,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="11">
+      <c r="A146" s="10">
         <v>73</v>
       </c>
       <c r="B146" t="s">
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="11">
+      <c r="A147" s="10">
         <v>74</v>
       </c>
       <c r="B147" t="s">
@@ -6541,7 +6541,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="11">
+      <c r="A148" s="10">
         <v>74</v>
       </c>
       <c r="B148" t="s">
@@ -6549,7 +6549,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="11">
+      <c r="A149" s="10">
         <v>75</v>
       </c>
       <c r="B149" t="s">
@@ -6557,7 +6557,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="11">
+      <c r="A150" s="10">
         <v>75</v>
       </c>
       <c r="B150" t="s">
@@ -6565,7 +6565,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="11">
+      <c r="A151" s="10">
         <v>75</v>
       </c>
       <c r="B151" t="s">
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="11">
+      <c r="A152" s="10">
         <v>76</v>
       </c>
       <c r="B152" t="s">
@@ -6581,7 +6581,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="11">
+      <c r="A153" s="10">
         <v>77</v>
       </c>
       <c r="B153" t="s">
@@ -6589,7 +6589,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="11">
+      <c r="A154" s="10">
         <v>78</v>
       </c>
       <c r="B154" t="s">
@@ -6597,7 +6597,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="11">
+      <c r="A155" s="10">
         <v>78</v>
       </c>
       <c r="B155" t="s">
@@ -6605,7 +6605,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="11">
+      <c r="A156" s="10">
         <v>78</v>
       </c>
       <c r="B156" t="s">
@@ -6613,7 +6613,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="11">
+      <c r="A157" s="10">
         <v>79</v>
       </c>
       <c r="B157" t="s">
@@ -6621,7 +6621,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="11">
+      <c r="A158" s="10">
         <v>79</v>
       </c>
       <c r="B158" t="s">
@@ -6629,7 +6629,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="11">
+      <c r="A159" s="10">
         <v>80</v>
       </c>
       <c r="B159" t="s">
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="11">
+      <c r="A160" s="10">
         <v>81</v>
       </c>
       <c r="B160" t="s">
@@ -6645,7 +6645,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="11">
+      <c r="A161" s="10">
         <v>81</v>
       </c>
       <c r="B161" t="s">
@@ -6653,7 +6653,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="11">
+      <c r="A162" s="10">
         <v>81</v>
       </c>
       <c r="B162" t="s">
@@ -6661,7 +6661,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="11">
+      <c r="A163" s="10">
         <v>82</v>
       </c>
       <c r="B163" t="s">
@@ -6669,7 +6669,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="11">
+      <c r="A164" s="10">
         <v>82</v>
       </c>
       <c r="B164" t="s">
@@ -6677,7 +6677,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="11">
+      <c r="A165" s="10">
         <v>83</v>
       </c>
       <c r="B165" t="s">
@@ -6685,7 +6685,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="11">
+      <c r="A166" s="10">
         <v>83</v>
       </c>
       <c r="B166" t="s">
@@ -6693,7 +6693,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="11">
+      <c r="A167" s="10">
         <v>84</v>
       </c>
       <c r="B167" t="s">
@@ -6701,7 +6701,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="11">
+      <c r="A168" s="10">
         <v>84</v>
       </c>
       <c r="B168" t="s">
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="11">
+      <c r="A169" s="10">
         <v>85</v>
       </c>
       <c r="B169" t="s">
@@ -6717,7 +6717,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="11">
+      <c r="A170" s="10">
         <v>86</v>
       </c>
       <c r="B170" t="s">
@@ -6725,7 +6725,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="11">
+      <c r="A171" s="10">
         <v>86</v>
       </c>
       <c r="B171" t="s">
@@ -6733,7 +6733,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="11">
+      <c r="A172" s="10">
         <v>86</v>
       </c>
       <c r="B172" t="s">
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="11">
+      <c r="A173" s="10">
         <v>87</v>
       </c>
       <c r="B173" t="s">
@@ -6749,7 +6749,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="11">
+      <c r="A174" s="10">
         <v>87</v>
       </c>
       <c r="B174" t="s">
@@ -6757,7 +6757,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="11">
+      <c r="A175" s="10">
         <v>88</v>
       </c>
       <c r="B175" t="s">
@@ -6765,7 +6765,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="11">
+      <c r="A176" s="10">
         <v>88</v>
       </c>
       <c r="B176" t="s">
@@ -6773,7 +6773,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="11">
+      <c r="A177" s="10">
         <v>88</v>
       </c>
       <c r="B177" t="s">
@@ -6781,7 +6781,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="11">
+      <c r="A178" s="10">
         <v>89</v>
       </c>
       <c r="B178" t="s">
@@ -6789,7 +6789,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="11">
+      <c r="A179" s="10">
         <v>89</v>
       </c>
       <c r="B179" t="s">
@@ -6797,7 +6797,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="11">
+      <c r="A180" s="10">
         <v>89</v>
       </c>
       <c r="B180" t="s">
@@ -6805,7 +6805,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="11">
+      <c r="A181" s="10">
         <v>90</v>
       </c>
       <c r="B181" t="s">
@@ -6813,7 +6813,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="11">
+      <c r="A182" s="10">
         <v>90</v>
       </c>
       <c r="B182" t="s">
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="11">
+      <c r="A183" s="10">
         <v>91</v>
       </c>
       <c r="B183" t="s">
@@ -6829,7 +6829,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="11">
+      <c r="A184" s="10">
         <v>92</v>
       </c>
       <c r="B184" t="s">
@@ -6837,7 +6837,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="11">
+      <c r="A185" s="10">
         <v>92</v>
       </c>
       <c r="B185" t="s">
@@ -6845,7 +6845,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="11">
+      <c r="A186" s="10">
         <v>93</v>
       </c>
       <c r="B186" t="s">
@@ -6853,7 +6853,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="11">
+      <c r="A187" s="10">
         <v>93</v>
       </c>
       <c r="B187" t="s">
@@ -6861,7 +6861,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="11">
+      <c r="A188" s="10">
         <v>94</v>
       </c>
       <c r="B188" t="s">
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="11">
+      <c r="A189" s="10">
         <v>95</v>
       </c>
       <c r="B189" t="s">
@@ -6877,7 +6877,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="11">
+      <c r="A190" s="10">
         <v>95</v>
       </c>
       <c r="B190" t="s">
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="11">
+      <c r="A191" s="10">
         <v>96</v>
       </c>
       <c r="B191" t="s">
@@ -6893,7 +6893,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="11">
+      <c r="A192" s="10">
         <v>96</v>
       </c>
       <c r="B192" t="s">
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="11">
+      <c r="A193" s="10">
         <v>97</v>
       </c>
       <c r="B193" t="s">
@@ -6909,7 +6909,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="11">
+      <c r="A194" s="10">
         <v>97</v>
       </c>
       <c r="B194" t="s">
@@ -6917,7 +6917,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="11">
+      <c r="A195" s="10">
         <v>98</v>
       </c>
       <c r="B195" t="s">
@@ -6925,7 +6925,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="11">
+      <c r="A196" s="10">
         <v>98</v>
       </c>
       <c r="B196" t="s">
@@ -6933,7 +6933,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="11">
+      <c r="A197" s="10">
         <v>98</v>
       </c>
       <c r="B197" t="s">
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="11">
+      <c r="A198" s="10">
         <v>99</v>
       </c>
       <c r="B198" t="s">
@@ -6949,7 +6949,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="11">
+      <c r="A199" s="10">
         <v>99</v>
       </c>
       <c r="B199" t="s">
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="11">
+      <c r="A200" s="10">
         <v>99</v>
       </c>
       <c r="B200" t="s">
@@ -6965,7 +6965,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="11">
+      <c r="A201" s="10">
         <v>100</v>
       </c>
       <c r="B201" t="s">
@@ -6973,7 +6973,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="11">
+      <c r="A202" s="10">
         <v>100</v>
       </c>
       <c r="B202" t="s">
@@ -6981,7 +6981,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="11">
+      <c r="A203" s="10">
         <v>101</v>
       </c>
       <c r="B203" t="s">
@@ -6989,7 +6989,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="11">
+      <c r="A204" s="10">
         <v>101</v>
       </c>
       <c r="B204" t="s">
@@ -6997,7 +6997,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="11">
+      <c r="A205" s="10">
         <v>102</v>
       </c>
       <c r="B205" t="s">
@@ -7005,7 +7005,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="11">
+      <c r="A206" s="10">
         <v>102</v>
       </c>
       <c r="B206" t="s">
@@ -7013,7 +7013,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="11">
+      <c r="A207" s="10">
         <v>103</v>
       </c>
       <c r="B207" t="s">
@@ -7021,7 +7021,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="11">
+      <c r="A208" s="10">
         <v>104</v>
       </c>
       <c r="B208" t="s">
@@ -7029,7 +7029,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="11">
+      <c r="A209" s="10">
         <v>104</v>
       </c>
       <c r="B209" t="s">
@@ -7037,7 +7037,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="11">
+      <c r="A210" s="10">
         <v>105</v>
       </c>
       <c r="B210" t="s">
@@ -7045,7 +7045,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="11">
+      <c r="A211" s="10">
         <v>105</v>
       </c>
       <c r="B211" t="s">
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="11">
+      <c r="A212" s="10">
         <v>106</v>
       </c>
       <c r="B212" t="s">
@@ -7061,7 +7061,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="11">
+      <c r="A213" s="10">
         <v>107</v>
       </c>
       <c r="B213" t="s">
@@ -7069,7 +7069,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="11">
+      <c r="A214" s="10">
         <v>107</v>
       </c>
       <c r="B214" t="s">
@@ -7077,7 +7077,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="11">
+      <c r="A215" s="10">
         <v>108</v>
       </c>
       <c r="B215" t="s">
@@ -7085,7 +7085,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="11">
+      <c r="A216" s="10">
         <v>108</v>
       </c>
       <c r="B216" t="s">
@@ -7093,7 +7093,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="11">
+      <c r="A217" s="10">
         <v>109</v>
       </c>
       <c r="B217" t="s">
@@ -7101,7 +7101,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="11">
+      <c r="A218" s="10">
         <v>109</v>
       </c>
       <c r="B218" t="s">
@@ -7109,7 +7109,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="11">
+      <c r="A219" s="10">
         <v>110</v>
       </c>
       <c r="B219" t="s">
@@ -7117,7 +7117,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="11">
+      <c r="A220" s="10">
         <v>111</v>
       </c>
       <c r="B220" t="s">
@@ -7125,7 +7125,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="11">
+      <c r="A221" s="10">
         <v>111</v>
       </c>
       <c r="B221" t="s">
@@ -7133,7 +7133,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="11">
+      <c r="A222" s="10">
         <v>112</v>
       </c>
       <c r="B222" t="s">
@@ -7141,7 +7141,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="11">
+      <c r="A223" s="10">
         <v>112</v>
       </c>
       <c r="B223" t="s">
@@ -7149,7 +7149,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="11">
+      <c r="A224" s="10">
         <v>113</v>
       </c>
       <c r="B224" t="s">
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="11">
+      <c r="A225" s="10">
         <v>113</v>
       </c>
       <c r="B225" t="s">
@@ -7165,7 +7165,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="11">
+      <c r="A226" s="10">
         <v>114</v>
       </c>
       <c r="B226" t="s">
@@ -7173,7 +7173,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="11">
+      <c r="A227" s="10">
         <v>114</v>
       </c>
       <c r="B227" t="s">
@@ -7181,7 +7181,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="11">
+      <c r="A228" s="10">
         <v>115</v>
       </c>
       <c r="B228" t="s">
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="11">
+      <c r="A229" s="10">
         <v>115</v>
       </c>
       <c r="B229" t="s">
@@ -7197,7 +7197,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="11">
+      <c r="A230" s="10">
         <v>115</v>
       </c>
       <c r="B230" t="s">
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="11">
+      <c r="A231" s="10">
         <v>116</v>
       </c>
       <c r="B231" t="s">
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="11">
+      <c r="A232" s="10">
         <v>116</v>
       </c>
       <c r="B232" t="s">
@@ -7221,7 +7221,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="11">
+      <c r="A233" s="10">
         <v>117</v>
       </c>
       <c r="B233" t="s">
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="11">
+      <c r="A234" s="10">
         <v>117</v>
       </c>
       <c r="B234" t="s">
@@ -7237,7 +7237,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="11">
+      <c r="A235" s="10">
         <v>118</v>
       </c>
       <c r="B235" t="s">
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="11">
+      <c r="A236" s="10">
         <v>118</v>
       </c>
       <c r="B236" t="s">
@@ -7253,7 +7253,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="11">
+      <c r="A237" s="10">
         <v>118</v>
       </c>
       <c r="B237" t="s">
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="11">
+      <c r="A238" s="10">
         <v>119</v>
       </c>
       <c r="B238" t="s">
@@ -7269,7 +7269,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="11">
+      <c r="A239" s="10">
         <v>119</v>
       </c>
       <c r="B239" t="s">
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="11">
+      <c r="A240" s="10">
         <v>120</v>
       </c>
       <c r="B240" t="s">
@@ -7285,7 +7285,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="11">
+      <c r="A241" s="10">
         <v>120</v>
       </c>
       <c r="B241" t="s">
@@ -7293,7 +7293,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="11">
+      <c r="A242" s="10">
         <v>121</v>
       </c>
       <c r="B242" t="s">
@@ -7301,7 +7301,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="11">
+      <c r="A243" s="10">
         <v>121</v>
       </c>
       <c r="B243" t="s">
@@ -7323,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7361,7 @@
       <c r="G1" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>559</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -7381,10 +7381,10 @@
       <c r="C2" t="s">
         <v>558</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="13">
         <v>44897</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="13">
         <v>44899</v>
       </c>
       <c r="F2" t="s">
@@ -7399,7 +7399,9 @@
       <c r="I2" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
       <c r="K2" s="8" t="s">
         <v>91</v>
       </c>
@@ -7411,10 +7413,10 @@
       <c r="C3" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="13">
         <v>44898</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="13">
         <v>44899</v>
       </c>
       <c r="F3" t="s">
@@ -7423,13 +7425,15 @@
       <c r="G3" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>561</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
       <c r="K3" s="8" t="s">
         <v>50</v>
       </c>
@@ -7441,10 +7445,10 @@
       <c r="C4" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="13">
         <v>44898</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="13">
         <v>44905</v>
       </c>
       <c r="F4" t="s">
@@ -7453,13 +7457,15 @@
       <c r="G4" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>573</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
       <c r="K4" s="8" t="s">
         <v>63</v>
       </c>
@@ -7471,10 +7477,10 @@
       <c r="C5" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="13">
         <v>44898</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="13">
         <v>44899</v>
       </c>
       <c r="F5" t="s">
@@ -7483,13 +7489,15 @@
       <c r="G5" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>574</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
       <c r="K5" s="8" t="s">
         <v>126</v>
       </c>
@@ -7501,10 +7509,10 @@
       <c r="C6" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="13">
         <v>44903</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="13">
         <v>44904</v>
       </c>
       <c r="F6" t="s">
@@ -7519,8 +7527,10 @@
       <c r="I6" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7531,10 +7541,10 @@
       <c r="C7" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="13">
         <v>44904</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="13">
         <v>44906</v>
       </c>
       <c r="F7" t="s">
@@ -7543,13 +7553,15 @@
       <c r="G7" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>575</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
       <c r="K7" s="8" t="s">
         <v>90</v>
       </c>
@@ -7561,10 +7573,10 @@
       <c r="C8" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="13">
         <v>44904</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="13">
         <v>44906</v>
       </c>
       <c r="F8" t="s">
@@ -7579,7 +7591,9 @@
       <c r="I8" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
       <c r="K8" s="8" t="s">
         <v>125</v>
       </c>
@@ -7591,10 +7605,10 @@
       <c r="C9" t="s">
         <v>474</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="13">
         <v>44905</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>183</v>
       </c>
       <c r="F9" t="s">
@@ -7609,7 +7623,9 @@
       <c r="I9" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>92</v>
       </c>
@@ -7621,10 +7637,10 @@
       <c r="C10" t="s">
         <v>473</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="13">
         <v>44905</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>184</v>
       </c>
       <c r="F10" t="s">
@@ -7639,7 +7655,9 @@
       <c r="I10" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
       <c r="K10" s="8" t="s">
         <v>93</v>
       </c>
@@ -7651,10 +7669,10 @@
       <c r="C11" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>44905</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="13">
         <v>44905</v>
       </c>
       <c r="F11" t="s">
@@ -7669,8 +7687,10 @@
       <c r="I11" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7681,10 +7701,10 @@
       <c r="C12" t="s">
         <v>472</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>44911</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="13">
         <v>44913</v>
       </c>
       <c r="F12" t="s">
@@ -7699,7 +7719,9 @@
       <c r="I12" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
       <c r="K12" s="8" t="s">
         <v>94</v>
       </c>
@@ -7711,10 +7733,10 @@
       <c r="C13" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="13">
         <v>44912</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="13">
         <v>44913</v>
       </c>
       <c r="F13" t="s">
@@ -7729,7 +7751,9 @@
       <c r="I13" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
       <c r="K13" s="8" t="s">
         <v>109</v>
       </c>
@@ -7741,10 +7765,10 @@
       <c r="C14" t="s">
         <v>471</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="13">
         <v>44918</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="13" t="s">
         <v>204</v>
       </c>
       <c r="F14" t="s">
@@ -7759,7 +7783,9 @@
       <c r="I14" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
       <c r="K14" s="8" t="s">
         <v>74</v>
       </c>
@@ -7771,10 +7797,10 @@
       <c r="C15" t="s">
         <v>470</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="13">
         <v>44918</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="13">
         <v>44920</v>
       </c>
       <c r="F15" t="s">
@@ -7789,8 +7815,10 @@
       <c r="I15" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="10" t="s">
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7801,10 +7829,10 @@
       <c r="C16" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="13">
         <v>44919</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="13">
         <v>44920</v>
       </c>
       <c r="F16" t="s">
@@ -7819,8 +7847,10 @@
       <c r="I16" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="10" t="s">
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7831,10 +7861,10 @@
       <c r="C17" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="13">
         <v>44919</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="13">
         <v>44919</v>
       </c>
       <c r="F17" t="s">
@@ -7849,7 +7879,9 @@
       <c r="I17" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
       <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
@@ -7861,10 +7893,10 @@
       <c r="C18" t="s">
         <v>469</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="13">
         <v>44919</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="13">
         <v>44920</v>
       </c>
       <c r="F18" t="s">
@@ -7879,7 +7911,9 @@
       <c r="I18" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
       <c r="K18" s="8" t="s">
         <v>68</v>
       </c>
@@ -7891,10 +7925,10 @@
       <c r="C19" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="13">
         <v>44919</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="13">
         <v>44920</v>
       </c>
       <c r="F19" t="s">
@@ -7909,8 +7943,10 @@
       <c r="I19" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="10" t="s">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7921,10 +7957,10 @@
       <c r="C20" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="13">
         <v>44919</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="13">
         <v>44920</v>
       </c>
       <c r="F20" t="s">
@@ -7939,7 +7975,9 @@
       <c r="I20" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
       <c r="K20" s="8" t="s">
         <v>124</v>
       </c>
@@ -7951,10 +7989,10 @@
       <c r="C21" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="13">
         <v>44924</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="13">
         <v>44925</v>
       </c>
       <c r="F21" t="s">
@@ -7969,7 +8007,9 @@
       <c r="I21" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
       <c r="K21" s="8" t="s">
         <v>56</v>
       </c>
@@ -7981,10 +8021,10 @@
       <c r="C22" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="13">
         <v>44925</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="13">
         <v>44927</v>
       </c>
       <c r="F22" t="s">
@@ -7999,7 +8039,9 @@
       <c r="I22" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
       <c r="K22" s="8" t="s">
         <v>61</v>
       </c>
@@ -8011,10 +8053,10 @@
       <c r="C23" t="s">
         <v>467</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="13">
         <v>44925</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="13">
         <v>44926</v>
       </c>
       <c r="F23" t="s">
@@ -8029,7 +8071,9 @@
       <c r="I23" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
       <c r="K23" s="8" t="s">
         <v>95</v>
       </c>
@@ -8041,10 +8085,10 @@
       <c r="C24" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="13">
         <v>44925</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="13">
         <v>44926</v>
       </c>
       <c r="F24" t="s">
@@ -8059,8 +8103,10 @@
       <c r="I24" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="10" t="s">
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8071,10 +8117,10 @@
       <c r="C25" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="13">
         <v>44925</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="13">
         <v>44926</v>
       </c>
       <c r="F25" t="s">
@@ -8089,8 +8135,10 @@
       <c r="I25" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="10" t="s">
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8101,10 +8149,10 @@
       <c r="C26" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="13">
         <v>44926</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="13">
         <v>44926</v>
       </c>
       <c r="F26" t="s">
@@ -8119,8 +8167,10 @@
       <c r="I26" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8131,10 +8181,10 @@
       <c r="C27" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="13">
         <v>44975</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="13">
         <v>44975</v>
       </c>
       <c r="F27" t="s">
@@ -8149,8 +8199,10 @@
       <c r="I27" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="10" t="s">
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8161,10 +8213,10 @@
       <c r="C28" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="13">
         <v>45005</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="13">
         <v>45005</v>
       </c>
       <c r="F28" t="s">
@@ -8179,7 +8231,9 @@
       <c r="I28" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
       <c r="K28" s="8" t="s">
         <v>47</v>
       </c>
@@ -8191,10 +8245,10 @@
       <c r="C29" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="13" t="s">
         <v>184</v>
       </c>
       <c r="F29" t="s">
@@ -8209,7 +8263,9 @@
       <c r="I29" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
       <c r="K29" s="8" t="s">
         <v>265</v>
       </c>
@@ -8221,10 +8277,10 @@
       <c r="C30" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="13" t="s">
         <v>189</v>
       </c>
       <c r="F30" t="s">
@@ -8239,7 +8295,9 @@
       <c r="I30" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
       <c r="K30" s="8" t="s">
         <v>166</v>
       </c>
@@ -8251,10 +8309,10 @@
       <c r="C31" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>196</v>
       </c>
       <c r="F31" t="s">
@@ -8263,13 +8321,15 @@
       <c r="G31" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>605</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
       <c r="K31" s="8" t="s">
         <v>171</v>
       </c>
@@ -8281,10 +8341,10 @@
       <c r="C32" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="13" t="s">
         <v>182</v>
       </c>
       <c r="F32" t="s">
@@ -8299,7 +8359,9 @@
       <c r="I32" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
       <c r="K32" s="8" t="s">
         <v>164</v>
       </c>
@@ -8311,10 +8373,10 @@
       <c r="C33" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="13" t="s">
         <v>241</v>
       </c>
       <c r="F33" t="s">
@@ -8329,7 +8391,9 @@
       <c r="I33" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
       <c r="K33" s="8" t="s">
         <v>240</v>
       </c>
@@ -8341,10 +8405,10 @@
       <c r="C34" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="13" t="s">
         <v>184</v>
       </c>
       <c r="F34" t="s">
@@ -8359,7 +8423,9 @@
       <c r="I34" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
       <c r="K34" s="8" t="s">
         <v>165</v>
       </c>
@@ -8371,10 +8437,10 @@
       <c r="C35" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="13" t="s">
         <v>184</v>
       </c>
       <c r="F35" t="s">
@@ -8389,7 +8455,9 @@
       <c r="I35" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
       <c r="K35" s="8" t="s">
         <v>170</v>
       </c>
@@ -8401,10 +8469,10 @@
       <c r="C36" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="13" t="s">
         <v>189</v>
       </c>
       <c r="F36" t="s">
@@ -8419,7 +8487,9 @@
       <c r="I36" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
       <c r="K36" s="8" t="s">
         <v>169</v>
       </c>
@@ -8431,10 +8501,10 @@
       <c r="C37" t="s">
         <v>232</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="13">
         <v>44920</v>
       </c>
       <c r="F37" t="s">
@@ -8449,7 +8519,9 @@
       <c r="I37" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
       <c r="K37" s="8" t="s">
         <v>53</v>
       </c>
@@ -8461,10 +8533,10 @@
       <c r="C38" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="13" t="s">
         <v>186</v>
       </c>
       <c r="F38" t="s">
@@ -8479,7 +8551,9 @@
       <c r="I38" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
       <c r="K38" s="8" t="s">
         <v>106</v>
       </c>
@@ -8491,10 +8565,10 @@
       <c r="C39" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="13" t="s">
         <v>193</v>
       </c>
       <c r="F39" t="s">
@@ -8509,7 +8583,9 @@
       <c r="I39" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
       <c r="K39" s="8" t="s">
         <v>168</v>
       </c>
@@ -8521,10 +8597,10 @@
       <c r="C40" t="s">
         <v>466</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="13" t="s">
         <v>462</v>
       </c>
       <c r="F40" t="s">
@@ -8539,7 +8615,9 @@
       <c r="I40" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
       <c r="K40" s="8" t="s">
         <v>464</v>
       </c>
@@ -8551,10 +8629,10 @@
       <c r="C41" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="13" t="s">
         <v>191</v>
       </c>
       <c r="F41" t="s">
@@ -8569,7 +8647,9 @@
       <c r="I41" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
       <c r="K41" s="8" t="s">
         <v>167</v>
       </c>
@@ -8607,794 +8687,794 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>14</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>14</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>14</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>15</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>15</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>15</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>15</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>15</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>15</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>15</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>15</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>15</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>15</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>15</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>15</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>15</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>15</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>15</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>15</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>15</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>16</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>17</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>18</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>18</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>19</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>20</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>21</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>22</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>23</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>23</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>23</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>23</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>23</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>23</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <v>23</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>23</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>23</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>23</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <v>24</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <v>24</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>24</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>24</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <v>24</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <v>24</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>24</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>24</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <v>24</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <v>24</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <v>24</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>25</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <v>25</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <v>26</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <v>26</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>26</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <v>26</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <v>26</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <v>26</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <v>26</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <v>26</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <v>26</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <v>26</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <v>26</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>26</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <v>27</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <v>28</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>29</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <v>30</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <v>31</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="10">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>32</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>33</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>34</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <v>35</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <v>36</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>37</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98" s="10">
         <v>38</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99" s="10">
         <v>39</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <v>40</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="10">
         <v>5</v>
       </c>
     </row>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE75305-8461-47FD-987F-A904EB2D1A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44582E5-D4C4-4C2D-8645-D43AD9B4017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="1920" windowWidth="40170" windowHeight="13800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -31,20 +31,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="605">
   <si>
     <t xml:space="preserve"> 유저이름</t>
   </si>
@@ -717,70 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.12.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	2022.12.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	2022.12.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023.01.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코엑스 신한카드 아티움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,13 +731,6 @@
   <si>
     <t xml:space="preserve">	KBS아레나 (구88체육관)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2022.12.25</t>
   </si>
   <si>
     <t>김동현
@@ -978,10 +899,6 @@
   </si>
   <si>
     <t>장윤정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1818,10 +1735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.12.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">	경희대학교 국제캠퍼스 선승관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2415,6 +2328,65 @@
   <si>
     <t>https://tickets.interpark.com/goods/22016390</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2022-12-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2022-12-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2022-12-17</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-24</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2023-01-14</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2492,11 +2464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2800,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2815,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3104,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -3142,15 +3112,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>114</v>
@@ -3158,7 +3128,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -3166,7 +3136,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
@@ -3174,47 +3144,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -3222,15 +3192,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
@@ -3280,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3288,16 +3258,16 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E2">
         <v>1958</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3305,16 +3275,16 @@
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E3">
         <v>1970</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3322,10 +3292,10 @@
         <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E4">
         <v>1973</v>
@@ -3339,27 +3309,27 @@
         <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E5">
         <v>1975</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="E6">
         <v>1975</v>
@@ -3370,19 +3340,19 @@
     </row>
     <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E7">
         <v>1977</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3390,33 +3360,33 @@
         <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E8">
         <v>1978</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D9" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="E9">
         <v>1978</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
@@ -3424,50 +3394,50 @@
         <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E10">
         <v>1984</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="E11">
         <v>1984</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="E12">
         <v>1986</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3475,16 +3445,16 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>1988</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3492,16 +3462,16 @@
         <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E14">
         <v>1991</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3509,16 +3479,16 @@
         <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="E15">
         <v>1991</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3526,10 +3496,10 @@
         <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E16">
         <v>1993</v>
@@ -3540,13 +3510,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D17" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="E17">
         <v>1993</v>
@@ -3560,50 +3530,50 @@
         <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="E18">
         <v>1994</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E19">
         <v>1994</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E20">
         <v>1995</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -3611,10 +3581,10 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D21" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E21">
         <v>1996</v>
@@ -3625,36 +3595,36 @@
     </row>
     <row r="22" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D22" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E22">
         <v>1996</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E23">
         <v>1997</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
@@ -3662,33 +3632,33 @@
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E24">
         <v>1997</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E25">
         <v>1997</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -3696,16 +3666,16 @@
         <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="E26">
         <v>1998</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -3713,16 +3683,16 @@
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E27">
         <v>1998</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -3730,10 +3700,10 @@
         <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D28" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="E28">
         <v>1998</v>
@@ -3744,19 +3714,19 @@
     </row>
     <row r="29" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="E29">
         <v>1998</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -3764,10 +3734,10 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E30">
         <v>1999</v>
@@ -3781,10 +3751,10 @@
         <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E31">
         <v>1999</v>
@@ -3798,78 +3768,78 @@
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E32">
         <v>1999</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D33" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E33">
         <v>1999</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C34" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D34" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E34">
         <v>1999</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C35" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D36" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="E36">
         <v>2001</v>
@@ -3880,19 +3850,19 @@
     </row>
     <row r="37" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D37" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="E37">
         <v>2001</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -3900,10 +3870,10 @@
         <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D38" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="E38">
         <v>2002</v>
@@ -3917,16 +3887,16 @@
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D39" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E39">
         <v>2002</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -3934,10 +3904,10 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D40" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="E40">
         <v>2002</v>
@@ -3948,30 +3918,30 @@
     </row>
     <row r="41" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D41" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E41">
         <v>2003</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D42" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E42">
         <v>2003</v>
@@ -3985,16 +3955,16 @@
         <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D43" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E43">
         <v>2004</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -4002,16 +3972,16 @@
         <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D44" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="E44">
         <v>2004</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -4019,84 +3989,84 @@
         <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E45">
         <v>2004</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D46" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E46">
         <v>2004</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C47" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D47" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E47">
         <v>2004</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C48" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E48">
         <v>2004</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D49" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="E49">
         <v>2004</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -4104,44 +4074,44 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D50" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D52" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E52">
         <v>2005</v>
@@ -4152,47 +4122,47 @@
     </row>
     <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D53" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E53">
         <v>2005</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D54" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="E54">
         <v>2005</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C55" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D55" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E55">
         <v>2006</v>
@@ -4203,70 +4173,70 @@
     </row>
     <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D56" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="E56">
         <v>2006</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C57" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D57" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="E57">
         <v>2007</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D58" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C59" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D59" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
@@ -4274,10 +4244,10 @@
         <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="E60">
         <v>2009</v>
@@ -4288,13 +4258,13 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D61" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E61">
         <v>2009</v>
@@ -4308,16 +4278,16 @@
         <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D62" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="E62">
         <v>2010</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -4325,16 +4295,16 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D63" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="E63">
         <v>2010</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
@@ -4342,10 +4312,10 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D64" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E64">
         <v>2010</v>
@@ -4356,30 +4326,30 @@
     </row>
     <row r="65" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D65" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E65">
         <v>2010</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C66" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D66" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E66">
         <v>2010</v>
@@ -4390,13 +4360,13 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E67">
         <v>2010</v>
@@ -4407,13 +4377,13 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D68" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E68">
         <v>2010</v>
@@ -4424,13 +4394,13 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D69" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="E69">
         <v>2010</v>
@@ -4441,30 +4411,30 @@
     </row>
     <row r="70" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D70" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="E70">
         <v>2011</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E71">
         <v>2011</v>
@@ -4478,10 +4448,10 @@
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E72">
         <v>2012</v>
@@ -4495,10 +4465,10 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E73">
         <v>2012</v>
@@ -4512,61 +4482,61 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D74" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E75">
         <v>2012</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C76" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D76" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E76">
         <v>2012</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D77" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="E77">
         <v>2012</v>
@@ -4580,10 +4550,10 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E78">
         <v>2013</v>
@@ -4594,36 +4564,36 @@
     </row>
     <row r="79" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D79" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="E79">
         <v>2013</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D80" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="E80">
         <v>2013</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
@@ -4631,10 +4601,10 @@
         <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="E81">
         <v>2014</v>
@@ -4645,81 +4615,81 @@
     </row>
     <row r="82" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D82" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C83" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E83">
         <v>2014</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C84" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D84" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="E84">
         <v>2014</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C85" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D85" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="E85">
         <v>2014</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D86" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E86">
         <v>2015</v>
@@ -4730,98 +4700,98 @@
     </row>
     <row r="87" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D87" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D88" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D89" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D90" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C91" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D91" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E92">
         <v>2016</v>
@@ -4832,36 +4802,36 @@
     </row>
     <row r="93" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D94" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
@@ -4869,10 +4839,10 @@
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="E95">
         <v>2017</v>
@@ -4883,70 +4853,70 @@
     </row>
     <row r="96" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D96" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E96">
         <v>2017</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C98" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -4954,78 +4924,78 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D100" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D101" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="E101">
         <v>2018</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C102" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E102">
         <v>2018</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C103" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E103">
         <v>2018</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E104">
         <v>2018</v>
@@ -5036,47 +5006,47 @@
     </row>
     <row r="105" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C105" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E105">
         <v>2018</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C107" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D107" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E107">
         <v>2018</v>
@@ -5087,64 +5057,64 @@
     </row>
     <row r="108" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="E108">
         <v>2018</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D109" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="E109">
         <v>2018</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C110" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D110" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="E110">
         <v>2018</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D111" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="E111">
         <v>2019</v>
@@ -5155,104 +5125,104 @@
     </row>
     <row r="112" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E112">
         <v>2019</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E113">
         <v>2019</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C114" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E114">
         <v>2019</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C115" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D115" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="E115">
         <v>2019</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="E116">
         <v>2019</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D117" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="E117">
         <v>2019</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -5260,84 +5230,84 @@
         <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D118" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E118">
         <v>2020</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C119" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D119" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="E119">
         <v>2020</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D120" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E120">
         <v>2020</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D121" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E121">
         <v>2020</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D122" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E122">
         <v>2021</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5366,1946 +5336,1946 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="A38">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39">
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40">
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41">
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42">
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43">
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44">
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45">
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46">
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47">
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="A48">
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="A49">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+      <c r="A50">
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="A51">
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+      <c r="A52">
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="A53">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="A54">
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="A55">
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
+      <c r="A56">
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="A57">
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
+      <c r="A58">
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="A59">
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
+      <c r="A60">
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+      <c r="A61">
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+      <c r="A62">
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="A63">
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="10">
+      <c r="A64">
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65">
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
+      <c r="A66">
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
+      <c r="A67">
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
+      <c r="A68">
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
+      <c r="A69">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
+      <c r="A70">
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
+      <c r="A71">
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
+      <c r="A72">
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+      <c r="A73">
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="10">
+      <c r="A74">
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
+      <c r="A75">
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="10">
+      <c r="A76">
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+      <c r="A77">
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+      <c r="A78">
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
+      <c r="A79">
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
+      <c r="A80">
         <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81">
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
+      <c r="A82">
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+      <c r="A83">
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="10">
+      <c r="A84">
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
+      <c r="A85">
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
+      <c r="A86">
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="10">
+      <c r="A87">
         <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="10">
+      <c r="A88">
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89">
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
+      <c r="A90">
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91">
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="10">
+      <c r="A92">
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="10">
+      <c r="A93">
         <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
+      <c r="A94">
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95">
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="10">
+      <c r="A96">
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
+      <c r="A97">
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="10">
+      <c r="A98">
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
+      <c r="A99">
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="10">
+      <c r="A100">
         <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="10">
+      <c r="A101">
         <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
+      <c r="A102">
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
+      <c r="A103">
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="10">
+      <c r="A104">
         <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="10">
+      <c r="A105">
         <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="10">
+      <c r="A106">
         <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="10">
+      <c r="A107">
         <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
+      <c r="A108">
         <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="10">
+      <c r="A109">
         <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
+      <c r="A110">
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="10">
+      <c r="A111">
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="10">
+      <c r="A112">
         <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="10">
+      <c r="A113">
         <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
+      <c r="A114">
         <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="10">
+      <c r="A115">
         <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="10">
+      <c r="A116">
         <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="10">
+      <c r="A117">
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="10">
+      <c r="A118">
         <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="10">
+      <c r="A119">
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="10">
+      <c r="A120">
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="10">
+      <c r="A121">
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="10">
+      <c r="A122">
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="10">
+      <c r="A123">
         <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="10">
+      <c r="A124">
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="10">
+      <c r="A125">
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
+      <c r="A126">
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="10">
+      <c r="A127">
         <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="10">
+      <c r="A128">
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="10">
+      <c r="A129">
         <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="10">
+      <c r="A130">
         <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="10">
+      <c r="A131">
         <v>64</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="10">
+      <c r="A132">
         <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="10">
+      <c r="A133">
         <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="10">
+      <c r="A134">
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="10">
+      <c r="A135">
         <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="10">
+      <c r="A136">
         <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="10">
+      <c r="A137">
         <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="10">
+      <c r="A138">
         <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="10">
+      <c r="A139">
         <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="10">
+      <c r="A140">
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="10">
+      <c r="A141">
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="10">
+      <c r="A142">
         <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="10">
+      <c r="A143">
         <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="10">
+      <c r="A144">
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="10">
+      <c r="A145">
         <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="10">
+      <c r="A146">
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="10">
+      <c r="A147">
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="10">
+      <c r="A148">
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="10">
+      <c r="A149">
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="10">
+      <c r="A150">
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="10">
+      <c r="A151">
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="10">
+      <c r="A152">
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="10">
+      <c r="A153">
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="10">
+      <c r="A154">
         <v>78</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="10">
+      <c r="A155">
         <v>78</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="10">
+      <c r="A156">
         <v>78</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="10">
+      <c r="A157">
         <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="10">
+      <c r="A158">
         <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="10">
+      <c r="A159">
         <v>80</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="10">
+      <c r="A160">
         <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="10">
+      <c r="A161">
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="10">
+      <c r="A162">
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="10">
+      <c r="A163">
         <v>82</v>
       </c>
       <c r="B163" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="10">
+      <c r="A164">
         <v>82</v>
       </c>
       <c r="B164" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="10">
+      <c r="A165">
         <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="10">
+      <c r="A166">
         <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="10">
+      <c r="A167">
         <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="10">
+      <c r="A168">
         <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="10">
+      <c r="A169">
         <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="10">
+      <c r="A170">
         <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="10">
+      <c r="A171">
         <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="10">
+      <c r="A172">
         <v>86</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="10">
+      <c r="A173">
         <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="10">
+      <c r="A174">
         <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="10">
+      <c r="A175">
         <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="10">
+      <c r="A176">
         <v>88</v>
       </c>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="10">
+      <c r="A177">
         <v>88</v>
       </c>
       <c r="B177" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="10">
+      <c r="A178">
         <v>89</v>
       </c>
       <c r="B178" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="10">
+      <c r="A179">
         <v>89</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="10">
+      <c r="A180">
         <v>89</v>
       </c>
       <c r="B180" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="10">
+      <c r="A181">
         <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="10">
+      <c r="A182">
         <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="10">
+      <c r="A183">
         <v>91</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="10">
+      <c r="A184">
         <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="10">
+      <c r="A185">
         <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="10">
+      <c r="A186">
         <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="10">
+      <c r="A187">
         <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="10">
+      <c r="A188">
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="10">
+      <c r="A189">
         <v>95</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="10">
+      <c r="A190">
         <v>95</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="10">
+      <c r="A191">
         <v>96</v>
       </c>
       <c r="B191" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="10">
+      <c r="A192">
         <v>96</v>
       </c>
       <c r="B192" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="10">
+      <c r="A193">
         <v>97</v>
       </c>
       <c r="B193" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="10">
+      <c r="A194">
         <v>97</v>
       </c>
       <c r="B194" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="10">
+      <c r="A195">
         <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="10">
+      <c r="A196">
         <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="10">
+      <c r="A197">
         <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="10">
+      <c r="A198">
         <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="10">
+      <c r="A199">
         <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="10">
+      <c r="A200">
         <v>99</v>
       </c>
       <c r="B200" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="10">
+      <c r="A201">
         <v>100</v>
       </c>
       <c r="B201" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="10">
+      <c r="A202">
         <v>100</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="10">
+      <c r="A203">
         <v>101</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="10">
+      <c r="A204">
         <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="10">
+      <c r="A205">
         <v>102</v>
       </c>
       <c r="B205" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="10">
+      <c r="A206">
         <v>102</v>
       </c>
       <c r="B206" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="10">
+      <c r="A207">
         <v>103</v>
       </c>
       <c r="B207" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="10">
+      <c r="A208">
         <v>104</v>
       </c>
       <c r="B208" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="10">
+      <c r="A209">
         <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="10">
+      <c r="A210">
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="10">
+      <c r="A211">
         <v>105</v>
       </c>
       <c r="B211" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="10">
+      <c r="A212">
         <v>106</v>
       </c>
       <c r="B212" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="10">
+      <c r="A213">
         <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="10">
+      <c r="A214">
         <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="10">
+      <c r="A215">
         <v>108</v>
       </c>
       <c r="B215" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="10">
+      <c r="A216">
         <v>108</v>
       </c>
       <c r="B216" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="10">
+      <c r="A217">
         <v>109</v>
       </c>
       <c r="B217" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="10">
+      <c r="A218">
         <v>109</v>
       </c>
       <c r="B218" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="10">
+      <c r="A219">
         <v>110</v>
       </c>
       <c r="B219" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="10">
+      <c r="A220">
         <v>111</v>
       </c>
       <c r="B220" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="10">
+      <c r="A221">
         <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="10">
+      <c r="A222">
         <v>112</v>
       </c>
       <c r="B222" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="10">
+      <c r="A223">
         <v>112</v>
       </c>
       <c r="B223" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="10">
+      <c r="A224">
         <v>113</v>
       </c>
       <c r="B224" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="10">
+      <c r="A225">
         <v>113</v>
       </c>
       <c r="B225" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="10">
+      <c r="A226">
         <v>114</v>
       </c>
       <c r="B226" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="10">
+      <c r="A227">
         <v>114</v>
       </c>
       <c r="B227" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="10">
+      <c r="A228">
         <v>115</v>
       </c>
       <c r="B228" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="10">
+      <c r="A229">
         <v>115</v>
       </c>
       <c r="B229" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="10">
+      <c r="A230">
         <v>115</v>
       </c>
       <c r="B230" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="10">
+      <c r="A231">
         <v>116</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="10">
+      <c r="A232">
         <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="10">
+      <c r="A233">
         <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="10">
+      <c r="A234">
         <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="10">
+      <c r="A235">
         <v>118</v>
       </c>
       <c r="B235" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="10">
+      <c r="A236">
         <v>118</v>
       </c>
       <c r="B236" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="10">
+      <c r="A237">
         <v>118</v>
       </c>
       <c r="B237" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="10">
+      <c r="A238">
         <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="10">
+      <c r="A239">
         <v>119</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="10">
+      <c r="A240">
         <v>120</v>
       </c>
       <c r="B240" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="10">
+      <c r="A241">
         <v>120</v>
       </c>
       <c r="B241" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="10">
+      <c r="A242">
         <v>121</v>
       </c>
       <c r="B242" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="10">
+      <c r="A243">
         <v>121</v>
       </c>
       <c r="B243" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7323,8 +7293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7341,37 +7311,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>559</v>
+        <v>525</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -7379,25 +7349,25 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="13">
+        <v>538</v>
+      </c>
+      <c r="D2" s="11">
         <v>44897</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>44899</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
@@ -7411,25 +7381,25 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="13">
+        <v>213</v>
+      </c>
+      <c r="D3" s="11">
         <v>44898</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>44899</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>561</v>
+        <v>527</v>
+      </c>
+      <c r="H3" t="s">
+        <v>541</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -7443,25 +7413,25 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="13">
+        <v>218</v>
+      </c>
+      <c r="D4" s="11">
         <v>44898</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>44905</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>573</v>
+        <v>527</v>
+      </c>
+      <c r="H4" t="s">
+        <v>553</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -7472,28 +7442,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="13">
+        <v>204</v>
+      </c>
+      <c r="D5" s="11">
         <v>44898</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>44899</v>
       </c>
       <c r="F5" t="s">
         <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>574</v>
+        <v>528</v>
+      </c>
+      <c r="H5" t="s">
+        <v>554</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -7507,31 +7477,31 @@
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="13">
+        <v>198</v>
+      </c>
+      <c r="D6" s="11">
         <v>44903</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>44904</v>
       </c>
       <c r="F6" t="s">
         <v>130</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7539,25 +7509,25 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" s="13">
+        <v>455</v>
+      </c>
+      <c r="D7" s="11">
         <v>44904</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>44906</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>575</v>
+        <v>526</v>
+      </c>
+      <c r="H7" t="s">
+        <v>555</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -7571,25 +7541,25 @@
         <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="13">
+        <v>196</v>
+      </c>
+      <c r="D8" s="11">
         <v>44904</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>44906</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -7603,25 +7573,25 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D9" s="13">
+        <v>454</v>
+      </c>
+      <c r="D9" s="11">
         <v>44905</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>183</v>
+      <c r="E9" s="11">
+        <v>44905</v>
       </c>
       <c r="F9" t="s">
         <v>98</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -7635,25 +7605,25 @@
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
-      </c>
-      <c r="D10" s="13">
+        <v>453</v>
+      </c>
+      <c r="D10" s="11">
         <v>44905</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>184</v>
+      <c r="E10" s="11">
+        <v>44906</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -7667,31 +7637,31 @@
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="13">
+        <v>201</v>
+      </c>
+      <c r="D11" s="11">
         <v>44905</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>44905</v>
       </c>
       <c r="F11" t="s">
         <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>567</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7699,25 +7669,25 @@
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D12" s="13">
+        <v>452</v>
+      </c>
+      <c r="D12" s="11">
         <v>44911</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>44913</v>
       </c>
       <c r="F12" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
@@ -7731,25 +7701,25 @@
         <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="13">
+        <v>197</v>
+      </c>
+      <c r="D13" s="11">
         <v>44912</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>44913</v>
       </c>
       <c r="F13" t="s">
         <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -7763,25 +7733,25 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>471</v>
-      </c>
-      <c r="D14" s="13">
+        <v>451</v>
+      </c>
+      <c r="D14" s="11">
         <v>44918</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>204</v>
+      <c r="E14" s="11">
+        <v>44920</v>
       </c>
       <c r="F14" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
@@ -7795,31 +7765,31 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" s="13">
+        <v>450</v>
+      </c>
+      <c r="D15" s="11">
         <v>44918</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>44920</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="363" x14ac:dyDescent="0.3">
@@ -7827,31 +7797,31 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="13">
+        <v>215</v>
+      </c>
+      <c r="D16" s="11">
         <v>44919</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>44920</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
@@ -7859,25 +7829,25 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="13">
+        <v>219</v>
+      </c>
+      <c r="D17" s="11">
         <v>44919</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>44919</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -7891,25 +7861,25 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>469</v>
-      </c>
-      <c r="D18" s="13">
+        <v>449</v>
+      </c>
+      <c r="D18" s="11">
         <v>44919</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>44920</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -7923,31 +7893,31 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D19" s="13">
+        <v>448</v>
+      </c>
+      <c r="D19" s="11">
         <v>44919</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>44920</v>
       </c>
       <c r="F19" t="s">
         <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -7955,25 +7925,25 @@
         <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="13">
+        <v>195</v>
+      </c>
+      <c r="D20" s="11">
         <v>44919</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>44920</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -7987,25 +7957,25 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
-      </c>
-      <c r="D21" s="13">
+        <v>341</v>
+      </c>
+      <c r="D21" s="11">
         <v>44924</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>44925</v>
       </c>
       <c r="F21" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -8019,25 +7989,25 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="13">
+        <v>216</v>
+      </c>
+      <c r="D22" s="11">
         <v>44925</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>44927</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -8051,25 +8021,25 @@
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>467</v>
-      </c>
-      <c r="D23" s="13">
+        <v>447</v>
+      </c>
+      <c r="D23" s="11">
         <v>44925</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>44926</v>
       </c>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -8083,31 +8053,31 @@
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="13">
+        <v>199</v>
+      </c>
+      <c r="D24" s="11">
         <v>44925</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>44926</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="J24" s="7">
         <v>0</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="231" x14ac:dyDescent="0.3">
@@ -8115,31 +8085,31 @@
         <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="13">
+        <v>203</v>
+      </c>
+      <c r="D25" s="11">
         <v>44925</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>44926</v>
       </c>
       <c r="F25" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -8147,63 +8117,63 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="13">
+        <v>202</v>
+      </c>
+      <c r="D26" s="11">
         <v>44926</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>44926</v>
       </c>
       <c r="F26" t="s">
         <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="13">
+        <v>200</v>
+      </c>
+      <c r="D27" s="11">
         <v>44975</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <v>44975</v>
       </c>
       <c r="F27" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
@@ -8211,25 +8181,25 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="13">
+        <v>212</v>
+      </c>
+      <c r="D28" s="11">
         <v>45005</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <v>45005</v>
       </c>
       <c r="F28" t="s">
         <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -8245,29 +8215,29 @@
       <c r="C29" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>184</v>
+      <c r="D29" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E29" s="11">
+        <v>44906</v>
       </c>
       <c r="F29" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J29" s="7">
         <v>0</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
@@ -8277,23 +8247,23 @@
       <c r="C30" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>189</v>
+      <c r="D30" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E30" s="11">
+        <v>44913</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J30" s="7">
         <v>0</v>
@@ -8304,28 +8274,28 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="C31" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>196</v>
+      <c r="D31" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>589</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>605</v>
+        <v>526</v>
+      </c>
+      <c r="H31" t="s">
+        <v>585</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="J31" s="7">
         <v>0</v>
@@ -8341,23 +8311,23 @@
       <c r="C32" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>182</v>
+      <c r="D32" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>591</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J32" s="7">
         <v>0</v>
@@ -8368,34 +8338,34 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>241</v>
+        <v>217</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J33" s="7">
         <v>0</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
@@ -8405,23 +8375,23 @@
       <c r="C34" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>184</v>
+      <c r="D34" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
@@ -8437,23 +8407,23 @@
       <c r="C35" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>184</v>
+      <c r="D35" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="F35" t="s">
         <v>134</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -8469,23 +8439,23 @@
       <c r="C36" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>189</v>
+      <c r="D36" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -8499,25 +8469,25 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="13">
+        <v>214</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E37" s="11">
         <v>44920</v>
       </c>
       <c r="F37" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J37" s="7">
         <v>0</v>
@@ -8533,23 +8503,23 @@
       <c r="C38" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>186</v>
+      <c r="D38" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>599</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
@@ -8563,25 +8533,25 @@
         <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>193</v>
+        <v>224</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
@@ -8592,34 +8562,34 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>462</v>
+        <v>446</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>602</v>
       </c>
       <c r="F40" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="J40" s="7">
         <v>0</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
@@ -8629,23 +8599,23 @@
       <c r="C41" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>191</v>
+      <c r="D41" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="J41" s="7">
         <v>0</v>
@@ -8687,794 +8657,794 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25">
         <v>15</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26">
         <v>15</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28">
         <v>15</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29">
         <v>15</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33">
         <v>15</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34">
         <v>15</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35">
         <v>15</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36">
         <v>15</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37">
         <v>15</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40">
         <v>15</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41">
         <v>15</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43">
         <v>15</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44">
         <v>16</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45">
         <v>17</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46">
         <v>18</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47">
         <v>18</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="A48">
         <v>19</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+      <c r="A50">
         <v>21</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="A51">
         <v>22</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+      <c r="A52">
         <v>23</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="A53">
         <v>23</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="A55">
         <v>23</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
+      <c r="A56">
         <v>23</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="A57">
         <v>23</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
+      <c r="A58">
         <v>23</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="A59">
         <v>23</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
+      <c r="A60">
         <v>23</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+      <c r="A61">
         <v>23</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+      <c r="A62">
         <v>24</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="A63">
         <v>24</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="10">
+      <c r="A64">
         <v>24</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65">
         <v>24</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
+      <c r="A66">
         <v>24</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
+      <c r="A67">
         <v>24</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
+      <c r="A68">
         <v>24</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68">
         <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
+      <c r="A69">
         <v>24</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
+      <c r="A70">
         <v>24</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
+      <c r="A71">
         <v>24</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71">
         <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
+      <c r="A72">
         <v>24</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72">
         <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+      <c r="A73">
         <v>25</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73">
         <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="10">
+      <c r="A74">
         <v>25</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
+      <c r="A75">
         <v>26</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="10">
+      <c r="A76">
         <v>26</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+      <c r="A77">
         <v>26</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+      <c r="A78">
         <v>26</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
+      <c r="A79">
         <v>26</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79">
         <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
+      <c r="A80">
         <v>26</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81">
         <v>26</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
+      <c r="A82">
         <v>26</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+      <c r="A83">
         <v>26</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83">
         <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="10">
+      <c r="A84">
         <v>26</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84">
         <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
+      <c r="A85">
         <v>26</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85">
         <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
+      <c r="A86">
         <v>26</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="10">
+      <c r="A87">
         <v>27</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87">
         <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="10">
+      <c r="A88">
         <v>28</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89">
         <v>29</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89">
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
+      <c r="A90">
         <v>30</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91">
         <v>31</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="10">
+      <c r="A92">
         <v>32</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92">
         <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="10">
+      <c r="A93">
         <v>33</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
+      <c r="A94">
         <v>34</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95">
         <v>35</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95">
         <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="10">
+      <c r="A96">
         <v>36</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
+      <c r="A97">
         <v>37</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97">
         <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="10">
+      <c r="A98">
         <v>38</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98">
         <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
+      <c r="A99">
         <v>39</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99">
         <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="10">
+      <c r="A100">
         <v>40</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100">
         <v>5</v>
       </c>
     </row>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D1D42F-FD6B-4D0B-892C-C53691DE909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CA12C-BD0C-4C82-8A5E-723D96A5CF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36435" yWindow="1725" windowWidth="18750" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
@@ -2490,7 +2490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2518,11 +2518,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2875,794 +2873,794 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25">
         <v>15</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26">
         <v>15</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28">
         <v>15</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29">
         <v>15</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33">
         <v>15</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34">
         <v>15</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35">
         <v>15</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36">
         <v>15</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37">
         <v>15</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40">
         <v>15</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41">
         <v>15</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43">
         <v>15</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44">
         <v>16</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45">
         <v>17</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46">
         <v>18</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47">
         <v>18</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48">
         <v>19</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50">
         <v>21</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51">
         <v>22</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52">
         <v>23</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53">
         <v>23</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55">
         <v>23</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56">
         <v>23</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57">
         <v>23</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58">
         <v>23</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59">
         <v>23</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60">
         <v>23</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61">
         <v>23</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62">
         <v>24</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63">
         <v>24</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64">
         <v>24</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65">
         <v>24</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66">
         <v>24</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67">
         <v>24</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68">
         <v>24</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68">
         <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69">
         <v>24</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70">
         <v>24</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71">
         <v>24</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71">
         <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72">
         <v>24</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72">
         <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73">
         <v>25</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73">
         <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="A74">
         <v>25</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75">
         <v>26</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76">
         <v>26</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77">
         <v>26</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78">
         <v>26</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79">
         <v>26</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79">
         <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80">
         <v>26</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81">
         <v>26</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82">
         <v>26</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83">
         <v>26</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83">
         <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="A84">
         <v>26</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84">
         <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85">
         <v>26</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85">
         <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86">
         <v>26</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87">
         <v>27</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87">
         <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="A88">
         <v>28</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89">
         <v>29</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89">
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90">
         <v>30</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91">
         <v>31</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92">
         <v>32</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92">
         <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93">
         <v>33</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94">
         <v>34</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95">
         <v>35</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95">
         <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
+      <c r="A96">
         <v>36</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97">
         <v>37</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97">
         <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98">
         <v>38</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98">
         <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99">
         <v>39</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99">
         <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
+      <c r="A100">
         <v>40</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100">
         <v>5</v>
       </c>
     </row>
@@ -3968,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629F6DA-9E02-406A-B6E7-6A514633970A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6226,7 +6224,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6234,7 +6232,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -6242,7 +6240,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -6250,7 +6248,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -6258,7 +6256,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -6266,7 +6264,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -6274,7 +6272,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -6282,7 +6280,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -6290,7 +6288,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -6298,7 +6296,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -6306,7 +6304,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -6314,7 +6312,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -6322,7 +6320,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -6330,7 +6328,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -6338,7 +6336,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -6346,7 +6344,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -6354,7 +6352,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
@@ -6362,7 +6360,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
@@ -6370,7 +6368,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
@@ -6378,7 +6376,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
@@ -6386,7 +6384,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
@@ -6394,7 +6392,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
@@ -6402,7 +6400,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" t="s">
@@ -6410,7 +6408,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" t="s">
@@ -6418,7 +6416,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
@@ -6426,7 +6424,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" t="s">
@@ -6434,7 +6432,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" t="s">
@@ -6442,7 +6440,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29">
         <v>12</v>
       </c>
       <c r="B29" t="s">
@@ -6450,7 +6448,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
@@ -6458,7 +6456,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31">
         <v>13</v>
       </c>
       <c r="B31" t="s">
@@ -6466,7 +6464,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32">
         <v>14</v>
       </c>
       <c r="B32" t="s">
@@ -6474,7 +6472,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
@@ -6482,7 +6480,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
@@ -6490,7 +6488,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
@@ -6498,7 +6496,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
@@ -6506,7 +6504,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37">
         <v>17</v>
       </c>
       <c r="B37" t="s">
@@ -6514,7 +6512,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38">
         <v>18</v>
       </c>
       <c r="B38" t="s">
@@ -6522,7 +6520,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39">
         <v>18</v>
       </c>
       <c r="B39" t="s">
@@ -6530,7 +6528,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40">
         <v>19</v>
       </c>
       <c r="B40" t="s">
@@ -6538,7 +6536,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41">
         <v>19</v>
       </c>
       <c r="B41" t="s">
@@ -6546,7 +6544,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42">
         <v>20</v>
       </c>
       <c r="B42" t="s">
@@ -6554,7 +6552,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43">
         <v>21</v>
       </c>
       <c r="B43" t="s">
@@ -6562,7 +6560,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -6570,7 +6568,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45">
         <v>22</v>
       </c>
       <c r="B45" t="s">
@@ -6578,7 +6576,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46">
         <v>22</v>
       </c>
       <c r="B46" t="s">
@@ -6586,7 +6584,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47">
         <v>22</v>
       </c>
       <c r="B47" t="s">
@@ -6594,7 +6592,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48">
         <v>23</v>
       </c>
       <c r="B48" t="s">
@@ -6602,7 +6600,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49">
         <v>23</v>
       </c>
       <c r="B49" t="s">
@@ -6610,7 +6608,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50">
         <v>24</v>
       </c>
       <c r="B50" t="s">
@@ -6618,7 +6616,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51">
         <v>24</v>
       </c>
       <c r="B51" t="s">
@@ -6626,7 +6624,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52">
         <v>25</v>
       </c>
       <c r="B52" t="s">
@@ -6634,7 +6632,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53">
         <v>25</v>
       </c>
       <c r="B53" t="s">
@@ -6642,7 +6640,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54">
         <v>25</v>
       </c>
       <c r="B54" t="s">
@@ -6650,7 +6648,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55">
         <v>25</v>
       </c>
       <c r="B55" t="s">
@@ -6658,7 +6656,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56">
         <v>26</v>
       </c>
       <c r="B56" t="s">
@@ -6666,7 +6664,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57">
         <v>26</v>
       </c>
       <c r="B57" t="s">
@@ -6674,7 +6672,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58">
         <v>27</v>
       </c>
       <c r="B58" t="s">
@@ -6682,7 +6680,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59">
         <v>28</v>
       </c>
       <c r="B59" t="s">
@@ -6690,7 +6688,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60">
         <v>28</v>
       </c>
       <c r="B60" t="s">
@@ -6698,7 +6696,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61">
         <v>28</v>
       </c>
       <c r="B61" t="s">
@@ -6706,7 +6704,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62">
         <v>29</v>
       </c>
       <c r="B62" t="s">
@@ -6714,7 +6712,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63">
         <v>30</v>
       </c>
       <c r="B63" t="s">
@@ -6722,7 +6720,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64">
         <v>31</v>
       </c>
       <c r="B64" t="s">
@@ -6730,7 +6728,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65">
         <v>31</v>
       </c>
       <c r="B65" t="s">
@@ -6738,7 +6736,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66">
         <v>31</v>
       </c>
       <c r="B66" t="s">
@@ -6746,7 +6744,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67">
         <v>32</v>
       </c>
       <c r="B67" t="s">
@@ -6754,7 +6752,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68">
         <v>32</v>
       </c>
       <c r="B68" t="s">
@@ -6762,7 +6760,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69">
         <v>33</v>
       </c>
       <c r="B69" t="s">
@@ -6770,7 +6768,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70">
         <v>33</v>
       </c>
       <c r="B70" t="s">
@@ -6778,7 +6776,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71">
         <v>33</v>
       </c>
       <c r="B71" t="s">
@@ -6786,7 +6784,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72">
         <v>34</v>
       </c>
       <c r="B72" t="s">
@@ -6794,7 +6792,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73">
         <v>34</v>
       </c>
       <c r="B73" t="s">
@@ -6802,7 +6800,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="A74">
         <v>34</v>
       </c>
       <c r="B74" t="s">
@@ -6810,7 +6808,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75">
         <v>35</v>
       </c>
       <c r="B75" t="s">
@@ -6818,7 +6816,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76">
         <v>36</v>
       </c>
       <c r="B76" t="s">
@@ -6826,7 +6824,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77">
         <v>36</v>
       </c>
       <c r="B77" t="s">
@@ -6834,7 +6832,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78">
         <v>37</v>
       </c>
       <c r="B78" t="s">
@@ -6842,7 +6840,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79">
         <v>38</v>
       </c>
       <c r="B79" t="s">
@@ -6850,7 +6848,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80">
         <v>38</v>
       </c>
       <c r="B80" t="s">
@@ -6858,7 +6856,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81">
         <v>39</v>
       </c>
       <c r="B81" t="s">
@@ -6866,7 +6864,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82">
         <v>40</v>
       </c>
       <c r="B82" t="s">
@@ -6874,7 +6872,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83">
         <v>40</v>
       </c>
       <c r="B83" t="s">
@@ -6882,7 +6880,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="A84">
         <v>40</v>
       </c>
       <c r="B84" t="s">
@@ -6890,7 +6888,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85">
         <v>41</v>
       </c>
       <c r="B85" t="s">
@@ -6898,7 +6896,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86">
         <v>42</v>
       </c>
       <c r="B86" t="s">
@@ -6906,7 +6904,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87">
         <v>42</v>
       </c>
       <c r="B87" t="s">
@@ -6914,7 +6912,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="A88">
         <v>43</v>
       </c>
       <c r="B88" t="s">
@@ -6922,7 +6920,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89">
         <v>43</v>
       </c>
       <c r="B89" t="s">
@@ -6930,7 +6928,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90">
         <v>43</v>
       </c>
       <c r="B90" t="s">
@@ -6938,7 +6936,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91">
         <v>44</v>
       </c>
       <c r="B91" t="s">
@@ -6946,7 +6944,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92">
         <v>44</v>
       </c>
       <c r="B92" t="s">
@@ -6954,7 +6952,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93">
         <v>44</v>
       </c>
       <c r="B93" t="s">
@@ -6962,7 +6960,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94">
         <v>45</v>
       </c>
       <c r="B94" t="s">
@@ -6970,7 +6968,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95">
         <v>45</v>
       </c>
       <c r="B95" t="s">
@@ -6978,7 +6976,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
+      <c r="A96">
         <v>46</v>
       </c>
       <c r="B96" t="s">
@@ -6986,7 +6984,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97">
         <v>46</v>
       </c>
       <c r="B97" t="s">
@@ -6994,7 +6992,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98">
         <v>47</v>
       </c>
       <c r="B98" t="s">
@@ -7002,7 +7000,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99">
         <v>47</v>
       </c>
       <c r="B99" t="s">
@@ -7010,7 +7008,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
+      <c r="A100">
         <v>48</v>
       </c>
       <c r="B100" t="s">
@@ -7018,7 +7016,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
+      <c r="A101">
         <v>48</v>
       </c>
       <c r="B101" t="s">
@@ -7026,7 +7024,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
+      <c r="A102">
         <v>49</v>
       </c>
       <c r="B102" t="s">
@@ -7034,7 +7032,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
+      <c r="A103">
         <v>49</v>
       </c>
       <c r="B103" t="s">
@@ -7042,7 +7040,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="11">
+      <c r="A104">
         <v>50</v>
       </c>
       <c r="B104" t="s">
@@ -7050,7 +7048,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
+      <c r="A105">
         <v>50</v>
       </c>
       <c r="B105" t="s">
@@ -7058,7 +7056,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="11">
+      <c r="A106">
         <v>51</v>
       </c>
       <c r="B106" t="s">
@@ -7066,7 +7064,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+      <c r="A107">
         <v>52</v>
       </c>
       <c r="B107" t="s">
@@ -7074,7 +7072,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="11">
+      <c r="A108">
         <v>52</v>
       </c>
       <c r="B108" t="s">
@@ -7082,7 +7080,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+      <c r="A109">
         <v>53</v>
       </c>
       <c r="B109" t="s">
@@ -7090,7 +7088,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="11">
+      <c r="A110">
         <v>53</v>
       </c>
       <c r="B110" t="s">
@@ -7098,7 +7096,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
+      <c r="A111">
         <v>54</v>
       </c>
       <c r="B111" t="s">
@@ -7106,7 +7104,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
+      <c r="A112">
         <v>55</v>
       </c>
       <c r="B112" t="s">
@@ -7114,7 +7112,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+      <c r="A113">
         <v>55</v>
       </c>
       <c r="B113" t="s">
@@ -7122,7 +7120,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
+      <c r="A114">
         <v>56</v>
       </c>
       <c r="B114" t="s">
@@ -7130,7 +7128,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
+      <c r="A115">
         <v>56</v>
       </c>
       <c r="B115" t="s">
@@ -7138,7 +7136,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="11">
+      <c r="A116">
         <v>56</v>
       </c>
       <c r="B116" t="s">
@@ -7146,7 +7144,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="A117">
         <v>57</v>
       </c>
       <c r="B117" t="s">
@@ -7154,7 +7152,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+      <c r="A118">
         <v>57</v>
       </c>
       <c r="B118" t="s">
@@ -7162,7 +7160,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+      <c r="A119">
         <v>58</v>
       </c>
       <c r="B119" t="s">
@@ -7170,7 +7168,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="11">
+      <c r="A120">
         <v>58</v>
       </c>
       <c r="B120" t="s">
@@ -7178,7 +7176,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
+      <c r="A121">
         <v>59</v>
       </c>
       <c r="B121" t="s">
@@ -7186,7 +7184,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
+      <c r="A122">
         <v>60</v>
       </c>
       <c r="B122" t="s">
@@ -7194,7 +7192,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="A123">
         <v>61</v>
       </c>
       <c r="B123" t="s">
@@ -7202,7 +7200,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="11">
+      <c r="A124">
         <v>61</v>
       </c>
       <c r="B124" t="s">
@@ -7210,7 +7208,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="11">
+      <c r="A125">
         <v>61</v>
       </c>
       <c r="B125" t="s">
@@ -7218,7 +7216,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="11">
+      <c r="A126">
         <v>61</v>
       </c>
       <c r="B126" t="s">
@@ -7226,7 +7224,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="11">
+      <c r="A127">
         <v>62</v>
       </c>
       <c r="B127" t="s">
@@ -7234,7 +7232,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="11">
+      <c r="A128">
         <v>62</v>
       </c>
       <c r="B128" t="s">
@@ -7242,7 +7240,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="11">
+      <c r="A129">
         <v>62</v>
       </c>
       <c r="B129" t="s">
@@ -7250,7 +7248,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="11">
+      <c r="A130">
         <v>63</v>
       </c>
       <c r="B130" t="s">
@@ -7258,7 +7256,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="11">
+      <c r="A131">
         <v>64</v>
       </c>
       <c r="B131" t="s">
@@ -7266,7 +7264,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="11">
+      <c r="A132">
         <v>64</v>
       </c>
       <c r="B132" t="s">
@@ -7274,7 +7272,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="11">
+      <c r="A133">
         <v>64</v>
       </c>
       <c r="B133" t="s">
@@ -7282,7 +7280,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="11">
+      <c r="A134">
         <v>65</v>
       </c>
       <c r="B134" t="s">
@@ -7290,7 +7288,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="11">
+      <c r="A135">
         <v>66</v>
       </c>
       <c r="B135" t="s">
@@ -7298,7 +7296,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="11">
+      <c r="A136">
         <v>67</v>
       </c>
       <c r="B136" t="s">
@@ -7306,7 +7304,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="11">
+      <c r="A137">
         <v>68</v>
       </c>
       <c r="B137" t="s">
@@ -7314,7 +7312,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="11">
+      <c r="A138">
         <v>69</v>
       </c>
       <c r="B138" t="s">
@@ -7322,7 +7320,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="11">
+      <c r="A139">
         <v>69</v>
       </c>
       <c r="B139" t="s">
@@ -7330,7 +7328,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="11">
+      <c r="A140">
         <v>69</v>
       </c>
       <c r="B140" t="s">
@@ -7338,7 +7336,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="11">
+      <c r="A141">
         <v>70</v>
       </c>
       <c r="B141" t="s">
@@ -7346,7 +7344,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="11">
+      <c r="A142">
         <v>71</v>
       </c>
       <c r="B142" t="s">
@@ -7354,7 +7352,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="11">
+      <c r="A143">
         <v>72</v>
       </c>
       <c r="B143" t="s">
@@ -7362,7 +7360,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="11">
+      <c r="A144">
         <v>73</v>
       </c>
       <c r="B144" t="s">
@@ -7370,7 +7368,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="11">
+      <c r="A145">
         <v>73</v>
       </c>
       <c r="B145" t="s">
@@ -7378,7 +7376,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="11">
+      <c r="A146">
         <v>73</v>
       </c>
       <c r="B146" t="s">
@@ -7386,7 +7384,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="11">
+      <c r="A147">
         <v>74</v>
       </c>
       <c r="B147" t="s">
@@ -7394,7 +7392,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="11">
+      <c r="A148">
         <v>74</v>
       </c>
       <c r="B148" t="s">
@@ -7402,7 +7400,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="11">
+      <c r="A149">
         <v>75</v>
       </c>
       <c r="B149" t="s">
@@ -7410,7 +7408,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="11">
+      <c r="A150">
         <v>75</v>
       </c>
       <c r="B150" t="s">
@@ -7418,7 +7416,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="11">
+      <c r="A151">
         <v>75</v>
       </c>
       <c r="B151" t="s">
@@ -7426,7 +7424,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="11">
+      <c r="A152">
         <v>76</v>
       </c>
       <c r="B152" t="s">
@@ -7434,7 +7432,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="11">
+      <c r="A153">
         <v>77</v>
       </c>
       <c r="B153" t="s">
@@ -7442,7 +7440,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="11">
+      <c r="A154">
         <v>78</v>
       </c>
       <c r="B154" t="s">
@@ -7450,7 +7448,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="11">
+      <c r="A155">
         <v>78</v>
       </c>
       <c r="B155" t="s">
@@ -7458,7 +7456,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="11">
+      <c r="A156">
         <v>78</v>
       </c>
       <c r="B156" t="s">
@@ -7466,7 +7464,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="11">
+      <c r="A157">
         <v>79</v>
       </c>
       <c r="B157" t="s">
@@ -7474,7 +7472,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="11">
+      <c r="A158">
         <v>79</v>
       </c>
       <c r="B158" t="s">
@@ -7482,7 +7480,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="11">
+      <c r="A159">
         <v>80</v>
       </c>
       <c r="B159" t="s">
@@ -7490,7 +7488,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="11">
+      <c r="A160">
         <v>81</v>
       </c>
       <c r="B160" t="s">
@@ -7498,7 +7496,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="11">
+      <c r="A161">
         <v>81</v>
       </c>
       <c r="B161" t="s">
@@ -7506,7 +7504,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="11">
+      <c r="A162">
         <v>81</v>
       </c>
       <c r="B162" t="s">
@@ -7514,7 +7512,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="11">
+      <c r="A163">
         <v>82</v>
       </c>
       <c r="B163" t="s">
@@ -7522,7 +7520,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="11">
+      <c r="A164">
         <v>82</v>
       </c>
       <c r="B164" t="s">
@@ -7530,7 +7528,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="11">
+      <c r="A165">
         <v>83</v>
       </c>
       <c r="B165" t="s">
@@ -7538,7 +7536,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="11">
+      <c r="A166">
         <v>83</v>
       </c>
       <c r="B166" t="s">
@@ -7546,7 +7544,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="11">
+      <c r="A167">
         <v>84</v>
       </c>
       <c r="B167" t="s">
@@ -7554,7 +7552,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="11">
+      <c r="A168">
         <v>84</v>
       </c>
       <c r="B168" t="s">
@@ -7562,7 +7560,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="11">
+      <c r="A169">
         <v>85</v>
       </c>
       <c r="B169" t="s">
@@ -7570,7 +7568,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="11">
+      <c r="A170">
         <v>86</v>
       </c>
       <c r="B170" t="s">
@@ -7578,7 +7576,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="11">
+      <c r="A171">
         <v>86</v>
       </c>
       <c r="B171" t="s">
@@ -7586,7 +7584,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="11">
+      <c r="A172">
         <v>86</v>
       </c>
       <c r="B172" t="s">
@@ -7594,7 +7592,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="11">
+      <c r="A173">
         <v>87</v>
       </c>
       <c r="B173" t="s">
@@ -7602,7 +7600,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="11">
+      <c r="A174">
         <v>87</v>
       </c>
       <c r="B174" t="s">
@@ -7610,7 +7608,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="11">
+      <c r="A175">
         <v>88</v>
       </c>
       <c r="B175" t="s">
@@ -7618,7 +7616,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="11">
+      <c r="A176">
         <v>88</v>
       </c>
       <c r="B176" t="s">
@@ -7626,7 +7624,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="11">
+      <c r="A177">
         <v>88</v>
       </c>
       <c r="B177" t="s">
@@ -7634,7 +7632,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="11">
+      <c r="A178">
         <v>89</v>
       </c>
       <c r="B178" t="s">
@@ -7642,7 +7640,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="11">
+      <c r="A179">
         <v>89</v>
       </c>
       <c r="B179" t="s">
@@ -7650,7 +7648,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="11">
+      <c r="A180">
         <v>89</v>
       </c>
       <c r="B180" t="s">
@@ -7658,7 +7656,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="11">
+      <c r="A181">
         <v>90</v>
       </c>
       <c r="B181" t="s">
@@ -7666,7 +7664,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="11">
+      <c r="A182">
         <v>90</v>
       </c>
       <c r="B182" t="s">
@@ -7674,7 +7672,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="11">
+      <c r="A183">
         <v>91</v>
       </c>
       <c r="B183" t="s">
@@ -7682,7 +7680,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="11">
+      <c r="A184">
         <v>92</v>
       </c>
       <c r="B184" t="s">
@@ -7690,7 +7688,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="11">
+      <c r="A185">
         <v>92</v>
       </c>
       <c r="B185" t="s">
@@ -7698,7 +7696,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="11">
+      <c r="A186">
         <v>93</v>
       </c>
       <c r="B186" t="s">
@@ -7706,7 +7704,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="11">
+      <c r="A187">
         <v>93</v>
       </c>
       <c r="B187" t="s">
@@ -7714,7 +7712,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="11">
+      <c r="A188">
         <v>94</v>
       </c>
       <c r="B188" t="s">
@@ -7722,7 +7720,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="11">
+      <c r="A189">
         <v>95</v>
       </c>
       <c r="B189" t="s">
@@ -7730,7 +7728,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="11">
+      <c r="A190">
         <v>95</v>
       </c>
       <c r="B190" t="s">
@@ -7738,7 +7736,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="11">
+      <c r="A191">
         <v>96</v>
       </c>
       <c r="B191" t="s">
@@ -7746,7 +7744,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="11">
+      <c r="A192">
         <v>96</v>
       </c>
       <c r="B192" t="s">
@@ -7754,7 +7752,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="11">
+      <c r="A193">
         <v>97</v>
       </c>
       <c r="B193" t="s">
@@ -7762,7 +7760,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="11">
+      <c r="A194">
         <v>97</v>
       </c>
       <c r="B194" t="s">
@@ -7770,7 +7768,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="11">
+      <c r="A195">
         <v>98</v>
       </c>
       <c r="B195" t="s">
@@ -7778,7 +7776,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="11">
+      <c r="A196">
         <v>98</v>
       </c>
       <c r="B196" t="s">
@@ -7786,7 +7784,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="11">
+      <c r="A197">
         <v>98</v>
       </c>
       <c r="B197" t="s">
@@ -7794,7 +7792,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="11">
+      <c r="A198">
         <v>99</v>
       </c>
       <c r="B198" t="s">
@@ -7802,7 +7800,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="11">
+      <c r="A199">
         <v>99</v>
       </c>
       <c r="B199" t="s">
@@ -7810,7 +7808,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="11">
+      <c r="A200">
         <v>99</v>
       </c>
       <c r="B200" t="s">
@@ -7818,7 +7816,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="11">
+      <c r="A201">
         <v>100</v>
       </c>
       <c r="B201" t="s">
@@ -7826,7 +7824,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="11">
+      <c r="A202">
         <v>100</v>
       </c>
       <c r="B202" t="s">
@@ -7834,7 +7832,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="11">
+      <c r="A203">
         <v>101</v>
       </c>
       <c r="B203" t="s">
@@ -7842,7 +7840,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="11">
+      <c r="A204">
         <v>101</v>
       </c>
       <c r="B204" t="s">
@@ -7850,7 +7848,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="11">
+      <c r="A205">
         <v>102</v>
       </c>
       <c r="B205" t="s">
@@ -7858,7 +7856,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="11">
+      <c r="A206">
         <v>102</v>
       </c>
       <c r="B206" t="s">
@@ -7866,7 +7864,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="11">
+      <c r="A207">
         <v>103</v>
       </c>
       <c r="B207" t="s">
@@ -7874,7 +7872,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="11">
+      <c r="A208">
         <v>104</v>
       </c>
       <c r="B208" t="s">
@@ -7882,7 +7880,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="11">
+      <c r="A209">
         <v>104</v>
       </c>
       <c r="B209" t="s">
@@ -7890,7 +7888,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="11">
+      <c r="A210">
         <v>105</v>
       </c>
       <c r="B210" t="s">
@@ -7898,7 +7896,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="11">
+      <c r="A211">
         <v>105</v>
       </c>
       <c r="B211" t="s">
@@ -7906,7 +7904,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="11">
+      <c r="A212">
         <v>106</v>
       </c>
       <c r="B212" t="s">
@@ -7914,7 +7912,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="11">
+      <c r="A213">
         <v>107</v>
       </c>
       <c r="B213" t="s">
@@ -7922,7 +7920,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="11">
+      <c r="A214">
         <v>107</v>
       </c>
       <c r="B214" t="s">
@@ -7930,7 +7928,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="11">
+      <c r="A215">
         <v>108</v>
       </c>
       <c r="B215" t="s">
@@ -7938,7 +7936,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="11">
+      <c r="A216">
         <v>108</v>
       </c>
       <c r="B216" t="s">
@@ -7946,7 +7944,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="11">
+      <c r="A217">
         <v>109</v>
       </c>
       <c r="B217" t="s">
@@ -7954,7 +7952,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="11">
+      <c r="A218">
         <v>109</v>
       </c>
       <c r="B218" t="s">
@@ -7962,7 +7960,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="11">
+      <c r="A219">
         <v>110</v>
       </c>
       <c r="B219" t="s">
@@ -7970,7 +7968,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="11">
+      <c r="A220">
         <v>111</v>
       </c>
       <c r="B220" t="s">
@@ -7978,7 +7976,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="11">
+      <c r="A221">
         <v>111</v>
       </c>
       <c r="B221" t="s">
@@ -7986,7 +7984,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="11">
+      <c r="A222">
         <v>112</v>
       </c>
       <c r="B222" t="s">
@@ -7994,7 +7992,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="11">
+      <c r="A223">
         <v>112</v>
       </c>
       <c r="B223" t="s">
@@ -8002,7 +8000,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="11">
+      <c r="A224">
         <v>113</v>
       </c>
       <c r="B224" t="s">
@@ -8010,7 +8008,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="11">
+      <c r="A225">
         <v>113</v>
       </c>
       <c r="B225" t="s">
@@ -8018,7 +8016,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="11">
+      <c r="A226">
         <v>114</v>
       </c>
       <c r="B226" t="s">
@@ -8026,7 +8024,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="11">
+      <c r="A227">
         <v>114</v>
       </c>
       <c r="B227" t="s">
@@ -8034,7 +8032,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="11">
+      <c r="A228">
         <v>115</v>
       </c>
       <c r="B228" t="s">
@@ -8042,7 +8040,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="11">
+      <c r="A229">
         <v>115</v>
       </c>
       <c r="B229" t="s">
@@ -8050,7 +8048,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="11">
+      <c r="A230">
         <v>115</v>
       </c>
       <c r="B230" t="s">
@@ -8058,7 +8056,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="11">
+      <c r="A231">
         <v>116</v>
       </c>
       <c r="B231" t="s">
@@ -8066,7 +8064,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="11">
+      <c r="A232">
         <v>116</v>
       </c>
       <c r="B232" t="s">
@@ -8074,7 +8072,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="11">
+      <c r="A233">
         <v>117</v>
       </c>
       <c r="B233" t="s">
@@ -8082,7 +8080,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="11">
+      <c r="A234">
         <v>117</v>
       </c>
       <c r="B234" t="s">
@@ -8090,7 +8088,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="11">
+      <c r="A235">
         <v>118</v>
       </c>
       <c r="B235" t="s">
@@ -8098,7 +8096,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="11">
+      <c r="A236">
         <v>118</v>
       </c>
       <c r="B236" t="s">
@@ -8106,7 +8104,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="11">
+      <c r="A237">
         <v>118</v>
       </c>
       <c r="B237" t="s">
@@ -8114,7 +8112,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="11">
+      <c r="A238">
         <v>119</v>
       </c>
       <c r="B238" t="s">
@@ -8122,7 +8120,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="11">
+      <c r="A239">
         <v>119</v>
       </c>
       <c r="B239" t="s">
@@ -8130,7 +8128,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="11">
+      <c r="A240">
         <v>120</v>
       </c>
       <c r="B240" t="s">
@@ -8138,7 +8136,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="11">
+      <c r="A241">
         <v>120</v>
       </c>
       <c r="B241" t="s">
@@ -8146,7 +8144,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="11">
+      <c r="A242">
         <v>121</v>
       </c>
       <c r="B242" t="s">
@@ -8154,7 +8152,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="11">
+      <c r="A243">
         <v>121</v>
       </c>
       <c r="B243" t="s">
@@ -8176,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8214,7 +8212,7 @@
       <c r="G1" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>559</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -8276,7 +8274,7 @@
       <c r="G3" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" t="s">
         <v>561</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -8306,7 +8304,7 @@
       <c r="G4" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>569</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -8336,7 +8334,7 @@
       <c r="G5" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" t="s">
         <v>570</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -8366,7 +8364,7 @@
       <c r="G6" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>600</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -8396,7 +8394,7 @@
       <c r="G7" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" t="s">
         <v>571</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -8636,7 +8634,7 @@
       <c r="G15" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>601</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -8666,7 +8664,7 @@
       <c r="G16" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>602</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -8906,7 +8904,7 @@
       <c r="G24" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="12" t="s">
         <v>604</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -8936,7 +8934,7 @@
       <c r="G25" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="12" t="s">
         <v>605</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -8996,7 +8994,7 @@
       <c r="G27" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="12" t="s">
         <v>606</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -9116,7 +9114,7 @@
       <c r="G31" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" t="s">
         <v>599</v>
       </c>
       <c r="I31" s="7" t="s">
@@ -9447,7 +9445,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835BF780-05AB-4239-9325-A76C0F05AA3E}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -9469,7 +9467,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -9477,7 +9475,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -9485,7 +9483,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -9493,7 +9491,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -9501,7 +9499,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -9509,7 +9507,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -9517,7 +9515,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
@@ -9525,7 +9523,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -9533,7 +9531,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -9541,7 +9539,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -9549,7 +9547,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -9557,7 +9555,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -9565,7 +9563,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -9573,7 +9571,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -9581,7 +9579,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
@@ -9589,7 +9587,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -9597,7 +9595,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
@@ -9605,7 +9603,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -9613,7 +9611,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
@@ -9621,7 +9619,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
@@ -9629,7 +9627,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
@@ -9637,7 +9635,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
@@ -9645,7 +9643,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" t="s">
@@ -9653,7 +9651,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" t="s">
@@ -9661,7 +9659,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
@@ -9669,7 +9667,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27">
         <v>12</v>
       </c>
       <c r="B27" t="s">
@@ -9677,7 +9675,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
@@ -9685,7 +9683,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29">
         <v>13</v>
       </c>
       <c r="B29" t="s">
@@ -9693,7 +9691,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
@@ -9701,7 +9699,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31">
         <v>15</v>
       </c>
       <c r="B31" t="s">
@@ -9709,7 +9707,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32">
         <v>16</v>
       </c>
       <c r="B32" t="s">
@@ -9717,7 +9715,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33">
         <v>16</v>
       </c>
       <c r="B33" t="s">
@@ -9725,7 +9723,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34">
         <v>17</v>
       </c>
       <c r="B34" t="s">
@@ -9733,7 +9731,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35">
         <v>17</v>
       </c>
       <c r="B35" t="s">
@@ -9741,7 +9739,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36">
         <v>18</v>
       </c>
       <c r="B36" t="s">
@@ -9749,7 +9747,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" t="s">
@@ -9757,7 +9755,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38">
         <v>19</v>
       </c>
       <c r="B38" t="s">
@@ -9765,7 +9763,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39">
         <v>19</v>
       </c>
       <c r="B39" t="s">
@@ -9773,7 +9771,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40">
         <v>20</v>
       </c>
       <c r="B40" t="s">
@@ -9781,7 +9779,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41">
         <v>21</v>
       </c>
       <c r="B41" t="s">
@@ -9789,7 +9787,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42">
         <v>22</v>
       </c>
       <c r="B42" t="s">
@@ -9797,7 +9795,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43">
         <v>22</v>
       </c>
       <c r="B43" t="s">
@@ -9805,7 +9803,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44">
         <v>24</v>
       </c>
       <c r="B44" t="s">
@@ -9813,7 +9811,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45">
         <v>25</v>
       </c>
       <c r="B45" t="s">
@@ -9821,7 +9819,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46">
         <v>25</v>
       </c>
       <c r="B46" t="s">
@@ -9829,7 +9827,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47">
         <v>25</v>
       </c>
       <c r="B47" t="s">
@@ -9837,7 +9835,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48">
         <v>26</v>
       </c>
       <c r="B48" t="s">
@@ -9845,7 +9843,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49">
         <v>27</v>
       </c>
       <c r="B49" t="s">
@@ -9853,7 +9851,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50">
         <v>28</v>
       </c>
       <c r="B50" t="s">
@@ -9861,7 +9859,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51">
         <v>28</v>
       </c>
       <c r="B51" t="s">
@@ -9869,7 +9867,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52">
         <v>29</v>
       </c>
       <c r="B52" t="s">
@@ -9877,7 +9875,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53">
         <v>29</v>
       </c>
       <c r="B53" t="s">
@@ -9885,7 +9883,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54">
         <v>30</v>
       </c>
       <c r="B54" t="s">
@@ -9893,7 +9891,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55">
         <v>30</v>
       </c>
       <c r="B55" t="s">
@@ -9901,7 +9899,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56">
         <v>31</v>
       </c>
       <c r="B56" t="s">
@@ -9909,7 +9907,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57">
         <v>31</v>
       </c>
       <c r="B57" t="s">
@@ -9917,7 +9915,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58">
         <v>32</v>
       </c>
       <c r="B58" t="s">
@@ -9925,7 +9923,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59">
         <v>32</v>
       </c>
       <c r="B59" t="s">
@@ -9933,7 +9931,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60">
         <v>33</v>
       </c>
       <c r="B60" t="s">
@@ -9941,7 +9939,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61">
         <v>34</v>
       </c>
       <c r="B61" t="s">
@@ -9949,7 +9947,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62">
         <v>35</v>
       </c>
       <c r="B62" t="s">
@@ -9957,7 +9955,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63">
         <v>35</v>
       </c>
       <c r="B63" t="s">
@@ -9965,7 +9963,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64">
         <v>36</v>
       </c>
       <c r="B64" t="s">
@@ -9973,7 +9971,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65">
         <v>37</v>
       </c>
       <c r="B65" t="s">
@@ -9981,7 +9979,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66">
         <v>37</v>
       </c>
       <c r="B66" t="s">
@@ -9989,7 +9987,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67">
         <v>37</v>
       </c>
       <c r="B67" t="s">
@@ -9997,7 +9995,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68">
         <v>38</v>
       </c>
       <c r="B68" t="s">
@@ -10005,7 +10003,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69">
         <v>38</v>
       </c>
       <c r="B69" t="s">
@@ -10013,7 +10011,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70">
         <v>39</v>
       </c>
       <c r="B70" t="s">
@@ -10021,7 +10019,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71">
         <v>39</v>
       </c>
       <c r="B71" t="s">
@@ -10029,7 +10027,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72">
         <v>39</v>
       </c>
       <c r="B72" t="s">
@@ -10037,357 +10035,12 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73">
         <v>40</v>
       </c>
       <c r="B73" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="11"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="11"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="11"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="11"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="11"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="11"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="11"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="11"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="11"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="11"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="11"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="11"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="11"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="11"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="11"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="11"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="11"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="11"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="11"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="11"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="11"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="11"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="11"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="11"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="11"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="11"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="11"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="11"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="11"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="11"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="11"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="11"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="11"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="11"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="11"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="11"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="11"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="11"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F5EE0-AA1D-4794-BA92-EDE112C14659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D90B7-9B1A-46C2-A617-5105358301A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="604">
   <si>
     <t>장르코드</t>
   </si>
@@ -2265,6 +2265,120 @@
   <si>
     <t>주요장르(X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가렛 애프터 섹스 내한공연 (Cigarettes After Sex Live in Seoul)</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016559_p.gif</t>
+  </si>
+  <si>
+    <t>KBS 아레나</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016559</t>
+  </si>
+  <si>
+    <t>시가렛 애프터 섹스</t>
+  </si>
+  <si>
+    <t>2022 론 브랜튼의 〈재즈 크리스마스!〉</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22012518_p.gif</t>
+  </si>
+  <si>
+    <t>마포아트센터 아트홀 맥</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22012518</t>
+  </si>
+  <si>
+    <t>론 브랜튼</t>
+  </si>
+  <si>
+    <t>나윤선 〈Waking World〉</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016144_p.gif</t>
+  </si>
+  <si>
+    <t>영화의전당 하늘연극장</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016144</t>
+  </si>
+  <si>
+    <t>나윤선</t>
+  </si>
+  <si>
+    <t>박물관으로간피아노－이선지</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22015852_p.gif</t>
+  </si>
+  <si>
+    <t>목인박물관</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22015852</t>
+  </si>
+  <si>
+    <t>이선지</t>
+  </si>
+  <si>
+    <t>디어클라우드 소극장 콘서트 〈Farewell 2022〉</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016307_p.gif</t>
+  </si>
+  <si>
+    <t>클럽 온에어</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016307</t>
+  </si>
+  <si>
+    <t>디어클라우드</t>
+  </si>
+  <si>
+    <t>디에이드 연말 단독 콘서트 ‘Sequence’</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22016129_p.gif</t>
+  </si>
+  <si>
+    <t>성신여대 운정그린캠퍼스 대강당</t>
+  </si>
+  <si>
+    <t>https://tickets.interpark.com/goods/22016129</t>
+  </si>
+  <si>
+    <t>디에이드</t>
+  </si>
+  <si>
+    <t>https://w.namu.la/s/b4ef9022cc35c7a35c68dca50d458fb529ffc46930a87a873edf5eebe4b10b401e6b71cc6545879242e5b5fa786907d52b94816e007387696f84c20f7e1451f69cba3f9fbd71a6a252962ea3ed0bdaecc35fe534f609b11a692d8bd191790480cd37159a68e8c40998a395d42f1ffed7</t>
+  </si>
+  <si>
+    <t>팝</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/08/01/0400040801_4714_02.gif</t>
+  </si>
+  <si>
+    <t>재즈</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/17/04/0400041704_41151_02545.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1487_011012.gif</t>
+  </si>
+  <si>
+    <t>인디</t>
+  </si>
+  <si>
+    <t>https://w.namu.la/s/62aaa548eaaf064cb28db85d36c061642dce300f86d53d5eb169a46d2f677fc480c8e23fdd0829b0873dbf20a4dc6ab5bae3413cda30ceeeb97db859d428bcb56a41a60018eee479fa1185a8a5409dfeae6ec5bef9e8b9c21951e87958d51be3524cf662cc498b3e5041752f44c977cb</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2340,6 +2454,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2753,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4676,7 +4793,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>245</v>
       </c>
@@ -4693,7 +4810,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>250</v>
       </c>
@@ -4710,7 +4827,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>252</v>
       </c>
@@ -4727,7 +4844,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>320</v>
       </c>
@@ -4744,7 +4861,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>246</v>
       </c>
@@ -4761,7 +4878,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>68</v>
       </c>
@@ -4778,7 +4895,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>266</v>
       </c>
@@ -4795,7 +4912,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>294</v>
       </c>
@@ -4812,7 +4929,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>301</v>
       </c>
@@ -4829,7 +4946,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>218</v>
       </c>
@@ -4844,6 +4961,96 @@
       </c>
       <c r="F122" s="1" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E124" s="5">
+        <v>2002</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E126" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E127" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4858,10 +5065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475450A4-A2B6-47BA-B746-B5C9BBF465F5}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6812,6 +7019,46 @@
       </c>
       <c r="B243" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>122</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>123</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
+        <v>124</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
+        <v>125</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
+        <v>126</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6827,10 +7074,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7329,7 +7576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="363" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="198" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -7617,7 +7864,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="231" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>85</v>
       </c>
@@ -7649,7 +7896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -7681,7 +7928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="198" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>524</v>
       </c>
@@ -7873,7 +8120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>182</v>
       </c>
@@ -7905,7 +8152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>118</v>
       </c>
@@ -7937,7 +8184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -7969,7 +8216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>124</v>
       </c>
@@ -8001,7 +8248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
@@ -8033,7 +8280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
@@ -8065,7 +8312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>123</v>
       </c>
@@ -8097,7 +8344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>407</v>
       </c>
@@ -8129,7 +8376,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>122</v>
       </c>
@@ -8159,6 +8406,204 @@
       </c>
       <c r="K41" s="6" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D42" s="10">
+        <v>44962</v>
+      </c>
+      <c r="E42" s="10">
+        <v>44962</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J42" s="5">
+        <v>41</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" s="10">
+        <v>44920</v>
+      </c>
+      <c r="E43" s="10">
+        <v>44920</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J43" s="5">
+        <v>42</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" s="10">
+        <v>44912</v>
+      </c>
+      <c r="E44" s="10">
+        <v>44912</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J44" s="5">
+        <v>43</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D45" s="10">
+        <v>44905</v>
+      </c>
+      <c r="E45" s="10">
+        <v>44905</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J45" s="5">
+        <v>44</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D46" s="10">
+        <v>44923</v>
+      </c>
+      <c r="E46" s="10">
+        <v>44925</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J46" s="5">
+        <v>45</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D47" s="10">
+        <v>44912</v>
+      </c>
+      <c r="E47" s="10">
+        <v>44913</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J47" s="5">
+        <v>46</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -8173,10 +8618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA5C4D9-35A9-4254-9DD0-C575BAA3106D}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8763,6 +9208,54 @@
       </c>
       <c r="B73" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>41</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>42</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>43</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>44</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>45</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>46</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8774,10 +9267,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9585,6 +10078,54 @@
         <v>5</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>41</v>
+      </c>
+      <c r="B101" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>42</v>
+      </c>
+      <c r="B102" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>43</v>
+      </c>
+      <c r="B103" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>44</v>
+      </c>
+      <c r="B104" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>45</v>
+      </c>
+      <c r="B105" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>46</v>
+      </c>
+      <c r="B106" s="5">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B100">
     <sortCondition ref="A2:A100"/>

--- a/document/데이터정보.xlsx
+++ b/document/데이터정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D90B7-9B1A-46C2-A617-5105358301A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB033E4-62D1-456A-B20E-CF16C11D832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="장르" sheetId="5" r:id="rId1"/>
@@ -385,20 +385,8 @@
     <t>올림픽공원 SK올림픽핸드볼경기장 (구 펜싱경기장)</t>
   </si>
   <si>
-    <t>경희대학교 평화의전당</t>
-  </si>
-  <si>
-    <t>경남문화예술회관 대공연장</t>
-  </si>
-  <si>
-    <t>제주신화월드 야외주차장</t>
-  </si>
-  <si>
     <t>이충문화체육센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연세대학교 백양콘서트홀(구. 백주년기념관)</t>
   </si>
   <si>
     <t>장충체육관</t>
@@ -706,15 +694,6 @@
   </si>
   <si>
     <t>https://ticketimage.interpark.com/Play/image/large/22/22014054_p.gif</t>
-  </si>
-  <si>
-    <t>https://ticketimage.interpark.com/Play/image/large/22/22014892_p.gif</t>
-  </si>
-  <si>
-    <t>https://ticketimage.interpark.com/Play/image/large/22/22016563_p.gif</t>
-  </si>
-  <si>
-    <t>https://ticketimage.interpark.com/Play/image/large/22/22014517_p.gif</t>
   </si>
   <si>
     <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg</t>
@@ -1615,10 +1594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	경희대학교 국제캠퍼스 선승관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박창근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2379,6 +2354,40 @@
   </si>
   <si>
     <t>https://w.namu.la/s/62aaa548eaaf064cb28db85d36c061642dce300f86d53d5eb169a46d2f677fc480c8e23fdd0829b0873dbf20a4dc6ab5bae3413cda30ceeeb97db859d428bcb56a41a60018eee479fa1185a8a5409dfeae6ec5bef9e8b9c21951e87958d51be3524cf662cc498b3e5041752f44c977cb</t>
+  </si>
+  <si>
+    <t>https://ticketimage.interpark.com/Play/image/large/22/22014517_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남문화예술회관 대공연장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://ticketimage.interpark.com/Play/image/large/22/22014892_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://ticketimage.interpark.com/Play/image/large/22/22016563_p.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주신화월드 야외주차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경희대학교 국제캠퍼스 선승관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연세대학교 백양콘서트홀(구. 백주년기념관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경희대학교 평화의전당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2428,7 +2437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2458,6 +2467,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2757,7 +2767,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -2765,15 +2775,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -2781,7 +2791,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -2789,7 +2799,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -2797,47 +2807,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -2845,15 +2855,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -2872,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2903,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2911,44 +2921,44 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E2">
         <v>1958</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E3">
         <v>1970</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E4">
         <v>1973</v>
@@ -2959,30 +2969,30 @@
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E5">
         <v>1975</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E6">
         <v>1975</v>
@@ -2993,104 +3003,104 @@
     </row>
     <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E7">
         <v>1977</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E8">
         <v>1978</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E9">
         <v>1978</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E10">
         <v>1984</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E11">
         <v>1984</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E12">
         <v>1986</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3098,61 +3108,61 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>1988</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E14">
         <v>1991</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E15">
         <v>1991</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E16">
         <v>1993</v>
@@ -3163,13 +3173,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E17">
         <v>1993</v>
@@ -3180,53 +3190,53 @@
     </row>
     <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E18">
         <v>1994</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E19">
         <v>1994</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E20">
         <v>1995</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -3234,10 +3244,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E21">
         <v>1996</v>
@@ -3248,36 +3258,36 @@
     </row>
     <row r="22" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E22">
         <v>1996</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D23" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E23">
         <v>1997</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
@@ -3285,50 +3295,50 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D24" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E24">
         <v>1997</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D25" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E25">
         <v>1997</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E26">
         <v>1998</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -3336,27 +3346,27 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E27">
         <v>1998</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E28">
         <v>1998</v>
@@ -3367,19 +3377,19 @@
     </row>
     <row r="29" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E29">
         <v>1998</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -3387,10 +3397,10 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E30">
         <v>1999</v>
@@ -3401,13 +3411,13 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E31">
         <v>1999</v>
@@ -3421,78 +3431,78 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E32">
         <v>1999</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E33">
         <v>1999</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D34" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E34">
         <v>1999</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E36">
         <v>2001</v>
@@ -3503,30 +3513,30 @@
     </row>
     <row r="37" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D37" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E37">
         <v>2001</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E38">
         <v>2002</v>
@@ -3537,30 +3547,30 @@
     </row>
     <row r="39" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E39">
         <v>2002</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E40">
         <v>2002</v>
@@ -3571,30 +3581,30 @@
     </row>
     <row r="41" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E41">
         <v>2003</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D42" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E42">
         <v>2003</v>
@@ -3605,36 +3615,36 @@
     </row>
     <row r="43" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E43">
         <v>2004</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D44" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E44">
         <v>2004</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3642,84 +3652,84 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E45">
         <v>2004</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E46">
         <v>2004</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E47">
         <v>2004</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D48" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E48">
         <v>2004</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E49">
         <v>2004</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -3727,44 +3737,44 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D50" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D51" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E52">
         <v>2005</v>
@@ -3775,47 +3785,47 @@
     </row>
     <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D53" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E53">
         <v>2005</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E54">
         <v>2005</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E55">
         <v>2006</v>
@@ -3826,81 +3836,81 @@
     </row>
     <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D56" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E56">
         <v>2006</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D57" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E57">
         <v>2007</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D59" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E60">
         <v>2009</v>
@@ -3911,13 +3921,13 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D61" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E61">
         <v>2009</v>
@@ -3928,19 +3938,19 @@
     </row>
     <row r="62" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E62">
         <v>2010</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3948,16 +3958,16 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E63">
         <v>2010</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
@@ -3965,10 +3975,10 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D64" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E64">
         <v>2010</v>
@@ -3979,30 +3989,30 @@
     </row>
     <row r="65" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E65">
         <v>2010</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E66">
         <v>2010</v>
@@ -4013,13 +4023,13 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E67">
         <v>2010</v>
@@ -4030,13 +4040,13 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D68" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E68">
         <v>2010</v>
@@ -4047,13 +4057,13 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D69" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E69">
         <v>2010</v>
@@ -4064,30 +4074,30 @@
     </row>
     <row r="70" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E70">
         <v>2011</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E71">
         <v>2011</v>
@@ -4101,10 +4111,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E72">
         <v>2012</v>
@@ -4118,10 +4128,10 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E73">
         <v>2012</v>
@@ -4135,61 +4145,61 @@
         <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D74" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E75">
         <v>2012</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E76">
         <v>2012</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D77" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E77">
         <v>2012</v>
@@ -4203,10 +4213,10 @@
         <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D78" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E78">
         <v>2013</v>
@@ -4217,36 +4227,36 @@
     </row>
     <row r="79" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E79">
         <v>2013</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D80" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E80">
         <v>2013</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
@@ -4254,10 +4264,10 @@
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E81">
         <v>2014</v>
@@ -4268,81 +4278,81 @@
     </row>
     <row r="82" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E83">
         <v>2014</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D84" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E84">
         <v>2014</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E85">
         <v>2014</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E86">
         <v>2015</v>
@@ -4353,98 +4363,98 @@
     </row>
     <row r="87" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D88" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D89" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E92">
         <v>2016</v>
@@ -4455,36 +4465,36 @@
     </row>
     <row r="93" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D93" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C94" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
@@ -4492,10 +4502,10 @@
         <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E95">
         <v>2017</v>
@@ -4506,70 +4516,70 @@
     </row>
     <row r="96" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E96">
         <v>2017</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -4577,78 +4587,78 @@
         <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D101" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E101">
         <v>2018</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C102" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D102" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E102">
         <v>2018</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E103">
         <v>2018</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E104">
         <v>2018</v>
@@ -4659,47 +4669,47 @@
     </row>
     <row r="105" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D105" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E105">
         <v>2018</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D107" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E107">
         <v>2018</v>
@@ -4710,64 +4720,64 @@
     </row>
     <row r="108" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D108" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E108">
         <v>2018</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D109" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E109">
         <v>2018</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D110" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E110">
         <v>2018</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C111" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D111" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E111">
         <v>2019</v>
@@ -4778,104 +4788,104 @@
     </row>
     <row r="112" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C112" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D112" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E112">
         <v>2019</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C113" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D113" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E113">
         <v>2019</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D114" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E114">
         <v>2019</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C115" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D115" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E115">
         <v>2019</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C116" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D116" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E116">
         <v>2019</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C117" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D117" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E117">
         <v>2019</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -4883,174 +4893,174 @@
         <v>68</v>
       </c>
       <c r="C118" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E118">
         <v>2020</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C119" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D119" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E119">
         <v>2020</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D120" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E120">
         <v>2020</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C121" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D121" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E121">
         <v>2020</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D122" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E122">
         <v>2021</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="E123" s="5">
         <v>2008</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E124" s="5">
         <v>2002</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E125" s="5">
         <v>2008</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E126" s="5">
         <v>2007</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="E127" s="5">
         <v>2010</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5079,10 +5089,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5090,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5098,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5106,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5114,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5122,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5130,7 +5140,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5146,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5154,7 +5164,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5162,7 +5172,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5170,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5178,7 +5188,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5196,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5194,7 +5204,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5202,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5228,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5234,7 +5244,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5242,7 +5252,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5250,7 +5260,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5258,7 +5268,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5276,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +5292,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5290,7 +5300,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5298,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5306,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5314,7 +5324,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5322,7 +5332,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5330,7 +5340,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5338,7 +5348,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5356,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +5364,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5362,7 +5372,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5370,7 +5380,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5378,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5386,7 +5396,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5394,7 +5404,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5402,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5410,7 +5420,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +5428,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5436,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5434,7 +5444,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5442,7 +5452,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5450,7 +5460,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5458,7 +5468,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5466,7 +5476,7 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5484,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5482,7 +5492,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5490,7 +5500,7 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +5508,7 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5506,7 +5516,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5514,7 +5524,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5522,7 +5532,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5530,7 +5540,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5538,7 +5548,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5556,7 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5554,7 +5564,7 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5562,7 +5572,7 @@
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +5580,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5578,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +5596,7 @@
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5594,7 +5604,7 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5602,7 +5612,7 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5610,7 +5620,7 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5618,7 +5628,7 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5626,7 +5636,7 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5634,7 +5644,7 @@
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5642,7 +5652,7 @@
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5650,7 +5660,7 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5658,7 +5668,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5666,7 +5676,7 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5674,7 +5684,7 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5682,7 +5692,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5690,7 +5700,7 @@
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5698,7 +5708,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5706,7 +5716,7 @@
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +5724,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5722,7 +5732,7 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5730,7 +5740,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5738,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -5746,7 +5756,7 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5754,7 +5764,7 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -5762,7 +5772,7 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5770,7 +5780,7 @@
         <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5778,7 +5788,7 @@
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5786,7 +5796,7 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5794,7 +5804,7 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5802,7 +5812,7 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,7 +5820,7 @@
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5818,7 +5828,7 @@
         <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5826,7 +5836,7 @@
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5834,7 +5844,7 @@
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5842,7 +5852,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5850,7 +5860,7 @@
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5858,7 +5868,7 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5866,7 +5876,7 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5874,7 +5884,7 @@
         <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5882,7 +5892,7 @@
         <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5890,7 +5900,7 @@
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5898,7 +5908,7 @@
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5906,7 +5916,7 @@
         <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -5914,7 +5924,7 @@
         <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -5922,7 +5932,7 @@
         <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5930,7 +5940,7 @@
         <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5938,7 +5948,7 @@
         <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5946,7 +5956,7 @@
         <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5954,7 +5964,7 @@
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5962,7 +5972,7 @@
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5970,7 +5980,7 @@
         <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -5978,7 +5988,7 @@
         <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5986,7 +5996,7 @@
         <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5994,7 +6004,7 @@
         <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -6002,7 +6012,7 @@
         <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -6010,7 +6020,7 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -6018,7 +6028,7 @@
         <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -6026,7 +6036,7 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -6034,7 +6044,7 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6042,7 +6052,7 @@
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -6050,7 +6060,7 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -6058,7 +6068,7 @@
         <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -6066,7 +6076,7 @@
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -6074,7 +6084,7 @@
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6082,7 +6092,7 @@
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6090,7 +6100,7 @@
         <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -6098,7 +6108,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -6106,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -6114,7 +6124,7 @@
         <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -6122,7 +6132,7 @@
         <v>64</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -6130,7 +6140,7 @@
         <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -6138,7 +6148,7 @@
         <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +6156,7 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6154,7 +6164,7 @@
         <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -6162,7 +6172,7 @@
         <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -6170,7 +6180,7 @@
         <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -6178,7 +6188,7 @@
         <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -6186,7 +6196,7 @@
         <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -6194,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -6202,7 +6212,7 @@
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -6210,7 +6220,7 @@
         <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -6218,7 +6228,7 @@
         <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -6226,7 +6236,7 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -6234,7 +6244,7 @@
         <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6242,7 +6252,7 @@
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -6250,7 +6260,7 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -6258,7 +6268,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -6266,7 +6276,7 @@
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -6274,7 +6284,7 @@
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6282,7 +6292,7 @@
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,7 +6300,7 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -6298,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -6306,7 +6316,7 @@
         <v>78</v>
       </c>
       <c r="B154" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -6314,7 +6324,7 @@
         <v>78</v>
       </c>
       <c r="B155" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -6322,7 +6332,7 @@
         <v>78</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -6330,7 +6340,7 @@
         <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -6338,7 +6348,7 @@
         <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -6346,7 +6356,7 @@
         <v>80</v>
       </c>
       <c r="B159" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -6354,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -6362,7 +6372,7 @@
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -6370,7 +6380,7 @@
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -6378,7 +6388,7 @@
         <v>82</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -6386,7 +6396,7 @@
         <v>82</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -6394,7 +6404,7 @@
         <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -6402,7 +6412,7 @@
         <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -6410,7 +6420,7 @@
         <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -6418,7 +6428,7 @@
         <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -6426,7 +6436,7 @@
         <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -6434,7 +6444,7 @@
         <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -6442,7 +6452,7 @@
         <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6450,7 +6460,7 @@
         <v>86</v>
       </c>
       <c r="B172" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -6458,7 +6468,7 @@
         <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -6466,7 +6476,7 @@
         <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -6474,7 +6484,7 @@
         <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -6482,7 +6492,7 @@
         <v>88</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -6490,7 +6500,7 @@
         <v>88</v>
       </c>
       <c r="B177" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -6498,7 +6508,7 @@
         <v>89</v>
       </c>
       <c r="B178" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +6516,7 @@
         <v>89</v>
       </c>
       <c r="B179" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -6514,7 +6524,7 @@
         <v>89</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -6522,7 +6532,7 @@
         <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -6530,7 +6540,7 @@
         <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -6538,7 +6548,7 @@
         <v>91</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -6546,7 +6556,7 @@
         <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -6554,7 +6564,7 @@
         <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -6562,7 +6572,7 @@
         <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -6570,7 +6580,7 @@
         <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +6588,7 @@
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +6596,7 @@
         <v>95</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -6594,7 +6604,7 @@
         <v>95</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -6602,7 +6612,7 @@
         <v>96</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -6610,7 +6620,7 @@
         <v>96</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -6618,7 +6628,7 @@
         <v>97</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -6626,7 +6636,7 @@
         <v>97</v>
       </c>
       <c r="B194" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -6634,7 +6644,7 @@
         <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -6642,7 +6652,7 @@
         <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -6650,7 +6660,7 @@
         <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -6658,7 +6668,7 @@
         <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -6666,7 +6676,7 @@
         <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -6674,7 +6684,7 @@
         <v>99</v>
       </c>
       <c r="B200" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -6682,7 +6692,7 @@
         <v>100</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -6690,7 +6700,7 @@
         <v>100</v>
       </c>
       <c r="B202" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -6698,7 +6708,7 @@
         <v>101</v>
       </c>
       <c r="B203" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -6706,7 +6716,7 @@
         <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -6714,7 +6724,7 @@
         <v>102</v>
       </c>
       <c r="B205" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +6732,7 @@
         <v>102</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -6730,7 +6740,7 @@
         <v>103</v>
       </c>
       <c r="B207" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -6738,7 +6748,7 @@
         <v>104</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -6746,7 +6756,7 @@
         <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -6754,7 +6764,7 @@
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -6762,7 +6772,7 @@
         <v>105</v>
       </c>
       <c r="B211" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -6770,7 +6780,7 @@
         <v>106</v>
       </c>
       <c r="B212" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -6778,7 +6788,7 @@
         <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -6786,7 +6796,7 @@
         <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -6794,7 +6804,7 @@
         <v>108</v>
       </c>
       <c r="B215" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -6802,7 +6812,7 @@
         <v>108</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -6810,7 +6820,7 @@
         <v>109</v>
       </c>
       <c r="B217" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -6818,7 +6828,7 @@
         <v>109</v>
       </c>
       <c r="B218" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -6826,7 +6836,7 @@
         <v>110</v>
       </c>
       <c r="B219" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -6834,7 +6844,7 @@
         <v>111</v>
       </c>
       <c r="B220" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -6842,7 +6852,7 @@
         <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -6850,7 +6860,7 @@
         <v>112</v>
       </c>
       <c r="B222" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -6858,7 +6868,7 @@
         <v>112</v>
       </c>
       <c r="B223" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -6866,7 +6876,7 @@
         <v>113</v>
       </c>
       <c r="B224" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -6874,7 +6884,7 @@
         <v>113</v>
       </c>
       <c r="B225" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -6882,7 +6892,7 @@
         <v>114</v>
       </c>
       <c r="B226" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -6890,7 +6900,7 @@
         <v>114</v>
       </c>
       <c r="B227" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -6898,7 +6908,7 @@
         <v>115</v>
       </c>
       <c r="B228" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -6906,7 +6916,7 @@
         <v>115</v>
       </c>
       <c r="B229" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -6914,7 +6924,7 @@
         <v>115</v>
       </c>
       <c r="B230" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -6922,7 +6932,7 @@
         <v>116</v>
       </c>
       <c r="B231" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -6930,7 +6940,7 @@
         <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -6938,7 +6948,7 @@
         <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -6946,7 +6956,7 @@
         <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -6954,7 +6964,7 @@
         <v>118</v>
       </c>
       <c r="B235" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -6962,7 +6972,7 @@
         <v>118</v>
       </c>
       <c r="B236" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -6970,7 +6980,7 @@
         <v>118</v>
       </c>
       <c r="B237" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -6978,7 +6988,7 @@
         <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -6986,7 +6996,7 @@
         <v>119</v>
       </c>
       <c r="B239" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -6994,7 +7004,7 @@
         <v>120</v>
       </c>
       <c r="B240" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -7002,7 +7012,7 @@
         <v>120</v>
       </c>
       <c r="B241" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -7010,7 +7020,7 @@
         <v>121</v>
       </c>
       <c r="B242" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -7018,7 +7028,7 @@
         <v>121</v>
       </c>
       <c r="B243" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -7026,7 +7036,7 @@
         <v>122</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -7034,7 +7044,7 @@
         <v>123</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -7042,7 +7052,7 @@
         <v>124</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -7050,7 +7060,7 @@
         <v>125</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -7058,7 +7068,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7076,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7095,37 +7105,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -7133,7 +7143,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D2" s="9">
         <v>44897</v>
@@ -7145,13 +7155,13 @@
         <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
@@ -7165,7 +7175,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D3" s="9">
         <v>44898</v>
@@ -7177,13 +7187,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
@@ -7197,7 +7207,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D4" s="9">
         <v>44898</v>
@@ -7209,13 +7219,13 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -7226,10 +7236,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C5" t="s">
-        <v>166</v>
+        <v>485</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>598</v>
       </c>
       <c r="D5" s="9">
         <v>44898</v>
@@ -7238,16 +7248,16 @@
         <v>44899</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -7261,7 +7271,7 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D6" s="9">
         <v>44903</v>
@@ -7270,22 +7280,22 @@
         <v>44904</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>597</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7293,7 +7303,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D7" s="9">
         <v>44904</v>
@@ -7305,13 +7315,13 @@
         <v>10</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -7325,7 +7335,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8" s="9">
         <v>44904</v>
@@ -7337,13 +7347,13 @@
         <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
@@ -7357,7 +7367,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D9" s="9">
         <v>44905</v>
@@ -7369,13 +7379,13 @@
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
@@ -7389,7 +7399,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D10" s="9">
         <v>44905</v>
@@ -7401,13 +7411,13 @@
         <v>61</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
@@ -7421,7 +7431,7 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="9">
         <v>44905</v>
@@ -7430,22 +7440,22 @@
         <v>44905</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7453,7 +7463,7 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D12" s="9">
         <v>44911</v>
@@ -7465,13 +7475,13 @@
         <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -7485,7 +7495,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="9">
         <v>44912</v>
@@ -7494,16 +7504,16 @@
         <v>44913</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>603</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -7517,7 +7527,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D14" s="9">
         <v>44918</v>
@@ -7529,13 +7539,13 @@
         <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -7549,7 +7559,7 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D15" s="9">
         <v>44918</v>
@@ -7561,19 +7571,19 @@
         <v>63</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J15" s="5">
         <v>0</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="330" x14ac:dyDescent="0.3">
@@ -7581,7 +7591,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D16" s="9">
         <v>44919</v>
@@ -7593,19 +7603,19 @@
         <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
@@ -7613,7 +7623,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D17" s="9">
         <v>44919</v>
@@ -7625,13 +7635,13 @@
         <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
@@ -7645,7 +7655,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D18" s="9">
         <v>44919</v>
@@ -7657,13 +7667,13 @@
         <v>58</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
@@ -7677,7 +7687,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D19" s="9">
         <v>44919</v>
@@ -7689,19 +7699,19 @@
         <v>64</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -7709,7 +7719,7 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D20" s="9">
         <v>44919</v>
@@ -7721,13 +7731,13 @@
         <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
@@ -7741,7 +7751,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D21" s="9">
         <v>44924</v>
@@ -7753,13 +7763,13 @@
         <v>19</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J21" s="5">
         <v>0</v>
@@ -7773,7 +7783,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D22" s="9">
         <v>44925</v>
@@ -7785,13 +7795,13 @@
         <v>10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
@@ -7805,7 +7815,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D23" s="9">
         <v>44925</v>
@@ -7817,13 +7827,13 @@
         <v>65</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -7837,7 +7847,7 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D24" s="9">
         <v>44925</v>
@@ -7846,30 +7856,30 @@
         <v>44926</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>600</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
-        <v>165</v>
+      <c r="C25" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="D25" s="9">
         <v>44925</v>
@@ -7878,30 +7888,30 @@
         <v>44926</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
-        <v>164</v>
+      <c r="C26" s="11" t="s">
+        <v>599</v>
       </c>
       <c r="D26" s="9">
         <v>44926</v>
@@ -7910,30 +7920,30 @@
         <v>44926</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="198" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D27" s="9">
         <v>44975</v>
@@ -7942,22 +7952,22 @@
         <v>44975</v>
       </c>
       <c r="F27" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
@@ -7965,7 +7975,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D28" s="9">
         <v>45005</v>
@@ -7977,13 +7987,13 @@
         <v>10</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
@@ -7994,13 +8004,13 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" t="s">
-        <v>137</v>
+        <v>116</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E29" s="9">
         <v>44906</v>
@@ -8009,243 +8019,243 @@
         <v>65</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E30" s="9">
         <v>44913</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H31" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F32" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J34" s="5">
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J35" s="5">
         <v>0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8253,10 +8263,10 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E37" s="9">
         <v>44920</v>
@@ -8265,13 +8275,13 @@
         <v>16</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
@@ -8282,28 +8292,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J38" s="5">
         <v>0</v>
@@ -8314,107 +8324,107 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J39" s="5">
         <v>0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C40" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>601</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J40" s="5">
         <v>0</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J41" s="5">
         <v>0</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D42" s="10">
         <v>44962</v>
@@ -8423,31 +8433,31 @@
         <v>44962</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J42" s="5">
         <v>41</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D43" s="10">
         <v>44920</v>
@@ -8456,31 +8466,31 @@
         <v>44920</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J43" s="5">
         <v>42</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D44" s="10">
         <v>44912</v>
@@ -8489,31 +8499,31 @@
         <v>44912</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J44" s="5">
         <v>43</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D45" s="10">
         <v>44905</v>
@@ -8522,31 +8532,31 @@
         <v>44905</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J45" s="5">
         <v>44</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D46" s="10">
         <v>44923</v>
@@ -8555,31 +8565,31 @@
         <v>44925</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J46" s="5">
         <v>45</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D47" s="10">
         <v>44912</v>
@@ -8588,22 +8598,22 @@
         <v>44913</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J47" s="5">
         <v>46</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -8628,10 +8638,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8639,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8647,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8655,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8663,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8671,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8679,7 +8689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8687,7 +8697,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8695,7 +8705,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8703,7 +8713,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8711,7 +8721,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8719,7 +8729,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8727,7 +8737,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8735,7 +8745,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8743,7 +8753,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8751,7 +8761,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8759,7 +8769,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8767,7 +8777,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8775,7 +8785,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8783,7 +8793,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8791,7 +8801,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8799,7 +8809,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8807,7 +8817,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8815,7 +8825,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -8823,7 +8833,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8831,7 +8841,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -8839,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -8847,7 +8857,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8855,7 +8865,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -8863,7 +8873,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8871,7 +8881,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8879,7 +8889,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -8887,7 +8897,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8895,7 +8905,7 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8903,7 +8913,7 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8911,7 +8921,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8919,7 +8929,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8927,7 +8937,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8935,7 +8945,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -8943,7 +8953,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -8951,7 +8961,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8959,7 +8969,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8967,7 +8977,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8975,7 +8985,7 @@
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8983,7 +8993,7 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8991,7 +9001,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8999,7 +9009,7 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -9007,7 +9017,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -9015,7 +9025,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -9023,7 +9033,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -9031,7 +9041,7 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -9039,7 +9049,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -9047,7 +9057,7 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9055,7 +9065,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -9063,7 +9073,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -9071,7 +9081,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -9079,7 +9089,7 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -9087,7 +9097,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -9095,7 +9105,7 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -9103,7 +9113,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -9111,7 +9121,7 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -9119,7 +9129,7 @@
         <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -9127,7 +9137,7 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -9135,7 +9145,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -9143,7 +9153,7 @@
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -9151,7 +9161,7 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -9159,7 +9169,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -9167,7 +9177,7 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -9175,7 +9185,7 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -9183,7 +9193,7 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -9191,7 +9201,7 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -9199,7 +9209,7 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -9207,7 +9217,7 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -9215,7 +9225,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -9223,7 +9233,7 @@
         <v>42</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -9231,7 +9241,7 @@
         <v>43</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -9239,7 +9249,7 @@
         <v>44</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -9247,7 +9257,7 @@
         <v>45</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -9255,7 +9265,7 @@
         <v>46</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
